--- a/data/nzd0455/nzd0455.xlsx
+++ b/data/nzd0455/nzd0455.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W349"/>
+  <dimension ref="A1:W355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24457,6 +24457,452 @@
         </is>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:26:33+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>361.93</v>
+      </c>
+      <c r="C350" t="n">
+        <v>339.4761538461539</v>
+      </c>
+      <c r="D350" t="n">
+        <v>333.63</v>
+      </c>
+      <c r="E350" t="n">
+        <v>345.52</v>
+      </c>
+      <c r="F350" t="n">
+        <v>350.55</v>
+      </c>
+      <c r="G350" t="n">
+        <v>365.07</v>
+      </c>
+      <c r="H350" t="n">
+        <v>363.34</v>
+      </c>
+      <c r="I350" t="n">
+        <v>359.9</v>
+      </c>
+      <c r="J350" t="n">
+        <v>360.26</v>
+      </c>
+      <c r="K350" t="n">
+        <v>351.95</v>
+      </c>
+      <c r="L350" t="n">
+        <v>356.3645454545455</v>
+      </c>
+      <c r="M350" t="n">
+        <v>351.1</v>
+      </c>
+      <c r="N350" t="n">
+        <v>348.7245454545454</v>
+      </c>
+      <c r="O350" t="n">
+        <v>326.4566666666667</v>
+      </c>
+      <c r="P350" t="inlineStr"/>
+      <c r="Q350" t="inlineStr"/>
+      <c r="R350" t="n">
+        <v>325.5766666666667</v>
+      </c>
+      <c r="S350" t="n">
+        <v>329.6645454545454</v>
+      </c>
+      <c r="T350" t="n">
+        <v>338.72</v>
+      </c>
+      <c r="U350" t="n">
+        <v>349.1945454545454</v>
+      </c>
+      <c r="V350" t="n">
+        <v>354.3845454545454</v>
+      </c>
+      <c r="W350" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:26:43+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>373.82</v>
+      </c>
+      <c r="C351" t="n">
+        <v>350.9023076923077</v>
+      </c>
+      <c r="D351" t="n">
+        <v>349.08</v>
+      </c>
+      <c r="E351" t="n">
+        <v>351.53</v>
+      </c>
+      <c r="F351" t="n">
+        <v>364.35</v>
+      </c>
+      <c r="G351" t="n">
+        <v>365.1642857142857</v>
+      </c>
+      <c r="H351" t="n">
+        <v>372.54</v>
+      </c>
+      <c r="I351" t="n">
+        <v>369.95</v>
+      </c>
+      <c r="J351" t="n">
+        <v>364.47</v>
+      </c>
+      <c r="K351" t="n">
+        <v>368.74</v>
+      </c>
+      <c r="L351" t="n">
+        <v>366.0327272727272</v>
+      </c>
+      <c r="M351" t="n">
+        <v>357.02</v>
+      </c>
+      <c r="N351" t="n">
+        <v>350.7927272727272</v>
+      </c>
+      <c r="O351" t="n">
+        <v>351.96</v>
+      </c>
+      <c r="P351" t="n">
+        <v>351.3727272727273</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>360.5527272727272</v>
+      </c>
+      <c r="R351" t="n">
+        <v>346.98</v>
+      </c>
+      <c r="S351" t="n">
+        <v>345.8827272727273</v>
+      </c>
+      <c r="T351" t="n">
+        <v>351.6</v>
+      </c>
+      <c r="U351" t="n">
+        <v>358.7627272727273</v>
+      </c>
+      <c r="V351" t="n">
+        <v>356.0727272727273</v>
+      </c>
+      <c r="W351" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:26:37+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>378.99</v>
+      </c>
+      <c r="C352" t="n">
+        <v>354.9038461538461</v>
+      </c>
+      <c r="D352" t="n">
+        <v>354.82</v>
+      </c>
+      <c r="E352" t="n">
+        <v>355.86</v>
+      </c>
+      <c r="F352" t="n">
+        <v>364.28</v>
+      </c>
+      <c r="G352" t="n">
+        <v>365.4542857142857</v>
+      </c>
+      <c r="H352" t="n">
+        <v>369.54</v>
+      </c>
+      <c r="I352" t="n">
+        <v>368.27</v>
+      </c>
+      <c r="J352" t="n">
+        <v>366.87</v>
+      </c>
+      <c r="K352" t="n">
+        <v>372.65</v>
+      </c>
+      <c r="L352" t="n">
+        <v>373.3490909090909</v>
+      </c>
+      <c r="M352" t="n">
+        <v>366.28</v>
+      </c>
+      <c r="N352" t="n">
+        <v>356.3990909090909</v>
+      </c>
+      <c r="O352" t="n">
+        <v>353.83</v>
+      </c>
+      <c r="P352" t="n">
+        <v>356.2290909090909</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>359.7790909090909</v>
+      </c>
+      <c r="R352" t="n">
+        <v>347.56</v>
+      </c>
+      <c r="S352" t="n">
+        <v>339.5290909090909</v>
+      </c>
+      <c r="T352" t="n">
+        <v>355.9</v>
+      </c>
+      <c r="U352" t="n">
+        <v>363.8590909090909</v>
+      </c>
+      <c r="V352" t="n">
+        <v>360.0590909090909</v>
+      </c>
+      <c r="W352" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:26:39+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>364.01</v>
+      </c>
+      <c r="C353" t="n">
+        <v>338.6546153846153</v>
+      </c>
+      <c r="D353" t="n">
+        <v>334.99</v>
+      </c>
+      <c r="E353" t="n">
+        <v>347.54</v>
+      </c>
+      <c r="F353" t="n">
+        <v>351.6</v>
+      </c>
+      <c r="G353" t="n">
+        <v>360.0985714285715</v>
+      </c>
+      <c r="H353" t="n">
+        <v>365.91</v>
+      </c>
+      <c r="I353" t="n">
+        <v>363.75</v>
+      </c>
+      <c r="J353" t="n">
+        <v>358.83</v>
+      </c>
+      <c r="K353" t="n">
+        <v>362.93</v>
+      </c>
+      <c r="L353" t="n">
+        <v>361.7454545454545</v>
+      </c>
+      <c r="M353" t="n">
+        <v>357.06</v>
+      </c>
+      <c r="N353" t="n">
+        <v>352.9054545454546</v>
+      </c>
+      <c r="O353" t="n">
+        <v>345.55</v>
+      </c>
+      <c r="P353" t="n">
+        <v>347.2754545454546</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>349.3054545454545</v>
+      </c>
+      <c r="R353" t="n">
+        <v>340.62</v>
+      </c>
+      <c r="S353" t="n">
+        <v>341.7454545454545</v>
+      </c>
+      <c r="T353" t="n">
+        <v>347.13</v>
+      </c>
+      <c r="U353" t="n">
+        <v>353.1354545454545</v>
+      </c>
+      <c r="V353" t="n">
+        <v>352.6754545454546</v>
+      </c>
+      <c r="W353" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>382.09</v>
+      </c>
+      <c r="C354" t="n">
+        <v>356.2238461538461</v>
+      </c>
+      <c r="D354" t="n">
+        <v>362.34</v>
+      </c>
+      <c r="E354" t="n">
+        <v>362</v>
+      </c>
+      <c r="F354" t="n">
+        <v>369.44</v>
+      </c>
+      <c r="G354" t="n">
+        <v>379.9214285714286</v>
+      </c>
+      <c r="H354" t="n">
+        <v>380.1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>379.37</v>
+      </c>
+      <c r="J354" t="n">
+        <v>376.15</v>
+      </c>
+      <c r="K354" t="n">
+        <v>376.04</v>
+      </c>
+      <c r="L354" t="n">
+        <v>378.1336363636364</v>
+      </c>
+      <c r="M354" t="n">
+        <v>378</v>
+      </c>
+      <c r="N354" t="n">
+        <v>373.0036363636364</v>
+      </c>
+      <c r="O354" t="n">
+        <v>369.4466666666667</v>
+      </c>
+      <c r="P354" t="n">
+        <v>372.3436363636364</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>374.4736363636364</v>
+      </c>
+      <c r="R354" t="n">
+        <v>361.1866666666667</v>
+      </c>
+      <c r="S354" t="n">
+        <v>364.6536363636364</v>
+      </c>
+      <c r="T354" t="n">
+        <v>369.98</v>
+      </c>
+      <c r="U354" t="n">
+        <v>373.0936363636364</v>
+      </c>
+      <c r="V354" t="n">
+        <v>371.5336363636364</v>
+      </c>
+      <c r="W354" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:26:46+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>363.18</v>
+      </c>
+      <c r="C355" t="n">
+        <v>345.2569230769231</v>
+      </c>
+      <c r="D355" t="n">
+        <v>347.74</v>
+      </c>
+      <c r="E355" t="n">
+        <v>350.6</v>
+      </c>
+      <c r="F355" t="n">
+        <v>355.61</v>
+      </c>
+      <c r="G355" t="n">
+        <v>366.0385714285715</v>
+      </c>
+      <c r="H355" t="n">
+        <v>373.27</v>
+      </c>
+      <c r="I355" t="n">
+        <v>371.07</v>
+      </c>
+      <c r="J355" t="n">
+        <v>366.22</v>
+      </c>
+      <c r="K355" t="n">
+        <v>368.31</v>
+      </c>
+      <c r="L355" t="n">
+        <v>369.0145454545454</v>
+      </c>
+      <c r="M355" t="n">
+        <v>363.14</v>
+      </c>
+      <c r="N355" t="n">
+        <v>358.7645454545454</v>
+      </c>
+      <c r="O355" t="n">
+        <v>354.8233333333333</v>
+      </c>
+      <c r="P355" t="n">
+        <v>353.4145454545454</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>358.3845454545454</v>
+      </c>
+      <c r="R355" t="n">
+        <v>341.7233333333333</v>
+      </c>
+      <c r="S355" t="n">
+        <v>348.8345454545454</v>
+      </c>
+      <c r="T355" t="n">
+        <v>356.85</v>
+      </c>
+      <c r="U355" t="n">
+        <v>374.3445454545454</v>
+      </c>
+      <c r="V355" t="n">
+        <v>366.1045454545454</v>
+      </c>
+      <c r="W355" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24468,7 +24914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B361"/>
+  <dimension ref="A1:B367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28086,6 +28532,66 @@
       </c>
       <c r="B361" t="n">
         <v>1.07</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -28254,28 +28760,28 @@
         <v>0.0575</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4093792985011993</v>
+        <v>0.3607426762522346</v>
       </c>
       <c r="J2" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K2" t="n">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02045912591290944</v>
+        <v>0.01642793895552641</v>
       </c>
       <c r="M2" t="n">
-        <v>15.64065019576512</v>
+        <v>15.51292935394722</v>
       </c>
       <c r="N2" t="n">
-        <v>410.9001111747469</v>
+        <v>406.5083630398134</v>
       </c>
       <c r="O2" t="n">
-        <v>20.27067120681372</v>
+        <v>20.16205255026912</v>
       </c>
       <c r="P2" t="n">
-        <v>372.5134609117897</v>
+        <v>373.0149597565849</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -28331,28 +28837,28 @@
         <v>0.0725</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5032344119647686</v>
+        <v>0.4769261015971951</v>
       </c>
       <c r="J3" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K3" t="n">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1173821483221729</v>
+        <v>0.1088630289465098</v>
       </c>
       <c r="M3" t="n">
-        <v>7.637629907541581</v>
+        <v>7.633500946879177</v>
       </c>
       <c r="N3" t="n">
-        <v>99.35763106214551</v>
+        <v>99.19418420468193</v>
       </c>
       <c r="O3" t="n">
-        <v>9.967829807041527</v>
+        <v>9.959627714160902</v>
       </c>
       <c r="P3" t="n">
-        <v>341.5541947673255</v>
+        <v>341.8165485495315</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -28408,28 +28914,28 @@
         <v>0.0561</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8061463311828504</v>
+        <v>0.7746045539967028</v>
       </c>
       <c r="J4" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K4" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2283738838837217</v>
+        <v>0.2165639013130702</v>
       </c>
       <c r="M4" t="n">
-        <v>8.551566767129316</v>
+        <v>8.578542938880721</v>
       </c>
       <c r="N4" t="n">
-        <v>113.6486663942927</v>
+        <v>114.7199838289836</v>
       </c>
       <c r="O4" t="n">
-        <v>10.66061285265968</v>
+        <v>10.71074151629959</v>
       </c>
       <c r="P4" t="n">
-        <v>334.8825882658022</v>
+        <v>335.1973626603751</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -28485,28 +28991,28 @@
         <v>0.055</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8095937998297905</v>
+        <v>0.7721558398327966</v>
       </c>
       <c r="J5" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K5" t="n">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2708286492409202</v>
+        <v>0.2551080888003818</v>
       </c>
       <c r="M5" t="n">
-        <v>7.545108611306709</v>
+        <v>7.58006587801031</v>
       </c>
       <c r="N5" t="n">
-        <v>90.6283942463332</v>
+        <v>91.24831439077302</v>
       </c>
       <c r="O5" t="n">
-        <v>9.519894655211958</v>
+        <v>9.552398358044591</v>
       </c>
       <c r="P5" t="n">
-        <v>341.5439673167474</v>
+        <v>341.9205988200745</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -28562,28 +29068,28 @@
         <v>0.0432</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8365401536952336</v>
+        <v>0.8030420878533416</v>
       </c>
       <c r="J6" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K6" t="n">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2104654839562944</v>
+        <v>0.2006294088028709</v>
       </c>
       <c r="M6" t="n">
-        <v>9.290547439564088</v>
+        <v>9.289386752582368</v>
       </c>
       <c r="N6" t="n">
-        <v>133.5884000161758</v>
+        <v>133.4278693103544</v>
       </c>
       <c r="O6" t="n">
-        <v>11.55804481805534</v>
+        <v>11.55109818633512</v>
       </c>
       <c r="P6" t="n">
-        <v>346.9735118174441</v>
+        <v>347.3126925016596</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -28639,28 +29145,28 @@
         <v>0.036</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6920355058129132</v>
+        <v>0.6642682977088116</v>
       </c>
       <c r="J7" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K7" t="n">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1920210875387721</v>
+        <v>0.1829717316094496</v>
       </c>
       <c r="M7" t="n">
-        <v>7.939303549648109</v>
+        <v>7.958860400763942</v>
       </c>
       <c r="N7" t="n">
-        <v>103.6478446653987</v>
+        <v>103.3650012880196</v>
       </c>
       <c r="O7" t="n">
-        <v>10.18075855058937</v>
+        <v>10.16685798504236</v>
       </c>
       <c r="P7" t="n">
-        <v>356.7911885941234</v>
+        <v>357.0714916576184</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28716,28 +29222,28 @@
         <v>0.0543</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6505020858434404</v>
+        <v>0.6447992090484078</v>
       </c>
       <c r="J8" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K8" t="n">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1729873208881995</v>
+        <v>0.1755733833744907</v>
       </c>
       <c r="M8" t="n">
-        <v>7.819350304477874</v>
+        <v>7.753398363581215</v>
       </c>
       <c r="N8" t="n">
-        <v>104.0292832421257</v>
+        <v>102.5704735985873</v>
       </c>
       <c r="O8" t="n">
-        <v>10.19947465520287</v>
+        <v>10.12770821057692</v>
       </c>
       <c r="P8" t="n">
-        <v>355.7332411958122</v>
+        <v>355.7901713581643</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -28793,28 +29299,28 @@
         <v>0.0562</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7623765957910383</v>
+        <v>0.7664401720342569</v>
       </c>
       <c r="J9" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K9" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2277275098136351</v>
+        <v>0.2359010845676041</v>
       </c>
       <c r="M9" t="n">
-        <v>7.692960946217908</v>
+        <v>7.635864439793225</v>
       </c>
       <c r="N9" t="n">
-        <v>101.5548244155762</v>
+        <v>100.2515156303531</v>
       </c>
       <c r="O9" t="n">
-        <v>10.07744136254715</v>
+        <v>10.01256788393233</v>
       </c>
       <c r="P9" t="n">
-        <v>348.3561305469937</v>
+        <v>348.3152947564201</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -28870,28 +29376,28 @@
         <v>0.0581</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6077047674621021</v>
+        <v>0.6108755308747071</v>
       </c>
       <c r="J10" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K10" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1528980281702192</v>
+        <v>0.1590652370418757</v>
       </c>
       <c r="M10" t="n">
-        <v>8.040386085648828</v>
+        <v>7.963226674087536</v>
       </c>
       <c r="N10" t="n">
-        <v>105.9999548118403</v>
+        <v>104.4830520841631</v>
       </c>
       <c r="O10" t="n">
-        <v>10.29562794645573</v>
+        <v>10.22169516685775</v>
       </c>
       <c r="P10" t="n">
-        <v>349.2464794717445</v>
+        <v>349.2146998751252</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -28947,28 +29453,28 @@
         <v>0.057</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4973803000547507</v>
+        <v>0.5024383566547568</v>
       </c>
       <c r="J11" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K11" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1092977643944731</v>
+        <v>0.1141893051622892</v>
       </c>
       <c r="M11" t="n">
-        <v>8.096604834524873</v>
+        <v>8.067256170899579</v>
       </c>
       <c r="N11" t="n">
-        <v>103.4799960654311</v>
+        <v>102.6591191653997</v>
       </c>
       <c r="O11" t="n">
-        <v>10.17251178743142</v>
+        <v>10.13208365369136</v>
       </c>
       <c r="P11" t="n">
-        <v>352.8354521511034</v>
+        <v>352.7843775267887</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -29024,28 +29530,28 @@
         <v>0.0612</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8004926332628803</v>
+        <v>0.8025775817869526</v>
       </c>
       <c r="J12" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K12" t="n">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2086510682255672</v>
+        <v>0.2148065769043563</v>
       </c>
       <c r="M12" t="n">
-        <v>8.672349365070392</v>
+        <v>8.621487671670456</v>
       </c>
       <c r="N12" t="n">
-        <v>121.8307328730425</v>
+        <v>120.4865277146288</v>
       </c>
       <c r="O12" t="n">
-        <v>11.03769599477366</v>
+        <v>10.97663553711376</v>
       </c>
       <c r="P12" t="n">
-        <v>346.5751979961945</v>
+        <v>346.5536042479487</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -29101,28 +29607,28 @@
         <v>0.058</v>
       </c>
       <c r="I13" t="n">
-        <v>0.818647493191924</v>
+        <v>0.8222522144279054</v>
       </c>
       <c r="J13" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K13" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2263163991248481</v>
+        <v>0.23260273743562</v>
       </c>
       <c r="M13" t="n">
-        <v>8.466094468910924</v>
+        <v>8.436349687273623</v>
       </c>
       <c r="N13" t="n">
-        <v>115.1851440389247</v>
+        <v>114.3575295814965</v>
       </c>
       <c r="O13" t="n">
-        <v>10.73243420846011</v>
+        <v>10.69380800189981</v>
       </c>
       <c r="P13" t="n">
-        <v>340.4058212343739</v>
+        <v>340.3681378595303</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -29178,28 +29684,28 @@
         <v>0.064</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8820255043603493</v>
+        <v>0.8769350302031566</v>
       </c>
       <c r="J14" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K14" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L14" t="n">
-        <v>0.251333921029552</v>
+        <v>0.2546899917448895</v>
       </c>
       <c r="M14" t="n">
-        <v>8.477185071706385</v>
+        <v>8.438042021055734</v>
       </c>
       <c r="N14" t="n">
-        <v>116.1592046035618</v>
+        <v>115.1524806256159</v>
       </c>
       <c r="O14" t="n">
-        <v>10.77771796826962</v>
+        <v>10.73091238551578</v>
       </c>
       <c r="P14" t="n">
-        <v>335.6983185198053</v>
+        <v>335.7501136780907</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -29255,28 +29761,28 @@
         <v>0.0679</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7438830976943439</v>
+        <v>0.7319961781890522</v>
       </c>
       <c r="J15" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K15" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1980489917098196</v>
+        <v>0.1945275453704611</v>
       </c>
       <c r="M15" t="n">
-        <v>8.454513719174086</v>
+        <v>8.463735913226964</v>
       </c>
       <c r="N15" t="n">
-        <v>112.1113141999714</v>
+        <v>113.3463674979945</v>
       </c>
       <c r="O15" t="n">
-        <v>10.5882630397989</v>
+        <v>10.64642510413681</v>
       </c>
       <c r="P15" t="n">
-        <v>334.5123000178422</v>
+        <v>334.6337113638441</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -29332,28 +29838,28 @@
         <v>0.0604</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6429065731118402</v>
+        <v>0.6587202546814738</v>
       </c>
       <c r="J16" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K16" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1612905371742079</v>
+        <v>0.1707407512496709</v>
       </c>
       <c r="M16" t="n">
-        <v>8.17164557102029</v>
+        <v>8.144350706084493</v>
       </c>
       <c r="N16" t="n">
-        <v>105.1878437462385</v>
+        <v>105.0264558662041</v>
       </c>
       <c r="O16" t="n">
-        <v>10.25611250651232</v>
+        <v>10.24824159874288</v>
       </c>
       <c r="P16" t="n">
-        <v>335.0612436972472</v>
+        <v>334.8968663582466</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -29409,28 +29915,28 @@
         <v>0.0626</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8068549367050517</v>
+        <v>0.8290143250755233</v>
       </c>
       <c r="J17" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K17" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2249495120814397</v>
+        <v>0.2379268923344524</v>
       </c>
       <c r="M17" t="n">
-        <v>8.320527645642425</v>
+        <v>8.316542809808871</v>
       </c>
       <c r="N17" t="n">
-        <v>111.1355071794058</v>
+        <v>111.0693366872151</v>
       </c>
       <c r="O17" t="n">
-        <v>10.5420826775076</v>
+        <v>10.53894381269846</v>
       </c>
       <c r="P17" t="n">
-        <v>333.3413321759397</v>
+        <v>333.1131733544036</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -29486,28 +29992,28 @@
         <v>0.0673</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8861001274936745</v>
+        <v>0.8677128522232178</v>
       </c>
       <c r="J18" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K18" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2602467026153118</v>
+        <v>0.2557656852355803</v>
       </c>
       <c r="M18" t="n">
-        <v>8.291413561600939</v>
+        <v>8.2930980386617</v>
       </c>
       <c r="N18" t="n">
-        <v>108.7543782102315</v>
+        <v>109.2023500445344</v>
       </c>
       <c r="O18" t="n">
-        <v>10.42853672430756</v>
+        <v>10.44999282509488</v>
       </c>
       <c r="P18" t="n">
-        <v>325.9533796372556</v>
+        <v>326.1435412776053</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -29563,28 +30069,28 @@
         <v>0.0609</v>
       </c>
       <c r="I19" t="n">
-        <v>1.014809380808456</v>
+        <v>1.010689988935647</v>
       </c>
       <c r="J19" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K19" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3282642171492895</v>
+        <v>0.3310204538858369</v>
       </c>
       <c r="M19" t="n">
-        <v>8.118244140993545</v>
+        <v>8.117513813735519</v>
       </c>
       <c r="N19" t="n">
-        <v>104.9759339758163</v>
+        <v>105.1460445801955</v>
       </c>
       <c r="O19" t="n">
-        <v>10.24577639692651</v>
+        <v>10.25407453552955</v>
       </c>
       <c r="P19" t="n">
-        <v>320.3271994944895</v>
+        <v>320.368784455982</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -29640,28 +30146,28 @@
         <v>0.0594</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9123251215995458</v>
+        <v>0.9328385970157402</v>
       </c>
       <c r="J20" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K20" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2492776366759742</v>
+        <v>0.2614441234022853</v>
       </c>
       <c r="M20" t="n">
-        <v>8.950179347720615</v>
+        <v>8.937247676185962</v>
       </c>
       <c r="N20" t="n">
-        <v>126.071547504872</v>
+        <v>125.9667709323127</v>
       </c>
       <c r="O20" t="n">
-        <v>11.22815868719676</v>
+        <v>11.223491922406</v>
       </c>
       <c r="P20" t="n">
-        <v>324.6365661767414</v>
+        <v>324.424560233825</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -29717,28 +30223,28 @@
         <v>0.0692</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8546823918564405</v>
+        <v>0.8794435769702778</v>
       </c>
       <c r="J21" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K21" t="n">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2583915857526049</v>
+        <v>0.2729187193780644</v>
       </c>
       <c r="M21" t="n">
-        <v>8.065019408881906</v>
+        <v>8.085304561824888</v>
       </c>
       <c r="N21" t="n">
-        <v>105.3461054533591</v>
+        <v>105.7435295644169</v>
       </c>
       <c r="O21" t="n">
-        <v>10.26382508879409</v>
+        <v>10.28316729244531</v>
       </c>
       <c r="P21" t="n">
-        <v>334.0753878419433</v>
+        <v>333.8218736547609</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -29794,28 +30300,28 @@
         <v>0.0692</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7920092561770868</v>
+        <v>0.8200477857302778</v>
       </c>
       <c r="J22" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K22" t="n">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="L22" t="n">
-        <v>0.200545281901145</v>
+        <v>0.2162385391150219</v>
       </c>
       <c r="M22" t="n">
-        <v>9.096416663409242</v>
+        <v>9.044996330924121</v>
       </c>
       <c r="N22" t="n">
-        <v>123.1643530429819</v>
+        <v>122.5720976711197</v>
       </c>
       <c r="O22" t="n">
-        <v>11.09794364028678</v>
+        <v>11.07122837227738</v>
       </c>
       <c r="P22" t="n">
-        <v>332.8669958537125</v>
+        <v>332.5758120076948</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -29852,7 +30358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W349"/>
+  <dimension ref="A1:W355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66301,6 +66807,700 @@
         </is>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:26:33+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>-44.15790021718212,168.24396754235013</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>-44.157780550137176,168.24488293385136</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>-44.15752636599201,168.24570848159485</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>-44.15712836672662,168.24643668481525</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>-44.15674255284209,168.24714636578867</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>-44.156220293116746,168.24770575749523</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>-44.155810026538944,168.2483977541987</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>-44.15541174376234,168.24910310974204</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>-44.15498682024812,168.24977877906053</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>-44.15462438723524,168.25051810840432</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>-44.15414240513741,168.25108624815948</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>-44.15365192356736,168.25165009223014</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>-44.15313961500325,168.2521940094678</t>
+        </is>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>-44.15273641044721,168.25293463369377</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr"/>
+      <c r="Q350" t="inlineStr"/>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>-44.15108088416451,168.25438603267455</t>
+        </is>
+      </c>
+      <c r="S350" t="inlineStr">
+        <is>
+          <t>-44.150467243677966,168.25468760729817</t>
+        </is>
+      </c>
+      <c r="T350" t="inlineStr">
+        <is>
+          <t>-44.14983821434557,168.25493115091092</t>
+        </is>
+      </c>
+      <c r="U350" t="inlineStr">
+        <is>
+          <t>-44.14920709898045,168.2551550203135</t>
+        </is>
+      </c>
+      <c r="V350" t="inlineStr">
+        <is>
+          <t>-44.14857626512272,168.25529511581232</t>
+        </is>
+      </c>
+      <c r="W350" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:26:43+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>-44.15780391316477,168.24390321997814</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>-44.15768800337668,168.2448211198236</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>-44.15740122821276,168.2456248981821</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>-44.157080767689315,168.24640122219537</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>-44.15664065778048,168.24704815153146</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>-44.156219632177496,168.24770502092105</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>-44.15574553515239,168.24832588240537</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>-44.15534129424584,168.24902459750064</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>-44.15495730869053,168.24974588980646</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>-44.15451097636149,168.25037985170115</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>-44.15408439766879,168.25099639157824</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>-44.15361945224143,168.25159155165187</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>-44.15312827105424,168.2521735581041</t>
+        </is>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>-44.15259652602816,168.25268244287514</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>-44.152074399948454,168.2532086775326</t>
+        </is>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>-44.151509087461555,168.25362622399703</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>-44.15099610604526,168.25414621283397</t>
+        </is>
+      </c>
+      <c r="S351" t="inlineStr">
+        <is>
+          <t>-44.150405935626196,168.25450394453713</t>
+        </is>
+      </c>
+      <c r="T351" t="inlineStr">
+        <is>
+          <t>-44.149789525545884,168.2547852927291</t>
+        </is>
+      </c>
+      <c r="U351" t="inlineStr">
+        <is>
+          <t>-44.14917734083897,168.25504296835535</t>
+        </is>
+      </c>
+      <c r="V351" t="inlineStr">
+        <is>
+          <t>-44.148572190112496,168.25527481821032</t>
+        </is>
+      </c>
+      <c r="W351" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:26:37+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>-44.157762038322545,168.24387525143965</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>-44.15765559269003,168.24479947205703</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>-44.15735473688329,168.24559384527194</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>-44.157046474201074,168.2463756726214</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>-44.15664117463967,168.2470486497189</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>-44.15621759928853,168.24770275539757</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>-44.15576656495664,168.24834931884268</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>-44.15535307088468,168.24903772192215</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>-44.154940484996075,168.24972714060252</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>-44.1544845655891,168.25034765501036</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>-44.1540405006724,168.2509283930349</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>-44.15356866088949,168.25149998324355</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>-44.15309752020952,168.25211811921682</t>
+        </is>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>-44.15258626915819,168.2526639513468</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>-44.15204776315168,168.25316065553434</t>
+        </is>
+      </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>-44.151512826479504,168.25363436576959</t>
+        </is>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>-44.150993808671764,168.2541397140662</t>
+        </is>
+      </c>
+      <c r="S352" t="inlineStr">
+        <is>
+          <t>-44.150429953707416,168.25457589622906</t>
+        </is>
+      </c>
+      <c r="T352" t="inlineStr">
+        <is>
+          <t>-44.14977327070543,168.2547365978956</t>
+        </is>
+      </c>
+      <c r="U352" t="inlineStr">
+        <is>
+          <t>-44.14916149052126,168.25498328543304</t>
+        </is>
+      </c>
+      <c r="V352" t="inlineStr">
+        <is>
+          <t>-44.148562567632354,168.2552268887746</t>
+        </is>
+      </c>
+      <c r="W352" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:26:39+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>-44.1578833700558,168.24395628997797</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>-44.157787204232044,168.24488737827622</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>-44.15751535062953,168.24570112407702</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>-44.15711236838228,168.24642476559245</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>-44.15673479995946,168.2471388929531</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>-44.156255142635416,168.24774459506529</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>-44.15579201101424,168.24837767695388</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>-44.15538475564459,168.2490730328914</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>-44.15499684436203,168.24978995047726</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>-44.15455022099841,168.25042769389557</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>-44.15411012059361,168.2510362376905</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>-44.15361923284048,168.25159115610765</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>-44.15311668277059,168.25215266625773</t>
+        </is>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>-44.15263168458307,168.25274582832407</t>
+        </is>
+      </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>-44.15209687317317,168.25324919331868</t>
+        </is>
+      </c>
+      <c r="Q353" t="inlineStr">
+        <is>
+          <t>-44.15156344596328,168.25374459074072</t>
+        </is>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>-44.151021297911086,168.25421747521864</t>
+        </is>
+      </c>
+      <c r="S353" t="inlineStr">
+        <is>
+          <t>-44.150421575391796,168.25455079703409</t>
+        </is>
+      </c>
+      <c r="T353" t="inlineStr">
+        <is>
+          <t>-44.149806422998694,168.25483591273715</t>
+        </is>
+      </c>
+      <c r="U353" t="inlineStr">
+        <is>
+          <t>-44.14919484231451,168.25510886873224</t>
+        </is>
+      </c>
+      <c r="V353" t="inlineStr">
+        <is>
+          <t>-44.148580390600706,168.25531566481484</t>
+        </is>
+      </c>
+      <c r="W353" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>-44.15773692961383,168.24385848115418</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>-44.157644901274814,168.24479233104557</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>-44.15729382837204,168.24555316278415</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>-44.15699784555174,168.2463394430203</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>-44.15660307472897,168.2470119262116</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>-44.156116185119096,168.2475897361043</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>-44.155692540027346,168.2482668226564</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>-44.155275260925535,168.24895100709</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>-44.15487543335264,168.24965464377976</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>-44.1544616672404,168.25031974025555</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>-44.15401179415521,168.2508839253547</t>
+        </is>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>-44.15350437627457,168.2513840891162</t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>-44.15300644431076,168.25195392444598</t>
+        </is>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>-44.15250061230318,168.25250952591497</t>
+        </is>
+      </c>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>-44.151959375924996,168.25300130767678</t>
+        </is>
+      </c>
+      <c r="Q354" t="inlineStr">
+        <is>
+          <t>-44.15144180701482,168.25347972010894</t>
+        </is>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>-44.15093983349726,168.25398703052562</t>
+        </is>
+      </c>
+      <c r="S354" t="inlineStr">
+        <is>
+          <t>-44.150334977392546,168.25429137392334</t>
+        </is>
+      </c>
+      <c r="T354" t="inlineStr">
+        <is>
+          <t>-44.14972004541571,168.25457715082416</t>
+        </is>
+      </c>
+      <c r="U354" t="inlineStr">
+        <is>
+          <t>-44.14913276987294,168.2548751408319</t>
+        </is>
+      </c>
+      <c r="V354" t="inlineStr">
+        <is>
+          <t>-44.14853486970266,168.25508892642188</t>
+        </is>
+      </c>
+      <c r="W354" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:26:46+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>-44.15789009270728,168.24396078010653</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>-44.157733728482604,168.2448516606077</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>-44.15741208158837,168.24563214747445</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>-44.15708813326471,168.24640670975194</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>-44.15670519132774,168.24711035385585</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>-44.156213503467825,168.24769819087047</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>-44.155740417899395,168.24832017954142</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>-44.15533344315257,168.24901584788915</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>-44.154945041413605,168.24973221851084</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>-44.154513880870496,168.25038339251546</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>-44.15406650724722,168.25096867844192</t>
+        </is>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>-44.15358588388243,168.25153103342018</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>-44.153084545709206,168.25209472828507</t>
+        </is>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>-44.152580820766254,168.25265412875507</t>
+        </is>
+      </c>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>-44.1520632007284,168.25318848707272</t>
+        </is>
+      </c>
+      <c r="Q355" t="inlineStr">
+        <is>
+          <t>-44.15151956637654,168.25364904201092</t>
+        </is>
+      </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>-44.151016927627104,168.2542051126096</t>
+        </is>
+      </c>
+      <c r="S355" t="inlineStr">
+        <is>
+          <t>-44.15039477711829,168.2544705167224</t>
+        </is>
+      </c>
+      <c r="T355" t="inlineStr">
+        <is>
+          <t>-44.14976967951709,168.25472583973848</t>
+        </is>
+      </c>
+      <c r="U355" t="inlineStr">
+        <is>
+          <t>-44.14912887937395,168.25486049160142</t>
+        </is>
+      </c>
+      <c r="V355" t="inlineStr">
+        <is>
+          <t>-44.14854797478032,168.25515420220592</t>
+        </is>
+      </c>
+      <c r="W355" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0455/nzd0455.xlsx
+++ b/data/nzd0455/nzd0455.xlsx
@@ -28605,7 +28605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28696,35 +28696,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -28783,27 +28788,28 @@
       <c r="P2" t="n">
         <v>373.0149597565849</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (168.24592560226796 -44.1608316850375, 168.24112876530086 -44.15364966398414)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>168.245925602268</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-44.1608316850375</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>168.2411287653009</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-44.15364966398414</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>168.2435271837844</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-44.15724067451082</v>
       </c>
     </row>
@@ -28860,27 +28866,28 @@
       <c r="P3" t="n">
         <v>341.8165485495315</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (168.24671954047622 -44.160530144022616, 168.24192264946663 -44.153348130676704)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>168.2467195404762</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-44.16053014402262</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>168.2419226494666</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-44.1533481306767</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>168.2443210949714</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-44.15693913734966</v>
       </c>
     </row>
@@ -28937,27 +28944,28 @@
       <c r="P4" t="n">
         <v>335.1973626603751</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (168.24751347868397 -44.16022860146643, 168.2427165336335 -44.15304659582877)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>168.247513478684</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-44.16022860146643</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>168.2427165336335</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-44.15304659582877</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>168.2451150061588</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-44.1566375986476</v>
       </c>
     </row>
@@ -29014,27 +29022,28 @@
       <c r="P5" t="n">
         <v>341.9205988200745</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (168.24847555322617 -44.15986486099871, 168.24324329781754 -44.1528417721923)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>168.2484755532262</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-44.15986486099871</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>168.2432432978175</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-44.1528417721923</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>168.2458594255219</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-44.15635331659551</v>
       </c>
     </row>
@@ -29091,27 +29100,28 @@
       <c r="P6" t="n">
         <v>347.3126925016596</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (168.249641332592 -44.15933088511292, 168.24332971404118 -44.15278255811152)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>168.249641332592</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-44.15933088511292</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>168.2433297140412</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-44.15278255811152</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>168.2464855233166</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-44.15605672161222</v>
       </c>
     </row>
@@ -29168,27 +29178,28 @@
       <c r="P7" t="n">
         <v>357.0714916576184</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (168.25055786124838 -44.15877938921536, 168.24362917643086 -44.15256202834118)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>168.2505578612484</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-44.15877938921536</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>168.2436291764309</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-44.15256202834118</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>168.2470935188396</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-44.15567070877827</v>
       </c>
     </row>
@@ -29245,27 +29256,28 @@
       <c r="P8" t="n">
         <v>355.7901713581643</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (168.2512363452369 -44.158356984577324, 168.24430763914077 -44.15213963609545)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>168.2512363452369</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-44.15835698457732</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>168.2443076391408</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-44.15213963609545</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>168.2477719921888</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-44.15524831033639</v>
       </c>
     </row>
@@ -29322,27 +29334,28 @@
       <c r="P9" t="n">
         <v>348.3152947564201</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (168.2519148292248 -44.15793457691553, 168.2449861018517 -44.151717240826144)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>168.2519148292248</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-44.15793457691553</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>168.2449861018517</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-44.15171724082614</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>168.2484504655383</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-44.15482590887083</v>
       </c>
     </row>
@@ -29399,27 +29412,28 @@
       <c r="P10" t="n">
         <v>349.2146998751252</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (168.25259331321234 -44.15751216622994, 168.2456645645637 -44.15129484253334)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>168.2525933132123</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-44.15751216622994</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>168.2456645645637</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-44.15129484253334</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>168.249128938888</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-44.15440350438164</v>
       </c>
     </row>
@@ -29476,27 +29490,28 @@
       <c r="P11" t="n">
         <v>352.7843775267887</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (168.25341635047198 -44.15700165899013, 168.24611268746176 -44.151010371030225)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>168.253416350472</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-44.15700165899013</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>168.2461126874618</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-44.15101037103022</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>168.2497645189669</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-44.15400601501018</v>
       </c>
     </row>
@@ -29553,27 +29568,28 @@
       <c r="P12" t="n">
         <v>346.5536042479487</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (168.25439844275115 -44.15628048827923, 168.24615382896582 -44.15095798778689)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>168.2543984427512</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-44.15628048827923</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>168.2461538289658</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-44.15095798778689</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>168.2502761358585</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-44.15361923803306</v>
       </c>
     </row>
@@ -29630,27 +29646,28 @@
       <c r="P13" t="n">
         <v>340.3681378595303</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (168.25512210070156 -44.15557766555351, 168.2463493228525 -44.150711431095345)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>168.2551221007016</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-44.15557766555351</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>168.2463493228525</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-44.15071143109535</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>168.250735711777</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-44.15314454832443</v>
       </c>
     </row>
@@ -29707,27 +29724,28 @@
       <c r="P14" t="n">
         <v>335.7501136780907</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (168.25564251131405 -44.1550523165652, 168.24686975092462 -44.15018609630484)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>168.2556425113141</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-44.1550523165652</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>168.2468697509246</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-44.15018609630484</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>168.2512561311193</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-44.15261920643502</v>
       </c>
     </row>
@@ -29784,27 +29802,28 @@
       <c r="P15" t="n">
         <v>334.6337113638441</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (168.2561629219263 -44.15452696290035, 168.2473901789971 -44.149660756837555)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>168.2561629219263</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-44.15452696290035</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>168.2473901789971</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-44.14966075683756</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>168.2517765504617</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-44.15209385986896</v>
       </c>
     </row>
@@ -29861,27 +29880,28 @@
       <c r="P16" t="n">
         <v>334.8968663582466</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (168.25668333253836 -44.154001604559, 168.24791060707017 -44.14913541269344)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>168.2566833325384</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-44.154001604559</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>168.2479106070702</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-44.14913541269344</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>168.2522969698043</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-44.15156850862622</v>
       </c>
     </row>
@@ -29938,27 +29958,28 @@
       <c r="P17" t="n">
         <v>333.1131733544036</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (168.25742080681903 -44.153251596001326, 168.2480833182506 -44.14896333194306)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>168.257420806819</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-44.15325159600133</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>168.2480833182506</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-44.14896333194306</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>168.2527520625348</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-44.1511074639722</v>
       </c>
     </row>
@@ -30015,27 +30036,28 @@
       <c r="P18" t="n">
         <v>326.1435412776053</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (168.2580341396031 -44.15237042731838, 168.2480915900304 -44.148855509162665)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>168.2580341396031</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-44.15237042731838</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>168.2480915900304</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-44.14885550916267</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>168.2530628648167</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-44.15061296824052</v>
       </c>
     </row>
@@ -30092,27 +30114,28 @@
       <c r="P19" t="n">
         <v>320.368784455982</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (168.25842097964534 -44.15171338255362, 168.24837197711912 -44.14835879980426)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>168.2584209796453</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-44.15171338255362</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>168.2483719771191</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-44.14835879980426</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>168.2533964783822</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-44.15003609117894</v>
       </c>
     </row>
@@ -30169,27 +30192,28 @@
       <c r="P20" t="n">
         <v>324.424560233825</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (168.25876704016457 -44.15111857567395, 168.24871808789044 -44.14776400560097)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>168.2587670401646</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-44.15111857567395</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>168.2487180878904</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-44.14776400560097</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>168.2537425640275</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-44.14944129063745</v>
       </c>
     </row>
@@ -30246,27 +30270,28 @@
       <c r="P21" t="n">
         <v>333.8218736547609</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (168.25924448329042 -44.150293061884014, 168.24885185421954 -44.14753292506206)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>168.2592444832904</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-44.15029306188401</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>168.2488518542195</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-44.14753292506206</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>168.254048168755</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-44.14891299347303</v>
       </c>
     </row>
@@ -30323,27 +30348,28 @@
       <c r="P22" t="n">
         <v>332.5758120076948</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (168.25955607380442 -44.14943161725927, 168.2488855612517 -44.14728925822009)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>168.2595560738044</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-44.14943161725927</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>168.2488855612517</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-44.14728925822009</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>168.2542208175281</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-44.14836043773968</v>
       </c>
     </row>

--- a/data/nzd0455/nzd0455.xlsx
+++ b/data/nzd0455/nzd0455.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W355"/>
+  <dimension ref="A1:W357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24903,6 +24903,154 @@
         </is>
       </c>
     </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:26:38+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>368.41</v>
+      </c>
+      <c r="C356" t="n">
+        <v>349.4761538461539</v>
+      </c>
+      <c r="D356" t="n">
+        <v>345.27</v>
+      </c>
+      <c r="E356" t="n">
+        <v>351.44</v>
+      </c>
+      <c r="F356" t="n">
+        <v>355.42</v>
+      </c>
+      <c r="G356" t="n">
+        <v>365.6642857142857</v>
+      </c>
+      <c r="H356" t="n">
+        <v>373.49</v>
+      </c>
+      <c r="I356" t="n">
+        <v>365.11</v>
+      </c>
+      <c r="J356" t="n">
+        <v>365.29</v>
+      </c>
+      <c r="K356" t="n">
+        <v>370.64</v>
+      </c>
+      <c r="L356" t="n">
+        <v>364.5381818181818</v>
+      </c>
+      <c r="M356" t="n">
+        <v>362.08</v>
+      </c>
+      <c r="N356" t="n">
+        <v>361.1181818181818</v>
+      </c>
+      <c r="O356" t="n">
+        <v>359.9033333333333</v>
+      </c>
+      <c r="P356" t="n">
+        <v>358.2581818181818</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>360.6681818181818</v>
+      </c>
+      <c r="R356" t="n">
+        <v>354.0833333333333</v>
+      </c>
+      <c r="S356" t="n">
+        <v>345.8781818181818</v>
+      </c>
+      <c r="T356" t="n">
+        <v>367.2</v>
+      </c>
+      <c r="U356" t="n">
+        <v>371.7781818181818</v>
+      </c>
+      <c r="V356" t="n">
+        <v>375.2781818181818</v>
+      </c>
+      <c r="W356" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:25:58+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr"/>
+      <c r="C357" t="n">
+        <v>346.5384615384615</v>
+      </c>
+      <c r="D357" t="n">
+        <v>345.37</v>
+      </c>
+      <c r="E357" t="n">
+        <v>353.1</v>
+      </c>
+      <c r="F357" t="n">
+        <v>352.44</v>
+      </c>
+      <c r="G357" t="n">
+        <v>360.6314285714286</v>
+      </c>
+      <c r="H357" t="n">
+        <v>363.54</v>
+      </c>
+      <c r="I357" t="n">
+        <v>361.13</v>
+      </c>
+      <c r="J357" t="n">
+        <v>370.39</v>
+      </c>
+      <c r="K357" t="n">
+        <v>356.98</v>
+      </c>
+      <c r="L357" t="n">
+        <v>357.4863636363636</v>
+      </c>
+      <c r="M357" t="n">
+        <v>365.72</v>
+      </c>
+      <c r="N357" t="n">
+        <v>363.5263636363636</v>
+      </c>
+      <c r="O357" t="n">
+        <v>359.2366666666667</v>
+      </c>
+      <c r="P357" t="n">
+        <v>352.1763636363636</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>359.5363636363636</v>
+      </c>
+      <c r="R357" t="n">
+        <v>352.6066666666667</v>
+      </c>
+      <c r="S357" t="n">
+        <v>357.0163636363636</v>
+      </c>
+      <c r="T357" t="n">
+        <v>354.26</v>
+      </c>
+      <c r="U357" t="n">
+        <v>373.9863636363637</v>
+      </c>
+      <c r="V357" t="n">
+        <v>369.0363636363636</v>
+      </c>
+      <c r="W357" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24914,7 +25062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B367"/>
+  <dimension ref="A1:B369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28592,6 +28740,26 @@
       </c>
       <c r="B367" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>-0.68</v>
       </c>
     </row>
   </sheetData>
@@ -28765,28 +28933,28 @@
         <v>0.0575</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3607426762522346</v>
+        <v>0.3514980753019535</v>
       </c>
       <c r="J2" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K2" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01642793895552641</v>
+        <v>0.01568641594738818</v>
       </c>
       <c r="M2" t="n">
-        <v>15.51292935394722</v>
+        <v>15.49709055563771</v>
       </c>
       <c r="N2" t="n">
-        <v>406.5083630398134</v>
+        <v>405.7385815992643</v>
       </c>
       <c r="O2" t="n">
-        <v>20.16205255026912</v>
+        <v>20.14295364635644</v>
       </c>
       <c r="P2" t="n">
-        <v>373.0149597565849</v>
+        <v>373.111228318177</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28843,28 +29011,28 @@
         <v>0.0725</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4769261015971951</v>
+        <v>0.4690281340167993</v>
       </c>
       <c r="J3" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K3" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1088630289465098</v>
+        <v>0.1067213645963908</v>
       </c>
       <c r="M3" t="n">
-        <v>7.633500946879177</v>
+        <v>7.623239754212747</v>
       </c>
       <c r="N3" t="n">
-        <v>99.19418420468193</v>
+        <v>98.78268342742399</v>
       </c>
       <c r="O3" t="n">
-        <v>9.959627714160902</v>
+        <v>9.938947802832249</v>
       </c>
       <c r="P3" t="n">
-        <v>341.8165485495315</v>
+        <v>341.8964523760038</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28921,28 +29089,28 @@
         <v>0.0561</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7746045539967028</v>
+        <v>0.7620948697842032</v>
       </c>
       <c r="J4" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K4" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2165639013130702</v>
+        <v>0.2124665166799163</v>
       </c>
       <c r="M4" t="n">
-        <v>8.578542938880721</v>
+        <v>8.583341230334749</v>
       </c>
       <c r="N4" t="n">
-        <v>114.7199838289836</v>
+        <v>114.5794999109075</v>
       </c>
       <c r="O4" t="n">
-        <v>10.71074151629959</v>
+        <v>10.70418142180464</v>
       </c>
       <c r="P4" t="n">
-        <v>335.1973626603751</v>
+        <v>335.3239424382912</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28999,28 +29167,28 @@
         <v>0.055</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7721558398327966</v>
+        <v>0.7601911050265615</v>
       </c>
       <c r="J5" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K5" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2551080888003818</v>
+        <v>0.2505411366202424</v>
       </c>
       <c r="M5" t="n">
-        <v>7.58006587801031</v>
+        <v>7.588985316763215</v>
       </c>
       <c r="N5" t="n">
-        <v>91.24831439077302</v>
+        <v>91.22999946898463</v>
       </c>
       <c r="O5" t="n">
-        <v>9.552398358044591</v>
+        <v>9.551439654260745</v>
       </c>
       <c r="P5" t="n">
-        <v>341.9205988200745</v>
+        <v>342.0425310831041</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29077,28 +29245,28 @@
         <v>0.0432</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8030420878533416</v>
+        <v>0.7853905414219509</v>
       </c>
       <c r="J6" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K6" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2006294088028709</v>
+        <v>0.1942096245505316</v>
       </c>
       <c r="M6" t="n">
-        <v>9.289386752582368</v>
+        <v>9.319724666790668</v>
       </c>
       <c r="N6" t="n">
-        <v>133.4278693103544</v>
+        <v>133.8153936381258</v>
       </c>
       <c r="O6" t="n">
-        <v>11.55109818633512</v>
+        <v>11.56786037424924</v>
       </c>
       <c r="P6" t="n">
-        <v>347.3126925016596</v>
+        <v>347.4938217563912</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29155,28 +29323,28 @@
         <v>0.036</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6642682977088116</v>
+        <v>0.650443144795202</v>
       </c>
       <c r="J7" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K7" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1829717316094496</v>
+        <v>0.1775450231885705</v>
       </c>
       <c r="M7" t="n">
-        <v>7.958860400763942</v>
+        <v>7.976103050727655</v>
       </c>
       <c r="N7" t="n">
-        <v>103.3650012880196</v>
+        <v>103.501689587104</v>
       </c>
       <c r="O7" t="n">
-        <v>10.16685798504236</v>
+        <v>10.17357801302492</v>
       </c>
       <c r="P7" t="n">
-        <v>357.0714916576184</v>
+        <v>357.2130719887546</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29233,28 +29401,28 @@
         <v>0.0543</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6447992090484078</v>
+        <v>0.6397463423294019</v>
       </c>
       <c r="J8" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K8" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1755733833744907</v>
+        <v>0.1749296000866103</v>
       </c>
       <c r="M8" t="n">
-        <v>7.753398363581215</v>
+        <v>7.735901691070922</v>
       </c>
       <c r="N8" t="n">
-        <v>102.5704735985873</v>
+        <v>102.1516547717625</v>
       </c>
       <c r="O8" t="n">
-        <v>10.12770821057692</v>
+        <v>10.10701017966058</v>
       </c>
       <c r="P8" t="n">
-        <v>355.7901713581643</v>
+        <v>355.8417228311023</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29311,28 +29479,28 @@
         <v>0.0562</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7664401720342569</v>
+        <v>0.7599034024141029</v>
       </c>
       <c r="J9" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K9" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2359010845676041</v>
+        <v>0.2350508155080344</v>
       </c>
       <c r="M9" t="n">
-        <v>7.635864439793225</v>
+        <v>7.616813672577186</v>
       </c>
       <c r="N9" t="n">
-        <v>100.2515156303531</v>
+        <v>99.75717774272893</v>
       </c>
       <c r="O9" t="n">
-        <v>10.01256788393233</v>
+        <v>9.987851507843363</v>
       </c>
       <c r="P9" t="n">
-        <v>348.3152947564201</v>
+        <v>348.3814559896269</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29389,28 +29557,28 @@
         <v>0.0581</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6108755308747071</v>
+        <v>0.6148310268062132</v>
       </c>
       <c r="J10" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K10" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1590652370418757</v>
+        <v>0.1625883753519086</v>
       </c>
       <c r="M10" t="n">
-        <v>7.963226674087536</v>
+        <v>7.92935078363899</v>
       </c>
       <c r="N10" t="n">
-        <v>104.4830520841631</v>
+        <v>103.8749683193844</v>
       </c>
       <c r="O10" t="n">
-        <v>10.22169516685775</v>
+        <v>10.19190700111536</v>
       </c>
       <c r="P10" t="n">
-        <v>349.2146998751252</v>
+        <v>349.1746794751386</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29467,28 +29635,28 @@
         <v>0.057</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5024383566547568</v>
+        <v>0.499976319545141</v>
       </c>
       <c r="J11" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K11" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1141893051622892</v>
+        <v>0.1142451525007637</v>
       </c>
       <c r="M11" t="n">
-        <v>8.067256170899579</v>
+        <v>8.059921843810514</v>
       </c>
       <c r="N11" t="n">
-        <v>102.6591191653997</v>
+        <v>102.3209981731707</v>
       </c>
       <c r="O11" t="n">
-        <v>10.13208365369136</v>
+        <v>10.11538423260188</v>
       </c>
       <c r="P11" t="n">
-        <v>352.7843775267887</v>
+        <v>352.8097216347509</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29545,28 +29713,28 @@
         <v>0.0612</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8025775817869526</v>
+        <v>0.7947592472421238</v>
       </c>
       <c r="J12" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K12" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2148065769043563</v>
+        <v>0.2133050711946424</v>
       </c>
       <c r="M12" t="n">
-        <v>8.621487671670456</v>
+        <v>8.606988370906095</v>
       </c>
       <c r="N12" t="n">
-        <v>120.4865277146288</v>
+        <v>120.0389506756248</v>
       </c>
       <c r="O12" t="n">
-        <v>10.97663553711376</v>
+        <v>10.95622885283183</v>
       </c>
       <c r="P12" t="n">
-        <v>346.5536042479487</v>
+        <v>346.6346178928092</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29623,28 +29791,28 @@
         <v>0.058</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8222522144279054</v>
+        <v>0.825452360337621</v>
       </c>
       <c r="J13" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K13" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L13" t="n">
-        <v>0.23260273743562</v>
+        <v>0.2362952341891</v>
       </c>
       <c r="M13" t="n">
-        <v>8.436349687273623</v>
+        <v>8.395378293095902</v>
       </c>
       <c r="N13" t="n">
-        <v>114.3575295814965</v>
+        <v>113.6496988086911</v>
       </c>
       <c r="O13" t="n">
-        <v>10.69380800189981</v>
+        <v>10.66066127445625</v>
       </c>
       <c r="P13" t="n">
-        <v>340.3681378595303</v>
+        <v>340.3345394286612</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29701,28 +29869,28 @@
         <v>0.064</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8769350302031566</v>
+        <v>0.882237035379796</v>
       </c>
       <c r="J14" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K14" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2546899917448895</v>
+        <v>0.2593784092287768</v>
       </c>
       <c r="M14" t="n">
-        <v>8.438042021055734</v>
+        <v>8.4091147770771</v>
       </c>
       <c r="N14" t="n">
-        <v>115.1524806256159</v>
+        <v>114.5144490320729</v>
       </c>
       <c r="O14" t="n">
-        <v>10.73091238551578</v>
+        <v>10.70114241714747</v>
       </c>
       <c r="P14" t="n">
-        <v>335.7501136780907</v>
+        <v>335.6950022058154</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29779,28 +29947,28 @@
         <v>0.0679</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7319961781890522</v>
+        <v>0.7400952861711528</v>
       </c>
       <c r="J15" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K15" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1945275453704611</v>
+        <v>0.1998255375575236</v>
       </c>
       <c r="M15" t="n">
-        <v>8.463735913226964</v>
+        <v>8.448776450627189</v>
       </c>
       <c r="N15" t="n">
-        <v>113.3463674979945</v>
+        <v>112.842495855066</v>
       </c>
       <c r="O15" t="n">
-        <v>10.64642510413681</v>
+        <v>10.62273485760922</v>
       </c>
       <c r="P15" t="n">
-        <v>334.6337113638441</v>
+        <v>334.5494953811794</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29857,28 +30025,28 @@
         <v>0.0604</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6587202546814738</v>
+        <v>0.6632698828456262</v>
       </c>
       <c r="J16" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K16" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1707407512496709</v>
+        <v>0.1745088373669117</v>
       </c>
       <c r="M16" t="n">
-        <v>8.144350706084493</v>
+        <v>8.114217137214416</v>
       </c>
       <c r="N16" t="n">
-        <v>105.0264558662041</v>
+        <v>104.4755012685797</v>
       </c>
       <c r="O16" t="n">
-        <v>10.24824159874288</v>
+        <v>10.22132580776974</v>
       </c>
       <c r="P16" t="n">
-        <v>334.8968663582466</v>
+        <v>334.84921868727</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29935,28 +30103,28 @@
         <v>0.0626</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8290143250755233</v>
+        <v>0.8366449664529547</v>
       </c>
       <c r="J17" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K17" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2379268923344524</v>
+        <v>0.2434769029575675</v>
       </c>
       <c r="M17" t="n">
-        <v>8.316542809808871</v>
+        <v>8.29674491918478</v>
       </c>
       <c r="N17" t="n">
-        <v>111.0693366872151</v>
+        <v>110.5518996034285</v>
       </c>
       <c r="O17" t="n">
-        <v>10.53894381269846</v>
+        <v>10.51436634340979</v>
       </c>
       <c r="P17" t="n">
-        <v>333.1131733544036</v>
+        <v>333.0337412328814</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30013,28 +30181,28 @@
         <v>0.0673</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8677128522232178</v>
+        <v>0.8744677520144707</v>
       </c>
       <c r="J18" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K18" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2557656852355803</v>
+        <v>0.261187340179173</v>
       </c>
       <c r="M18" t="n">
-        <v>8.2930980386617</v>
+        <v>8.272655275865224</v>
       </c>
       <c r="N18" t="n">
-        <v>109.2023500445344</v>
+        <v>108.6358669969</v>
       </c>
       <c r="O18" t="n">
-        <v>10.44999282509488</v>
+        <v>10.42285311212338</v>
       </c>
       <c r="P18" t="n">
-        <v>326.1435412776053</v>
+        <v>326.0727200392315</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30091,28 +30259,28 @@
         <v>0.0609</v>
       </c>
       <c r="I19" t="n">
-        <v>1.010689988935647</v>
+        <v>1.017701710749689</v>
       </c>
       <c r="J19" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K19" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3310204538858369</v>
+        <v>0.3364465373698409</v>
       </c>
       <c r="M19" t="n">
-        <v>8.117513813735519</v>
+        <v>8.101082693364271</v>
       </c>
       <c r="N19" t="n">
-        <v>105.1460445801955</v>
+        <v>104.8167142889501</v>
       </c>
       <c r="O19" t="n">
-        <v>10.25407453552955</v>
+        <v>10.23800343274753</v>
       </c>
       <c r="P19" t="n">
-        <v>320.368784455982</v>
+        <v>320.2958858316285</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30169,28 +30337,28 @@
         <v>0.0594</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9328385970157402</v>
+        <v>0.9480390525009259</v>
       </c>
       <c r="J20" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K20" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2614441234022853</v>
+        <v>0.2683214256785285</v>
       </c>
       <c r="M20" t="n">
-        <v>8.937247676185962</v>
+        <v>8.953006008606872</v>
       </c>
       <c r="N20" t="n">
-        <v>125.9667709323127</v>
+        <v>126.3879968485184</v>
       </c>
       <c r="O20" t="n">
-        <v>11.223491922406</v>
+        <v>11.24224162916446</v>
       </c>
       <c r="P20" t="n">
-        <v>324.424560233825</v>
+        <v>324.2661012719956</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30247,28 +30415,28 @@
         <v>0.0692</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8794435769702778</v>
+        <v>0.901137341243238</v>
       </c>
       <c r="J21" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K21" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2729187193780644</v>
+        <v>0.2820955245475055</v>
       </c>
       <c r="M21" t="n">
-        <v>8.085304561824888</v>
+        <v>8.140498379972357</v>
       </c>
       <c r="N21" t="n">
-        <v>105.7435295644169</v>
+        <v>106.8123294104865</v>
       </c>
       <c r="O21" t="n">
-        <v>10.28316729244531</v>
+        <v>10.33500505130436</v>
       </c>
       <c r="P21" t="n">
-        <v>333.8218736547609</v>
+        <v>333.5974144648956</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30325,28 +30493,28 @@
         <v>0.0692</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8200477857302778</v>
+        <v>0.8443095933616724</v>
       </c>
       <c r="J22" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K22" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2162385391150219</v>
+        <v>0.2254333159741889</v>
       </c>
       <c r="M22" t="n">
-        <v>9.044996330924121</v>
+        <v>9.093782828398915</v>
       </c>
       <c r="N22" t="n">
-        <v>122.5720976711197</v>
+        <v>124.0344524634213</v>
       </c>
       <c r="O22" t="n">
-        <v>11.07122837227738</v>
+        <v>11.13707557949668</v>
       </c>
       <c r="P22" t="n">
-        <v>332.5758120076948</v>
+        <v>332.3211767083198</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30384,7 +30552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W355"/>
+  <dimension ref="A1:W357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67527,6 +67695,236 @@
         </is>
       </c>
     </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:26:38+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>-44.157847731901136,168.24393248690313</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>-44.1576995545895,168.24482883512303</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>-44.157432087436526,168.24564550998267</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>-44.15708148048693,168.24640175324916</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>-44.15670659423063,168.2471117060818</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>-44.156216127196515,168.2477011148462</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>-44.15573887571352,168.2483184608703</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>-44.15537522217799,168.24906240834804</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>-44.15495156059522,168.24973948382726</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>-44.15449814248332,168.25036420624681</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>-44.15409336469488,168.2510102819493</t>
+        </is>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>-44.15359169801206,168.25154151533113</t>
+        </is>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>-44.1530716360272,168.25207145422846</t>
+        </is>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>-44.15255295716592,168.25260389512687</t>
+        </is>
+      </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>-44.152036633732074,168.25314059094612</t>
+        </is>
+      </c>
+      <c r="Q356" t="inlineStr">
+        <is>
+          <t>-44.15150852946471,168.25362500894997</t>
+        </is>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>-44.150967969797456,168.25406662164005</t>
+        </is>
+      </c>
+      <c r="S356" t="inlineStr">
+        <is>
+          <t>-44.15040595280899,168.25450399601206</t>
+        </is>
+      </c>
+      <c r="T356" t="inlineStr">
+        <is>
+          <t>-44.14973055440298,168.2546086325373</t>
+        </is>
+      </c>
+      <c r="U356" t="inlineStr">
+        <is>
+          <t>-44.14913686111522,168.25489054594786</t>
+        </is>
+      </c>
+      <c r="V356" t="inlineStr">
+        <is>
+          <t>-44.148525830864614,168.2550439045124</t>
+        </is>
+      </c>
+      <c r="W356" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:25:58+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr"/>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>-44.15772334859128,168.2448447276502</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>-44.15743127748318,168.24564496899026</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>-44.15706833333036,168.24639195825878</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>-44.15672859765307,168.247132914686</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>-44.15625140732837,168.2477404323006</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>-44.1558086245527,168.24839619176674</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>-44.155403121585195,168.24909350077124</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>-44.154915810239444,168.24969964178908</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>-44.154590411271116,168.25047668897932</t>
+        </is>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>-44.15413567441983,168.2510758219142</t>
+        </is>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>-44.15357173250665,168.2515055208533</t>
+        </is>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>-44.1530584271592,168.25204764080698</t>
+        </is>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>-44.15255661380754,168.25261048746378</t>
+        </is>
+      </c>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>-44.15206999206349,168.2532007307968</t>
+        </is>
+      </c>
+      <c r="Q357" t="inlineStr">
+        <is>
+          <t>-44.15151399959078,168.253636920239</t>
+        </is>
+      </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>-44.1509738188669,168.25408316733925</t>
+        </is>
+      </c>
+      <c r="S357" t="inlineStr">
+        <is>
+          <t>-44.15036384803645,168.25437786193123</t>
+        </is>
+      </c>
+      <c r="T357" t="inlineStr">
+        <is>
+          <t>-44.149779470228296,168.25475516987527</t>
+        </is>
+      </c>
+      <c r="U357" t="inlineStr">
+        <is>
+          <t>-44.14912999336875,168.254864686221</t>
+        </is>
+      </c>
+      <c r="V357" t="inlineStr">
+        <is>
+          <t>-44.148540897779554,168.25511895196695</t>
+        </is>
+      </c>
+      <c r="W357" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0455/nzd0455.xlsx
+++ b/data/nzd0455/nzd0455.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W357"/>
+  <dimension ref="A1:W358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24984,7 +24984,9 @@
           <t>2025-05-03 22:25:58+00:00</t>
         </is>
       </c>
-      <c r="B357" t="inlineStr"/>
+      <c r="B357" t="n">
+        <v>430</v>
+      </c>
       <c r="C357" t="n">
         <v>346.5384615384615</v>
       </c>
@@ -25046,6 +25048,81 @@
         <v>369.0363636363636</v>
       </c>
       <c r="W357" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:26:00+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>406.2600000000001</v>
+      </c>
+      <c r="C358" t="n">
+        <v>350.4923076923077</v>
+      </c>
+      <c r="D358" t="n">
+        <v>340.17</v>
+      </c>
+      <c r="E358" t="n">
+        <v>357.0700000000001</v>
+      </c>
+      <c r="F358" t="n">
+        <v>353.47</v>
+      </c>
+      <c r="G358" t="n">
+        <v>365.9771428571429</v>
+      </c>
+      <c r="H358" t="n">
+        <v>365.8200000000001</v>
+      </c>
+      <c r="I358" t="n">
+        <v>373.54</v>
+      </c>
+      <c r="J358" t="n">
+        <v>372.91</v>
+      </c>
+      <c r="K358" t="n">
+        <v>361.5</v>
+      </c>
+      <c r="L358" t="n">
+        <v>357.2281818181818</v>
+      </c>
+      <c r="M358" t="n">
+        <v>349.6</v>
+      </c>
+      <c r="N358" t="n">
+        <v>352.8281818181818</v>
+      </c>
+      <c r="O358" t="n">
+        <v>362.2933333333333</v>
+      </c>
+      <c r="P358" t="n">
+        <v>361.0881818181818</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>363.4881818181818</v>
+      </c>
+      <c r="R358" t="n">
+        <v>338.1433333333333</v>
+      </c>
+      <c r="S358" t="n">
+        <v>343.4181818181818</v>
+      </c>
+      <c r="T358" t="n">
+        <v>356.84</v>
+      </c>
+      <c r="U358" t="n">
+        <v>367.7281818181818</v>
+      </c>
+      <c r="V358" t="n">
+        <v>352.7881818181818</v>
+      </c>
+      <c r="W358" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -25062,7 +25139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B369"/>
+  <dimension ref="A1:B370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28760,6 +28837,16 @@
       </c>
       <c r="B369" t="n">
         <v>-0.68</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>-0.67</v>
       </c>
     </row>
   </sheetData>
@@ -28933,28 +29020,28 @@
         <v>0.0575</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3514980753019535</v>
+        <v>0.3993915295392972</v>
       </c>
       <c r="J2" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K2" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01568641594738818</v>
+        <v>0.01994705897625781</v>
       </c>
       <c r="M2" t="n">
-        <v>15.49709055563771</v>
+        <v>15.68802719616377</v>
       </c>
       <c r="N2" t="n">
-        <v>405.7385815992643</v>
+        <v>412.7988408746777</v>
       </c>
       <c r="O2" t="n">
-        <v>20.14295364635644</v>
+        <v>20.31745163337857</v>
       </c>
       <c r="P2" t="n">
-        <v>373.111228318177</v>
+        <v>372.6082377744114</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29011,28 +29098,28 @@
         <v>0.0725</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4690281340167993</v>
+        <v>0.4667465568882477</v>
       </c>
       <c r="J3" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K3" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1067213645963908</v>
+        <v>0.1064087822146385</v>
       </c>
       <c r="M3" t="n">
-        <v>7.623239754212747</v>
+        <v>7.60948798502908</v>
       </c>
       <c r="N3" t="n">
-        <v>98.78268342742399</v>
+        <v>98.49178190634306</v>
       </c>
       <c r="O3" t="n">
-        <v>9.938947802832249</v>
+        <v>9.924302590426345</v>
       </c>
       <c r="P3" t="n">
-        <v>341.8964523760038</v>
+        <v>341.9196486159871</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29089,28 +29176,28 @@
         <v>0.0561</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7620948697842032</v>
+        <v>0.7525898244423971</v>
       </c>
       <c r="J4" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K4" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2124665166799163</v>
+        <v>0.2084026938507402</v>
       </c>
       <c r="M4" t="n">
-        <v>8.583341230334749</v>
+        <v>8.601203662041144</v>
       </c>
       <c r="N4" t="n">
-        <v>114.5794999109075</v>
+        <v>114.912655216786</v>
       </c>
       <c r="O4" t="n">
-        <v>10.70418142180464</v>
+        <v>10.71973204967298</v>
       </c>
       <c r="P4" t="n">
-        <v>335.3239424382912</v>
+        <v>335.4206715586656</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29167,28 +29254,28 @@
         <v>0.055</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7601911050265615</v>
+        <v>0.7572956718476042</v>
       </c>
       <c r="J5" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K5" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2505411366202424</v>
+        <v>0.2502249584886505</v>
       </c>
       <c r="M5" t="n">
-        <v>7.588985316763215</v>
+        <v>7.578486487345659</v>
       </c>
       <c r="N5" t="n">
-        <v>91.22999946898463</v>
+        <v>91.00387460179746</v>
       </c>
       <c r="O5" t="n">
-        <v>9.551439654260745</v>
+        <v>9.539595096323401</v>
       </c>
       <c r="P5" t="n">
-        <v>342.0425310831041</v>
+        <v>342.0722160467499</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29245,28 +29332,28 @@
         <v>0.0432</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7853905414219509</v>
+        <v>0.7763778907643873</v>
       </c>
       <c r="J6" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K6" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1942096245505316</v>
+        <v>0.1909077830067866</v>
       </c>
       <c r="M6" t="n">
-        <v>9.319724666790668</v>
+        <v>9.33557639401643</v>
       </c>
       <c r="N6" t="n">
-        <v>133.8153936381258</v>
+        <v>134.03080183234</v>
       </c>
       <c r="O6" t="n">
-        <v>11.56786037424924</v>
+        <v>11.57716726286443</v>
       </c>
       <c r="P6" t="n">
-        <v>347.4938217563912</v>
+        <v>347.5867904365837</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29323,28 +29410,28 @@
         <v>0.036</v>
       </c>
       <c r="I7" t="n">
-        <v>0.650443144795202</v>
+        <v>0.6453982646683973</v>
       </c>
       <c r="J7" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K7" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1775450231885705</v>
+        <v>0.1759505066822132</v>
       </c>
       <c r="M7" t="n">
-        <v>7.976103050727655</v>
+        <v>7.975614969534056</v>
       </c>
       <c r="N7" t="n">
-        <v>103.501689587104</v>
+        <v>103.3728742510757</v>
       </c>
       <c r="O7" t="n">
-        <v>10.17357801302492</v>
+        <v>10.16724516528817</v>
       </c>
       <c r="P7" t="n">
-        <v>357.2130719887546</v>
+        <v>357.2649895359174</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29401,28 +29488,28 @@
         <v>0.0543</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6397463423294019</v>
+        <v>0.6354743098600336</v>
       </c>
       <c r="J8" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K8" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1749296000866103</v>
+        <v>0.1738038177421312</v>
       </c>
       <c r="M8" t="n">
-        <v>7.735901691070922</v>
+        <v>7.732226201220335</v>
       </c>
       <c r="N8" t="n">
-        <v>102.1516547717625</v>
+        <v>101.9524792704735</v>
       </c>
       <c r="O8" t="n">
-        <v>10.10701017966058</v>
+        <v>10.09715203760315</v>
       </c>
       <c r="P8" t="n">
-        <v>355.8417228311023</v>
+        <v>355.885347840573</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29479,28 +29566,28 @@
         <v>0.0562</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7599034024141029</v>
+        <v>0.7636389381073864</v>
       </c>
       <c r="J9" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K9" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2350508155080344</v>
+        <v>0.2379239584823694</v>
       </c>
       <c r="M9" t="n">
-        <v>7.616813672577186</v>
+        <v>7.609828431897464</v>
       </c>
       <c r="N9" t="n">
-        <v>99.75717774272893</v>
+        <v>99.52382156852154</v>
       </c>
       <c r="O9" t="n">
-        <v>9.987851507843363</v>
+        <v>9.976162667505053</v>
       </c>
       <c r="P9" t="n">
-        <v>348.3814559896269</v>
+        <v>348.3434907421156</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29557,28 +29644,28 @@
         <v>0.0581</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6148310268062132</v>
+        <v>0.6200884839537985</v>
       </c>
       <c r="J10" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K10" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1625883753519086</v>
+        <v>0.165622484051103</v>
       </c>
       <c r="M10" t="n">
-        <v>7.92935078363899</v>
+        <v>7.929690265980178</v>
       </c>
       <c r="N10" t="n">
-        <v>103.8749683193844</v>
+        <v>103.7319059860297</v>
       </c>
       <c r="O10" t="n">
-        <v>10.19190700111536</v>
+        <v>10.18488615478984</v>
       </c>
       <c r="P10" t="n">
-        <v>349.1746794751386</v>
+        <v>349.121347264558</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29635,28 +29722,28 @@
         <v>0.057</v>
       </c>
       <c r="I11" t="n">
-        <v>0.499976319545141</v>
+        <v>0.4972760483631049</v>
       </c>
       <c r="J11" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K11" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1142451525007637</v>
+        <v>0.1137836581551693</v>
       </c>
       <c r="M11" t="n">
-        <v>8.059921843810514</v>
+        <v>8.047780980803042</v>
       </c>
       <c r="N11" t="n">
-        <v>102.3209981731707</v>
+        <v>102.0463490985419</v>
       </c>
       <c r="O11" t="n">
-        <v>10.11538423260188</v>
+        <v>10.10179930005254</v>
       </c>
       <c r="P11" t="n">
-        <v>352.8097216347509</v>
+        <v>352.837314704381</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29713,28 +29800,28 @@
         <v>0.0612</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7947592472421238</v>
+        <v>0.7884701340766922</v>
       </c>
       <c r="J12" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K12" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2133050711946424</v>
+        <v>0.2113354505546723</v>
       </c>
       <c r="M12" t="n">
-        <v>8.606988370906095</v>
+        <v>8.61173732608426</v>
       </c>
       <c r="N12" t="n">
-        <v>120.0389506756248</v>
+        <v>119.9661277638267</v>
       </c>
       <c r="O12" t="n">
-        <v>10.95622885283183</v>
+        <v>10.9529049920022</v>
       </c>
       <c r="P12" t="n">
-        <v>346.6346178928092</v>
+        <v>346.7000117703812</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29791,28 +29878,28 @@
         <v>0.058</v>
       </c>
       <c r="I13" t="n">
-        <v>0.825452360337621</v>
+        <v>0.8175814820403497</v>
       </c>
       <c r="J13" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K13" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2362952341891</v>
+        <v>0.2332978487056544</v>
       </c>
       <c r="M13" t="n">
-        <v>8.395378293095902</v>
+        <v>8.408746078616051</v>
       </c>
       <c r="N13" t="n">
-        <v>113.6496988086911</v>
+        <v>113.7475368522644</v>
       </c>
       <c r="O13" t="n">
-        <v>10.66066127445625</v>
+        <v>10.66524902907871</v>
       </c>
       <c r="P13" t="n">
-        <v>340.3345394286612</v>
+        <v>340.4174330697586</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29869,28 +29956,28 @@
         <v>0.064</v>
       </c>
       <c r="I14" t="n">
-        <v>0.882237035379796</v>
+        <v>0.8785848645583721</v>
       </c>
       <c r="J14" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K14" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2593784092287768</v>
+        <v>0.258914901952099</v>
       </c>
       <c r="M14" t="n">
-        <v>8.4091147770771</v>
+        <v>8.399992063608972</v>
       </c>
       <c r="N14" t="n">
-        <v>114.5144490320729</v>
+        <v>114.2429488731925</v>
       </c>
       <c r="O14" t="n">
-        <v>10.70114241714747</v>
+        <v>10.68844932032671</v>
       </c>
       <c r="P14" t="n">
-        <v>335.6950022058154</v>
+        <v>335.7331396589107</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29947,28 +30034,28 @@
         <v>0.0679</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7400952861711528</v>
+        <v>0.7458084981697336</v>
       </c>
       <c r="J15" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K15" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1998255375575236</v>
+        <v>0.2030506084370777</v>
       </c>
       <c r="M15" t="n">
-        <v>8.448776450627189</v>
+        <v>8.449432132208145</v>
       </c>
       <c r="N15" t="n">
-        <v>112.842495855066</v>
+        <v>112.7153415357939</v>
       </c>
       <c r="O15" t="n">
-        <v>10.62273485760922</v>
+        <v>10.61674816202183</v>
       </c>
       <c r="P15" t="n">
-        <v>334.5494953811794</v>
+        <v>334.4897402715569</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30025,28 +30112,28 @@
         <v>0.0604</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6632698828456262</v>
+        <v>0.6694026524939209</v>
       </c>
       <c r="J16" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K16" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1745088373669117</v>
+        <v>0.1778184527447324</v>
       </c>
       <c r="M16" t="n">
-        <v>8.114217137214416</v>
+        <v>8.118439925434418</v>
       </c>
       <c r="N16" t="n">
-        <v>104.4755012685797</v>
+        <v>104.4043035419557</v>
       </c>
       <c r="O16" t="n">
-        <v>10.22132580776974</v>
+        <v>10.21784241128995</v>
       </c>
       <c r="P16" t="n">
-        <v>334.84921868727</v>
+        <v>334.7844385237906</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30103,28 +30190,28 @@
         <v>0.0626</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8366449664529547</v>
+        <v>0.8425875489522398</v>
       </c>
       <c r="J17" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K17" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2434769029575675</v>
+        <v>0.2469638055661546</v>
       </c>
       <c r="M17" t="n">
-        <v>8.29674491918478</v>
+        <v>8.296420273062811</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5518996034285</v>
+        <v>110.4456761420976</v>
       </c>
       <c r="O17" t="n">
-        <v>10.51436634340979</v>
+        <v>10.50931378074219</v>
       </c>
       <c r="P17" t="n">
-        <v>333.0337412328814</v>
+        <v>332.9715195083911</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30181,28 +30268,28 @@
         <v>0.0673</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8744677520144707</v>
+        <v>0.8672858372209717</v>
       </c>
       <c r="J18" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K18" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L18" t="n">
-        <v>0.261187340179173</v>
+        <v>0.2587503623389906</v>
       </c>
       <c r="M18" t="n">
-        <v>8.272655275865224</v>
+        <v>8.277480119687755</v>
       </c>
       <c r="N18" t="n">
-        <v>108.6358669969</v>
+        <v>108.6355280861947</v>
       </c>
       <c r="O18" t="n">
-        <v>10.42285311212338</v>
+        <v>10.42283685405249</v>
       </c>
       <c r="P18" t="n">
-        <v>326.0727200392315</v>
+        <v>326.1484668617678</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30259,28 +30346,28 @@
         <v>0.0609</v>
       </c>
       <c r="I19" t="n">
-        <v>1.017701710749689</v>
+        <v>1.015594333961923</v>
       </c>
       <c r="J19" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K19" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3364465373698409</v>
+        <v>0.3370385533978885</v>
       </c>
       <c r="M19" t="n">
-        <v>8.101082693364271</v>
+        <v>8.083935312722984</v>
       </c>
       <c r="N19" t="n">
-        <v>104.8167142889501</v>
+        <v>104.4982436700372</v>
       </c>
       <c r="O19" t="n">
-        <v>10.23800343274753</v>
+        <v>10.22243824486297</v>
       </c>
       <c r="P19" t="n">
-        <v>320.2958858316285</v>
+        <v>320.3178338988889</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30337,28 +30424,28 @@
         <v>0.0594</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9480390525009259</v>
+        <v>0.9530686030880773</v>
       </c>
       <c r="J20" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K20" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2683214256785285</v>
+        <v>0.271336476968386</v>
       </c>
       <c r="M20" t="n">
-        <v>8.953006008606872</v>
+        <v>8.94895488817054</v>
       </c>
       <c r="N20" t="n">
-        <v>126.3879968485184</v>
+        <v>126.1972328815324</v>
       </c>
       <c r="O20" t="n">
-        <v>11.24224162916446</v>
+        <v>11.23375417576566</v>
       </c>
       <c r="P20" t="n">
-        <v>324.2661012719956</v>
+        <v>324.2132652641533</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30415,28 +30502,28 @@
         <v>0.0692</v>
       </c>
       <c r="I21" t="n">
-        <v>0.901137341243238</v>
+        <v>0.9083121825135668</v>
       </c>
       <c r="J21" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K21" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2820955245475055</v>
+        <v>0.285982212098606</v>
       </c>
       <c r="M21" t="n">
-        <v>8.140498379972357</v>
+        <v>8.149253050454787</v>
       </c>
       <c r="N21" t="n">
-        <v>106.8123294104865</v>
+        <v>106.8478256164589</v>
       </c>
       <c r="O21" t="n">
-        <v>10.33500505130436</v>
+        <v>10.33672218918835</v>
       </c>
       <c r="P21" t="n">
-        <v>333.5974144648956</v>
+        <v>333.5227785581731</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30493,28 +30580,28 @@
         <v>0.0692</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8443095933616724</v>
+        <v>0.8434570946496052</v>
       </c>
       <c r="J22" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K22" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2254333159741889</v>
+        <v>0.2262589964635814</v>
       </c>
       <c r="M22" t="n">
-        <v>9.093782828398915</v>
+        <v>9.068808124454437</v>
       </c>
       <c r="N22" t="n">
-        <v>124.0344524634213</v>
+        <v>123.6371667280699</v>
       </c>
       <c r="O22" t="n">
-        <v>11.13707557949668</v>
+        <v>11.11922509566516</v>
       </c>
       <c r="P22" t="n">
-        <v>332.3211767083198</v>
+        <v>332.3301789773448</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30552,7 +30639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W357"/>
+  <dimension ref="A1:W358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67818,7 +67905,11 @@
           <t>2025-05-03 22:25:58+00:00</t>
         </is>
       </c>
-      <c r="B357" t="inlineStr"/>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>-44.15734887832697,168.24359930082375</t>
+        </is>
+      </c>
       <c r="C357" t="inlineStr">
         <is>
           <t>-44.15772334859128,168.2448447276502</t>
@@ -67920,6 +68011,123 @@
         </is>
       </c>
       <c r="W357" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:26:00+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>-44.15754116261599,168.243727727491</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>-44.157691324194644,168.24482333786787</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>-44.15747339505437,168.24567310061394</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>-44.157036891031495,168.24636853290718</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>-44.15672099244367,168.24712558419355</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>-44.15621393407979,168.2476986707596</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>-44.15579264190815,168.24837838004785</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>-44.15531612868591,168.24899655187912</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>-44.15489814535335,168.24967995515254</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>-44.154559880174865,168.25043946917856</t>
+        </is>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>-44.154137223466726,168.25107822147126</t>
+        </is>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>-44.15366015109493,168.2516649251573</t>
+        </is>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>-44.15311710661063,168.25215343037416</t>
+        </is>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>-44.15253984810289,168.25258026160586</t>
+        </is>
+      </c>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>-44.15202111137758,168.25311260661164</t>
+        </is>
+      </c>
+      <c r="Q358" t="inlineStr">
+        <is>
+          <t>-44.151494900278095,168.25359533119405</t>
+        </is>
+      </c>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>-44.151031107939716,168.25424522573473</t>
+        </is>
+      </c>
+      <c r="S358" t="inlineStr">
+        <is>
+          <t>-44.15041525213125,168.25453185425033</t>
+        </is>
+      </c>
+      <c r="T358" t="inlineStr">
+        <is>
+          <t>-44.14976971731908,168.25472595298226</t>
+        </is>
+      </c>
+      <c r="U358" t="inlineStr">
+        <is>
+          <t>-44.1491494571527,168.254937974982</t>
+        </is>
+      </c>
+      <c r="V358" t="inlineStr">
+        <is>
+          <t>-44.14858011849482,168.255314309455</t>
+        </is>
+      </c>
+      <c r="W358" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0455/nzd0455.xlsx
+++ b/data/nzd0455/nzd0455.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W358"/>
+  <dimension ref="A1:W360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24984,9 +24984,7 @@
           <t>2025-05-03 22:25:58+00:00</t>
         </is>
       </c>
-      <c r="B357" t="n">
-        <v>430</v>
-      </c>
+      <c r="B357" t="inlineStr"/>
       <c r="C357" t="n">
         <v>346.5384615384615</v>
       </c>
@@ -25125,6 +25123,136 @@
       <c r="W358" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-04 22:26:01+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>362.48</v>
+      </c>
+      <c r="C359" t="n">
+        <v>350.0092307692308</v>
+      </c>
+      <c r="D359" t="n">
+        <v>340.94</v>
+      </c>
+      <c r="E359" t="n">
+        <v>352.67</v>
+      </c>
+      <c r="F359" t="n">
+        <v>353.55</v>
+      </c>
+      <c r="G359" t="n">
+        <v>359.83</v>
+      </c>
+      <c r="H359" t="n">
+        <v>358.21</v>
+      </c>
+      <c r="I359" t="n">
+        <v>347.37</v>
+      </c>
+      <c r="J359" t="n">
+        <v>336.67</v>
+      </c>
+      <c r="K359" t="n">
+        <v>342.61</v>
+      </c>
+      <c r="L359" t="n">
+        <v>340.4518181818182</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+      <c r="N359" t="inlineStr"/>
+      <c r="O359" t="inlineStr"/>
+      <c r="P359" t="inlineStr"/>
+      <c r="Q359" t="inlineStr"/>
+      <c r="R359" t="inlineStr"/>
+      <c r="S359" t="inlineStr"/>
+      <c r="T359" t="inlineStr"/>
+      <c r="U359" t="inlineStr"/>
+      <c r="V359" t="inlineStr"/>
+      <c r="W359" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:26:06+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>377.21</v>
+      </c>
+      <c r="C360" t="n">
+        <v>352.8869230769231</v>
+      </c>
+      <c r="D360" t="n">
+        <v>352.12</v>
+      </c>
+      <c r="E360" t="n">
+        <v>361.9</v>
+      </c>
+      <c r="F360" t="n">
+        <v>369.18</v>
+      </c>
+      <c r="G360" t="n">
+        <v>378.6928571428572</v>
+      </c>
+      <c r="H360" t="n">
+        <v>375.89</v>
+      </c>
+      <c r="I360" t="n">
+        <v>372.68</v>
+      </c>
+      <c r="J360" t="n">
+        <v>375.57</v>
+      </c>
+      <c r="K360" t="n">
+        <v>375.24</v>
+      </c>
+      <c r="L360" t="n">
+        <v>371.4236363636364</v>
+      </c>
+      <c r="M360" t="n">
+        <v>367.43</v>
+      </c>
+      <c r="N360" t="n">
+        <v>367.0236363636364</v>
+      </c>
+      <c r="O360" t="n">
+        <v>361.3666666666667</v>
+      </c>
+      <c r="P360" t="n">
+        <v>357.9936363636364</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>357.4536363636363</v>
+      </c>
+      <c r="R360" t="n">
+        <v>356.0966666666667</v>
+      </c>
+      <c r="S360" t="n">
+        <v>354.1136363636364</v>
+      </c>
+      <c r="T360" t="n">
+        <v>361.68</v>
+      </c>
+      <c r="U360" t="n">
+        <v>368.9836363636364</v>
+      </c>
+      <c r="V360" t="n">
+        <v>364.9836363636364</v>
+      </c>
+      <c r="W360" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -25139,7 +25267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B370"/>
+  <dimension ref="A1:B372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28847,6 +28975,26 @@
       </c>
       <c r="B370" t="n">
         <v>-0.67</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-06-04 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
@@ -29020,28 +29168,28 @@
         <v>0.0575</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3993915295392972</v>
+        <v>0.351018100124382</v>
       </c>
       <c r="J2" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K2" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01994705897625781</v>
+        <v>0.0158246942896364</v>
       </c>
       <c r="M2" t="n">
-        <v>15.68802719616377</v>
+        <v>15.50471470614487</v>
       </c>
       <c r="N2" t="n">
-        <v>412.7988408746777</v>
+        <v>404.9534756443359</v>
       </c>
       <c r="O2" t="n">
-        <v>20.31745163337857</v>
+        <v>20.1234558573903</v>
       </c>
       <c r="P2" t="n">
-        <v>372.6082377744114</v>
+        <v>373.1166959862501</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29098,28 +29246,28 @@
         <v>0.0725</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4667465568882477</v>
+        <v>0.4634956627140394</v>
       </c>
       <c r="J3" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K3" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1064087822146385</v>
+        <v>0.106321540817838</v>
       </c>
       <c r="M3" t="n">
-        <v>7.60948798502908</v>
+        <v>7.575430231119402</v>
       </c>
       <c r="N3" t="n">
-        <v>98.49178190634306</v>
+        <v>97.89067820599378</v>
       </c>
       <c r="O3" t="n">
-        <v>9.924302590426345</v>
+        <v>9.893971811461451</v>
       </c>
       <c r="P3" t="n">
-        <v>341.9196486159871</v>
+        <v>341.9527765953243</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29176,28 +29324,28 @@
         <v>0.0561</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7525898244423971</v>
+        <v>0.7420507957183088</v>
       </c>
       <c r="J4" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K4" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2084026938507402</v>
+        <v>0.2050691101564358</v>
       </c>
       <c r="M4" t="n">
-        <v>8.601203662041144</v>
+        <v>8.597042194435673</v>
       </c>
       <c r="N4" t="n">
-        <v>114.912655216786</v>
+        <v>114.8111377041066</v>
       </c>
       <c r="O4" t="n">
-        <v>10.71973204967298</v>
+        <v>10.71499592646244</v>
       </c>
       <c r="P4" t="n">
-        <v>335.4206715586656</v>
+        <v>335.5281620069481</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29254,28 +29402,28 @@
         <v>0.055</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7572956718476042</v>
+        <v>0.7518665488721342</v>
       </c>
       <c r="J5" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K5" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2502249584886505</v>
+        <v>0.2494832091571513</v>
       </c>
       <c r="M5" t="n">
-        <v>7.578486487345659</v>
+        <v>7.558330431033704</v>
       </c>
       <c r="N5" t="n">
-        <v>91.00387460179746</v>
+        <v>90.67766926042863</v>
       </c>
       <c r="O5" t="n">
-        <v>9.539595096323401</v>
+        <v>9.522482305598086</v>
       </c>
       <c r="P5" t="n">
-        <v>342.0722160467499</v>
+        <v>342.127989436199</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29332,28 +29480,28 @@
         <v>0.0432</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7763778907643873</v>
+        <v>0.7685693810506194</v>
       </c>
       <c r="J6" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K6" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1909077830067866</v>
+        <v>0.1890958670541565</v>
       </c>
       <c r="M6" t="n">
-        <v>9.33557639401643</v>
+        <v>9.326058930296442</v>
       </c>
       <c r="N6" t="n">
-        <v>134.03080183234</v>
+        <v>133.8136244510454</v>
       </c>
       <c r="O6" t="n">
-        <v>11.57716726286443</v>
+        <v>11.56778390406068</v>
       </c>
       <c r="P6" t="n">
-        <v>347.5867904365837</v>
+        <v>347.6674910879487</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29410,28 +29558,28 @@
         <v>0.036</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6453982646683973</v>
+        <v>0.6395981141959971</v>
       </c>
       <c r="J7" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K7" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1759505066822132</v>
+        <v>0.1742418112000309</v>
       </c>
       <c r="M7" t="n">
-        <v>7.975614969534056</v>
+        <v>7.984372122858216</v>
       </c>
       <c r="N7" t="n">
-        <v>103.3728742510757</v>
+        <v>103.416960640669</v>
       </c>
       <c r="O7" t="n">
-        <v>10.16724516528817</v>
+        <v>10.1694129939082</v>
       </c>
       <c r="P7" t="n">
-        <v>357.2649895359174</v>
+        <v>357.324771277643</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29488,28 +29636,28 @@
         <v>0.0543</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6354743098600336</v>
+        <v>0.6287006948086628</v>
       </c>
       <c r="J8" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K8" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1738038177421312</v>
+        <v>0.1717343873423635</v>
       </c>
       <c r="M8" t="n">
-        <v>7.732226201220335</v>
+        <v>7.740257908997163</v>
       </c>
       <c r="N8" t="n">
-        <v>101.9524792704735</v>
+        <v>101.9728969823955</v>
       </c>
       <c r="O8" t="n">
-        <v>10.09715203760315</v>
+        <v>10.09816304990148</v>
       </c>
       <c r="P8" t="n">
-        <v>355.885347840573</v>
+        <v>355.9546349614104</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29566,28 +29714,28 @@
         <v>0.0562</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7636389381073864</v>
+        <v>0.7530288061998135</v>
       </c>
       <c r="J9" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K9" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2379239584823694</v>
+        <v>0.2327259445035665</v>
       </c>
       <c r="M9" t="n">
-        <v>7.609828431897464</v>
+        <v>7.644224584622122</v>
       </c>
       <c r="N9" t="n">
-        <v>99.52382156852154</v>
+        <v>100.3548729140626</v>
       </c>
       <c r="O9" t="n">
-        <v>9.976162667505053</v>
+        <v>10.01772793172496</v>
       </c>
       <c r="P9" t="n">
-        <v>348.3434907421156</v>
+        <v>348.451511473633</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29644,28 +29792,28 @@
         <v>0.0581</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6200884839537985</v>
+        <v>0.6082719233474263</v>
       </c>
       <c r="J10" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K10" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L10" t="n">
-        <v>0.165622484051103</v>
+        <v>0.1583187897565068</v>
       </c>
       <c r="M10" t="n">
-        <v>7.929690265980178</v>
+        <v>8.006882966766451</v>
       </c>
       <c r="N10" t="n">
-        <v>103.7319059860297</v>
+        <v>106.1078477542658</v>
       </c>
       <c r="O10" t="n">
-        <v>10.18488615478984</v>
+        <v>10.30086635940229</v>
       </c>
       <c r="P10" t="n">
-        <v>349.121347264558</v>
+        <v>349.2413889099026</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29722,28 +29870,28 @@
         <v>0.057</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4972760483631049</v>
+        <v>0.4887315885873262</v>
       </c>
       <c r="J11" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K11" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1137836581551693</v>
+        <v>0.1097455182707474</v>
       </c>
       <c r="M11" t="n">
-        <v>8.047780980803042</v>
+        <v>8.102026988223848</v>
       </c>
       <c r="N11" t="n">
-        <v>102.0463490985419</v>
+        <v>103.3887374469278</v>
       </c>
       <c r="O11" t="n">
-        <v>10.10179930005254</v>
+        <v>10.16802524814567</v>
       </c>
       <c r="P11" t="n">
-        <v>352.837314704381</v>
+        <v>352.9247406043816</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29800,28 +29948,28 @@
         <v>0.0612</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7884701340766922</v>
+        <v>0.7745403578622132</v>
       </c>
       <c r="J12" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K12" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2113354505546723</v>
+        <v>0.204542158375112</v>
       </c>
       <c r="M12" t="n">
-        <v>8.61173732608426</v>
+        <v>8.657171179671529</v>
       </c>
       <c r="N12" t="n">
-        <v>119.9661277638267</v>
+        <v>121.477794340009</v>
       </c>
       <c r="O12" t="n">
-        <v>10.9529049920022</v>
+        <v>11.02169652730509</v>
       </c>
       <c r="P12" t="n">
-        <v>346.7000117703812</v>
+        <v>346.8451122355916</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29878,28 +30026,28 @@
         <v>0.058</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8175814820403497</v>
+        <v>0.8214211320986834</v>
       </c>
       <c r="J13" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K13" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2332978487056544</v>
+        <v>0.2360007148220711</v>
       </c>
       <c r="M13" t="n">
-        <v>8.408746078616051</v>
+        <v>8.39951859169433</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7475368522644</v>
+        <v>113.4825512677141</v>
       </c>
       <c r="O13" t="n">
-        <v>10.66524902907871</v>
+        <v>10.65281893527315</v>
       </c>
       <c r="P13" t="n">
-        <v>340.4174330697586</v>
+        <v>340.3768688996212</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29956,28 +30104,28 @@
         <v>0.064</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8785848645583721</v>
+        <v>0.8841515551369066</v>
       </c>
       <c r="J14" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K14" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L14" t="n">
-        <v>0.258914901952099</v>
+        <v>0.2622524037861037</v>
       </c>
       <c r="M14" t="n">
-        <v>8.399992063608972</v>
+        <v>8.400401800940225</v>
       </c>
       <c r="N14" t="n">
-        <v>114.2429488731925</v>
+        <v>114.1088381143679</v>
       </c>
       <c r="O14" t="n">
-        <v>10.68844932032671</v>
+        <v>10.68217384778809</v>
       </c>
       <c r="P14" t="n">
-        <v>335.7331396589107</v>
+        <v>335.6748339988324</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30034,28 +30182,28 @@
         <v>0.0679</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7458084981697336</v>
+        <v>0.7508017039734951</v>
       </c>
       <c r="J15" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K15" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2030506084370777</v>
+        <v>0.2060631457665228</v>
       </c>
       <c r="M15" t="n">
-        <v>8.449432132208145</v>
+        <v>8.446339425155076</v>
       </c>
       <c r="N15" t="n">
-        <v>112.7153415357939</v>
+        <v>112.532714037715</v>
       </c>
       <c r="O15" t="n">
-        <v>10.61674816202183</v>
+        <v>10.60814376023039</v>
       </c>
       <c r="P15" t="n">
-        <v>334.4897402715569</v>
+        <v>334.437357595368</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30112,28 +30260,28 @@
         <v>0.0604</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6694026524939209</v>
+        <v>0.6733514518031052</v>
       </c>
       <c r="J16" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K16" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1778184527447324</v>
+        <v>0.1804158439708118</v>
       </c>
       <c r="M16" t="n">
-        <v>8.118439925434418</v>
+        <v>8.111602177412102</v>
       </c>
       <c r="N16" t="n">
-        <v>104.4043035419557</v>
+        <v>104.1767713389732</v>
       </c>
       <c r="O16" t="n">
-        <v>10.21784241128995</v>
+        <v>10.20670227541556</v>
       </c>
       <c r="P16" t="n">
-        <v>334.7844385237906</v>
+        <v>334.7426061625763</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30190,28 +30338,28 @@
         <v>0.0626</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8425875489522398</v>
+        <v>0.8443894616986474</v>
       </c>
       <c r="J17" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K17" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2469638055661546</v>
+        <v>0.2490259345743565</v>
       </c>
       <c r="M17" t="n">
-        <v>8.296420273062811</v>
+        <v>8.277401495705305</v>
       </c>
       <c r="N17" t="n">
-        <v>110.4456761420976</v>
+        <v>110.1084131486838</v>
       </c>
       <c r="O17" t="n">
-        <v>10.50931378074219</v>
+        <v>10.49325560294248</v>
       </c>
       <c r="P17" t="n">
-        <v>332.9715195083911</v>
+        <v>332.9525971757661</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30268,28 +30416,28 @@
         <v>0.0673</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8672858372209717</v>
+        <v>0.8724301943068732</v>
       </c>
       <c r="J18" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K18" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2587503623389906</v>
+        <v>0.2620745967110595</v>
       </c>
       <c r="M18" t="n">
-        <v>8.277480119687755</v>
+        <v>8.276542043478651</v>
       </c>
       <c r="N18" t="n">
-        <v>108.6355280861947</v>
+        <v>108.4611686339339</v>
       </c>
       <c r="O18" t="n">
-        <v>10.42283685405249</v>
+        <v>10.41446919597604</v>
       </c>
       <c r="P18" t="n">
-        <v>326.1484668617678</v>
+        <v>326.0940525077885</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30346,28 +30494,28 @@
         <v>0.0609</v>
       </c>
       <c r="I19" t="n">
-        <v>1.015594333961923</v>
+        <v>1.020681437277191</v>
       </c>
       <c r="J19" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K19" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3370385533978885</v>
+        <v>0.3404623998610833</v>
       </c>
       <c r="M19" t="n">
-        <v>8.083935312722984</v>
+        <v>8.083015242380149</v>
       </c>
       <c r="N19" t="n">
-        <v>104.4982436700372</v>
+        <v>104.3378253678111</v>
       </c>
       <c r="O19" t="n">
-        <v>10.22243824486297</v>
+        <v>10.21458884967041</v>
       </c>
       <c r="P19" t="n">
-        <v>320.3178338988889</v>
+        <v>320.2646948738844</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30424,28 +30572,28 @@
         <v>0.0594</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9530686030880773</v>
+        <v>0.9609804663292479</v>
       </c>
       <c r="J20" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K20" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L20" t="n">
-        <v>0.271336476968386</v>
+        <v>0.2750775858842762</v>
       </c>
       <c r="M20" t="n">
-        <v>8.94895488817054</v>
+        <v>8.95857050875</v>
       </c>
       <c r="N20" t="n">
-        <v>126.1972328815324</v>
+        <v>126.3127630835145</v>
       </c>
       <c r="O20" t="n">
-        <v>11.23375417576566</v>
+        <v>11.23889510065444</v>
       </c>
       <c r="P20" t="n">
-        <v>324.2132652641533</v>
+        <v>324.1298936163304</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30502,28 +30650,28 @@
         <v>0.0692</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9083121825135668</v>
+        <v>0.9161712310111219</v>
       </c>
       <c r="J21" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K21" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L21" t="n">
-        <v>0.285982212098606</v>
+        <v>0.2900290291541602</v>
       </c>
       <c r="M21" t="n">
-        <v>8.149253050454787</v>
+        <v>8.161306096682944</v>
       </c>
       <c r="N21" t="n">
-        <v>106.8478256164589</v>
+        <v>106.9637163269726</v>
       </c>
       <c r="O21" t="n">
-        <v>10.33672218918835</v>
+        <v>10.34232644654831</v>
       </c>
       <c r="P21" t="n">
-        <v>333.5227785581731</v>
+        <v>333.4407781686677</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30580,28 +30728,28 @@
         <v>0.0692</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8434570946496052</v>
+        <v>0.8505545830816758</v>
       </c>
       <c r="J22" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K22" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2262589964635814</v>
+        <v>0.2298651626789047</v>
       </c>
       <c r="M22" t="n">
-        <v>9.068808124454437</v>
+        <v>9.071482033203935</v>
       </c>
       <c r="N22" t="n">
-        <v>123.6371667280699</v>
+        <v>123.6145066478084</v>
       </c>
       <c r="O22" t="n">
-        <v>11.11922509566516</v>
+        <v>11.11820608946463</v>
       </c>
       <c r="P22" t="n">
-        <v>332.3301789773448</v>
+        <v>332.2550073114083</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30639,7 +30787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W358"/>
+  <dimension ref="A1:W360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32122,7 +32270,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-44.157554633354344,168.24572736229592</t>
+          <t>-44.15755463335435,168.24572736229592</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -37978,7 +38126,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>-44.15157417968889,168.25376796370247</t>
+          <t>-44.1515741796889,168.25376796370247</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -42760,7 +42908,7 @@
       <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr">
         <is>
-          <t>-44.150459511455935,168.25466444353097</t>
+          <t>-44.15045951145593,168.25466444353097</t>
         </is>
       </c>
       <c r="T113" t="inlineStr">
@@ -45510,7 +45658,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>-44.15502397255371,168.24982018363082</t>
+          <t>-44.1550239725537,168.24982018363082</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -46221,7 +46369,7 @@
       </c>
       <c r="S146" t="inlineStr">
         <is>
-          <t>-44.15041935881439,168.2545441567643</t>
+          <t>-44.15041935881438,168.2545441567643</t>
         </is>
       </c>
       <c r="T146" t="inlineStr"/>
@@ -46776,7 +46924,7 @@
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>-44.14921358214161,168.2551794322194</t>
+          <t>-44.14921358214161,168.25517943221936</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
@@ -48071,7 +48219,7 @@
       </c>
       <c r="T163" t="inlineStr">
         <is>
-          <t>-44.14985643479821,168.25498573455025</t>
+          <t>-44.1498564347982,168.25498573455025</t>
         </is>
       </c>
       <c r="U163" t="inlineStr">
@@ -57861,7 +58009,7 @@
       </c>
       <c r="T257" t="inlineStr">
         <is>
-          <t>-44.14986705708387,168.25501755614889</t>
+          <t>-44.14986705708386,168.25501755614889</t>
         </is>
       </c>
       <c r="U257" t="inlineStr">
@@ -65204,7 +65352,7 @@
       </c>
       <c r="P332" t="inlineStr">
         <is>
-          <t>-44.152156514165924,168.253356717171</t>
+          <t>-44.15215651416592,168.253356717171</t>
         </is>
       </c>
       <c r="Q332" t="inlineStr">
@@ -65782,7 +65930,7 @@
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>-44.15149775177517,168.25360154036878</t>
+          <t>-44.151497751775175,168.25360154036878</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
@@ -67905,11 +68053,7 @@
           <t>2025-05-03 22:25:58+00:00</t>
         </is>
       </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>-44.15734887832697,168.24359930082375</t>
-        </is>
-      </c>
+      <c r="B357" t="inlineStr"/>
       <c r="C357" t="inlineStr">
         <is>
           <t>-44.15772334859128,168.2448447276502</t>
@@ -68130,6 +68274,200 @@
       <c r="W358" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-04 22:26:01+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>-44.157895762413226,168.2439645669627</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>-44.1576952369032,168.24482595124863</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>-44.157467158414356,168.24566893496723</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>-44.15707173891918,168.24639449551492</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>-44.15672040174778,168.24712501483498</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>-44.15625702531025,168.2477466931882</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>-44.155845987479985,168.24843783060294</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>-44.155499577771046,168.24920099640755</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>-44.15515218295804,168.24996306885424</t>
+        </is>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>-44.15468747577008,168.25059501855554</t>
+        </is>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>-44.154237878692605,168.25123414225598</t>
+        </is>
+      </c>
+      <c r="M359" t="inlineStr"/>
+      <c r="N359" t="inlineStr"/>
+      <c r="O359" t="inlineStr"/>
+      <c r="P359" t="inlineStr"/>
+      <c r="Q359" t="inlineStr"/>
+      <c r="R359" t="inlineStr"/>
+      <c r="S359" t="inlineStr"/>
+      <c r="T359" t="inlineStr"/>
+      <c r="U359" t="inlineStr"/>
+      <c r="V359" t="inlineStr"/>
+      <c r="W359" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:26:06+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>-44.15777645558025,168.24388488083548</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>-44.157671928872745,168.24481038332755</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>-44.15737660562793,168.24560845203573</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>-44.15699863754936,168.24634003307847</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>-44.156604994492135,168.24701377661978</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>-44.15612479736592,168.24759933385698</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>-44.15572205186609,168.2482997117365</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>-44.15532215720499,168.24900327032668</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>-44.154879499081524,168.24965917482655</t>
+        </is>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>-44.15446707098104,168.25032632780636</t>
+        </is>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>-44.15405205309123,168.25094628826793</t>
+        </is>
+      </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>-44.15356235310354,168.25148861136816</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>-44.15303924462368,168.25201305787706</t>
+        </is>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>-44.15254493083638,168.25258942495026</t>
+        </is>
+      </c>
+      <c r="P360" t="inlineStr">
+        <is>
+          <t>-44.1520380847453,168.25314320689333</t>
+        </is>
+      </c>
+      <c r="Q360" t="inlineStr">
+        <is>
+          <t>-44.1515240654985,168.25365883893014</t>
+        </is>
+      </c>
+      <c r="R360" t="inlineStr">
+        <is>
+          <t>-44.15095999499033,168.2540440627239</t>
+        </is>
+      </c>
+      <c r="S360" t="inlineStr">
+        <is>
+          <t>-44.15037482099552,168.25441073378045</t>
+        </is>
+      </c>
+      <c r="T360" t="inlineStr">
+        <is>
+          <t>-44.1497514211447,168.25467114302427</t>
+        </is>
+      </c>
+      <c r="U360" t="inlineStr">
+        <is>
+          <t>-44.14914555252447,168.2549232725114</t>
+        </is>
+      </c>
+      <c r="V360" t="inlineStr">
+        <is>
+          <t>-44.14855068049598,168.25516767927647</t>
+        </is>
+      </c>
+      <c r="W360" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0455/nzd0455.xlsx
+++ b/data/nzd0455/nzd0455.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W360"/>
+  <dimension ref="A1:W362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25256,6 +25256,152 @@
         </is>
       </c>
     </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:16+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="n">
+        <v>357.7707692307692</v>
+      </c>
+      <c r="D361" t="n">
+        <v>350.9299999999999</v>
+      </c>
+      <c r="E361" t="n">
+        <v>357.51</v>
+      </c>
+      <c r="F361" t="n">
+        <v>370.96</v>
+      </c>
+      <c r="G361" t="n">
+        <v>375.3271428571429</v>
+      </c>
+      <c r="H361" t="n">
+        <v>372.92</v>
+      </c>
+      <c r="I361" t="n">
+        <v>369.91</v>
+      </c>
+      <c r="J361" t="n">
+        <v>368.47</v>
+      </c>
+      <c r="K361" t="n">
+        <v>373.68</v>
+      </c>
+      <c r="L361" t="n">
+        <v>368.1372727272728</v>
+      </c>
+      <c r="M361" t="n">
+        <v>367.93</v>
+      </c>
+      <c r="N361" t="n">
+        <v>369.8472727272728</v>
+      </c>
+      <c r="O361" t="n">
+        <v>362.48</v>
+      </c>
+      <c r="P361" t="n">
+        <v>359.8672727272727</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>356.7772727272728</v>
+      </c>
+      <c r="R361" t="n">
+        <v>353.51</v>
+      </c>
+      <c r="S361" t="n">
+        <v>353.4972727272728</v>
+      </c>
+      <c r="T361" t="n">
+        <v>355.42</v>
+      </c>
+      <c r="U361" t="n">
+        <v>364.1272727272727</v>
+      </c>
+      <c r="V361" t="n">
+        <v>362.7372727272728</v>
+      </c>
+      <c r="W361" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-28 22:26:16+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr"/>
+      <c r="C362" t="n">
+        <v>355.4015384615385</v>
+      </c>
+      <c r="D362" t="n">
+        <v>353.34</v>
+      </c>
+      <c r="E362" t="n">
+        <v>363.42</v>
+      </c>
+      <c r="F362" t="n">
+        <v>368.37</v>
+      </c>
+      <c r="G362" t="n">
+        <v>373.5285714285715</v>
+      </c>
+      <c r="H362" t="n">
+        <v>371.25</v>
+      </c>
+      <c r="I362" t="n">
+        <v>363.21</v>
+      </c>
+      <c r="J362" t="n">
+        <v>365.46</v>
+      </c>
+      <c r="K362" t="n">
+        <v>366.82</v>
+      </c>
+      <c r="L362" t="n">
+        <v>364.6881818181818</v>
+      </c>
+      <c r="M362" t="n">
+        <v>359.22</v>
+      </c>
+      <c r="N362" t="n">
+        <v>360.1381818181818</v>
+      </c>
+      <c r="O362" t="n">
+        <v>358.2866666666667</v>
+      </c>
+      <c r="P362" t="n">
+        <v>353.5981818181818</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>363.2281818181818</v>
+      </c>
+      <c r="R362" t="n">
+        <v>359.4766666666667</v>
+      </c>
+      <c r="S362" t="n">
+        <v>350.8881818181818</v>
+      </c>
+      <c r="T362" t="n">
+        <v>350.62</v>
+      </c>
+      <c r="U362" t="n">
+        <v>356.0481818181818</v>
+      </c>
+      <c r="V362" t="n">
+        <v>356.5081818181818</v>
+      </c>
+      <c r="W362" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25267,7 +25413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B372"/>
+  <dimension ref="A1:B374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28995,6 +29141,26 @@
       </c>
       <c r="B372" t="n">
         <v>0.46</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-06-28 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>-0.23</v>
       </c>
     </row>
   </sheetData>
@@ -29171,7 +29337,7 @@
         <v>0.351018100124382</v>
       </c>
       <c r="J2" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K2" t="n">
         <v>285</v>
@@ -29246,28 +29412,28 @@
         <v>0.0725</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4634956627140394</v>
+        <v>0.4668341029364833</v>
       </c>
       <c r="J3" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K3" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L3" t="n">
-        <v>0.106321540817838</v>
+        <v>0.1089310453935742</v>
       </c>
       <c r="M3" t="n">
-        <v>7.575430231119402</v>
+        <v>7.542582301904579</v>
       </c>
       <c r="N3" t="n">
-        <v>97.89067820599378</v>
+        <v>97.29697506545148</v>
       </c>
       <c r="O3" t="n">
-        <v>9.893971811461451</v>
+        <v>9.863922904476265</v>
       </c>
       <c r="P3" t="n">
-        <v>341.9527765953243</v>
+        <v>341.9186822678842</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29324,28 +29490,28 @@
         <v>0.0561</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7420507957183088</v>
+        <v>0.7388175214262132</v>
       </c>
       <c r="J4" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K4" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2050691101564358</v>
+        <v>0.2057317810568443</v>
       </c>
       <c r="M4" t="n">
-        <v>8.597042194435673</v>
+        <v>8.557748197928507</v>
       </c>
       <c r="N4" t="n">
-        <v>114.8111377041066</v>
+        <v>114.1245113357465</v>
       </c>
       <c r="O4" t="n">
-        <v>10.71499592646244</v>
+        <v>10.68290743832158</v>
       </c>
       <c r="P4" t="n">
-        <v>335.5281620069481</v>
+        <v>335.5612111563224</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29402,28 +29568,28 @@
         <v>0.055</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7518665488721342</v>
+        <v>0.7504925948918292</v>
       </c>
       <c r="J5" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K5" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2494832091571513</v>
+        <v>0.2511058707663159</v>
       </c>
       <c r="M5" t="n">
-        <v>7.558330431033704</v>
+        <v>7.528835497850961</v>
       </c>
       <c r="N5" t="n">
-        <v>90.67766926042863</v>
+        <v>90.16650486576744</v>
       </c>
       <c r="O5" t="n">
-        <v>9.522482305598086</v>
+        <v>9.495604502387799</v>
       </c>
       <c r="P5" t="n">
-        <v>342.127989436199</v>
+        <v>342.1421214993286</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29480,28 +29646,28 @@
         <v>0.0432</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7685693810506194</v>
+        <v>0.7711538922841</v>
       </c>
       <c r="J6" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K6" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1890958670541565</v>
+        <v>0.1920815475090124</v>
       </c>
       <c r="M6" t="n">
-        <v>9.326058930296442</v>
+        <v>9.280506908998003</v>
       </c>
       <c r="N6" t="n">
-        <v>133.8136244510454</v>
+        <v>133.0126580371275</v>
       </c>
       <c r="O6" t="n">
-        <v>11.56778390406068</v>
+        <v>11.53311137712315</v>
       </c>
       <c r="P6" t="n">
-        <v>347.6674910879487</v>
+        <v>347.6407169520051</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29558,28 +29724,28 @@
         <v>0.036</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6395981141959971</v>
+        <v>0.6402720865362694</v>
       </c>
       <c r="J7" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K7" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1742418112000309</v>
+        <v>0.1763924093896698</v>
       </c>
       <c r="M7" t="n">
-        <v>7.984372122858216</v>
+        <v>7.939489144437348</v>
       </c>
       <c r="N7" t="n">
-        <v>103.416960640669</v>
+        <v>102.7674542117885</v>
       </c>
       <c r="O7" t="n">
-        <v>10.1694129939082</v>
+        <v>10.1374283825726</v>
       </c>
       <c r="P7" t="n">
-        <v>357.324771277643</v>
+        <v>357.3178088236036</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29636,28 +29802,28 @@
         <v>0.0543</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6287006948086628</v>
+        <v>0.6285225114653671</v>
       </c>
       <c r="J8" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K8" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1717343873423635</v>
+        <v>0.1735754192901391</v>
       </c>
       <c r="M8" t="n">
-        <v>7.740257908997163</v>
+        <v>7.695190834731113</v>
       </c>
       <c r="N8" t="n">
-        <v>101.9728969823955</v>
+        <v>101.31116415479</v>
       </c>
       <c r="O8" t="n">
-        <v>10.09816304990148</v>
+        <v>10.06534471117557</v>
       </c>
       <c r="P8" t="n">
-        <v>355.9546349614104</v>
+        <v>355.9564687068939</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29714,28 +29880,28 @@
         <v>0.0562</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7530288061998135</v>
+        <v>0.7512332821061692</v>
       </c>
       <c r="J9" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K9" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2327259445035665</v>
+        <v>0.2341977453204882</v>
       </c>
       <c r="M9" t="n">
-        <v>7.644224584622122</v>
+        <v>7.61588931119667</v>
       </c>
       <c r="N9" t="n">
-        <v>100.3548729140626</v>
+        <v>99.77343583967985</v>
       </c>
       <c r="O9" t="n">
-        <v>10.01772793172496</v>
+        <v>9.988665368290192</v>
       </c>
       <c r="P9" t="n">
-        <v>348.451511473633</v>
+        <v>348.4698673716487</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29792,28 +29958,28 @@
         <v>0.0581</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6082719233474263</v>
+        <v>0.6108306447062271</v>
       </c>
       <c r="J10" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K10" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1583187897565068</v>
+        <v>0.1612436854383189</v>
       </c>
       <c r="M10" t="n">
-        <v>8.006882966766451</v>
+        <v>7.966164131653186</v>
       </c>
       <c r="N10" t="n">
-        <v>106.1078477542658</v>
+        <v>105.441371842503</v>
       </c>
       <c r="O10" t="n">
-        <v>10.30086635940229</v>
+        <v>10.2684649214234</v>
       </c>
       <c r="P10" t="n">
-        <v>349.2413889099026</v>
+        <v>349.2153225470055</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29870,28 +30036,28 @@
         <v>0.057</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4887315885873262</v>
+        <v>0.4945640959612055</v>
       </c>
       <c r="J11" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K11" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1097455182707474</v>
+        <v>0.1132043837730363</v>
       </c>
       <c r="M11" t="n">
-        <v>8.102026988223848</v>
+        <v>8.078806488448452</v>
       </c>
       <c r="N11" t="n">
-        <v>103.3887374469278</v>
+        <v>102.9406141929931</v>
       </c>
       <c r="O11" t="n">
-        <v>10.16802524814567</v>
+        <v>10.1459654145376</v>
       </c>
       <c r="P11" t="n">
-        <v>352.9247406043816</v>
+        <v>352.8648886459822</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29948,28 +30114,28 @@
         <v>0.0612</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7745403578622132</v>
+        <v>0.7739504095343807</v>
       </c>
       <c r="J12" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K12" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L12" t="n">
-        <v>0.204542158375112</v>
+        <v>0.206386101655203</v>
       </c>
       <c r="M12" t="n">
-        <v>8.657171179671529</v>
+        <v>8.614188300993119</v>
       </c>
       <c r="N12" t="n">
-        <v>121.477794340009</v>
+        <v>120.7410210808829</v>
       </c>
       <c r="O12" t="n">
-        <v>11.02169652730509</v>
+        <v>10.98822192535639</v>
       </c>
       <c r="P12" t="n">
-        <v>346.8451122355916</v>
+        <v>346.851285553267</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30026,28 +30192,28 @@
         <v>0.058</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8214211320986834</v>
+        <v>0.8239077834297284</v>
       </c>
       <c r="J13" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K13" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2360007148220711</v>
+        <v>0.2392441193133843</v>
       </c>
       <c r="M13" t="n">
-        <v>8.39951859169433</v>
+        <v>8.372276191339745</v>
       </c>
       <c r="N13" t="n">
-        <v>113.4825512677141</v>
+        <v>112.8816016580131</v>
       </c>
       <c r="O13" t="n">
-        <v>10.65281893527315</v>
+        <v>10.62457536365633</v>
       </c>
       <c r="P13" t="n">
-        <v>340.3768688996212</v>
+        <v>340.3505888951866</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30104,28 +30270,28 @@
         <v>0.064</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8841515551369066</v>
+        <v>0.8923573949181522</v>
       </c>
       <c r="J14" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K14" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2622524037861037</v>
+        <v>0.2677405505661912</v>
       </c>
       <c r="M14" t="n">
-        <v>8.400401800940225</v>
+        <v>8.387636477567767</v>
       </c>
       <c r="N14" t="n">
-        <v>114.1088381143679</v>
+        <v>113.7874369601101</v>
       </c>
       <c r="O14" t="n">
-        <v>10.68217384778809</v>
+        <v>10.66711943122932</v>
       </c>
       <c r="P14" t="n">
-        <v>335.6748339988324</v>
+        <v>335.5887892927248</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30182,28 +30348,28 @@
         <v>0.0679</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7508017039734951</v>
+        <v>0.7592168545423332</v>
       </c>
       <c r="J15" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K15" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2060631457665228</v>
+        <v>0.2115313794669295</v>
       </c>
       <c r="M15" t="n">
-        <v>8.446339425155076</v>
+        <v>8.432373628861644</v>
       </c>
       <c r="N15" t="n">
-        <v>112.532714037715</v>
+        <v>112.0982116498793</v>
       </c>
       <c r="O15" t="n">
-        <v>10.60814376023039</v>
+        <v>10.58764429180917</v>
       </c>
       <c r="P15" t="n">
-        <v>334.437357595368</v>
+        <v>334.3489572418346</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30260,28 +30426,28 @@
         <v>0.0604</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6733514518031052</v>
+        <v>0.6793456447070195</v>
       </c>
       <c r="J16" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K16" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1804158439708118</v>
+        <v>0.1848352344626105</v>
       </c>
       <c r="M16" t="n">
-        <v>8.111602177412102</v>
+        <v>8.088800223960346</v>
       </c>
       <c r="N16" t="n">
-        <v>104.1767713389732</v>
+        <v>103.6985615773124</v>
       </c>
       <c r="O16" t="n">
-        <v>10.20670227541556</v>
+        <v>10.18324906782272</v>
       </c>
       <c r="P16" t="n">
-        <v>334.7426061625763</v>
+        <v>334.6790348722464</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30338,28 +30504,28 @@
         <v>0.0626</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8443894616986474</v>
+        <v>0.8512018550890419</v>
       </c>
       <c r="J17" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K17" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2490259345743565</v>
+        <v>0.2542408888865348</v>
       </c>
       <c r="M17" t="n">
-        <v>8.277401495705305</v>
+        <v>8.254386441620975</v>
       </c>
       <c r="N17" t="n">
-        <v>110.1084131486838</v>
+        <v>109.6325673365372</v>
       </c>
       <c r="O17" t="n">
-        <v>10.49325560294248</v>
+        <v>10.47055716457043</v>
       </c>
       <c r="P17" t="n">
-        <v>332.9525971757661</v>
+        <v>332.8809316874843</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30416,28 +30582,28 @@
         <v>0.0673</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8724301943068732</v>
+        <v>0.8829323600690512</v>
       </c>
       <c r="J18" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K18" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2620745967110595</v>
+        <v>0.26866981909398</v>
       </c>
       <c r="M18" t="n">
-        <v>8.276542043478651</v>
+        <v>8.27563632084739</v>
       </c>
       <c r="N18" t="n">
-        <v>108.4611686339339</v>
+        <v>108.1992283008179</v>
       </c>
       <c r="O18" t="n">
-        <v>10.41446919597604</v>
+        <v>10.40188580502679</v>
       </c>
       <c r="P18" t="n">
-        <v>326.0940525077885</v>
+        <v>325.9827844394767</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30494,28 +30660,28 @@
         <v>0.0609</v>
       </c>
       <c r="I19" t="n">
-        <v>1.020681437277191</v>
+        <v>1.027984626593495</v>
       </c>
       <c r="J19" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K19" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3404623998610833</v>
+        <v>0.3463781116497421</v>
       </c>
       <c r="M19" t="n">
-        <v>8.083015242380149</v>
+        <v>8.066502931103843</v>
       </c>
       <c r="N19" t="n">
-        <v>104.3378253678111</v>
+        <v>103.8556003635624</v>
       </c>
       <c r="O19" t="n">
-        <v>10.21458884967041</v>
+        <v>10.19095679333214</v>
       </c>
       <c r="P19" t="n">
-        <v>320.2646948738844</v>
+        <v>320.1883029949184</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30572,28 +30738,28 @@
         <v>0.0594</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9609804663292479</v>
+        <v>0.9658591229491462</v>
       </c>
       <c r="J20" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K20" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2750775858842762</v>
+        <v>0.2794060747689916</v>
       </c>
       <c r="M20" t="n">
-        <v>8.95857050875</v>
+        <v>8.925999600995777</v>
       </c>
       <c r="N20" t="n">
-        <v>126.3127630835145</v>
+        <v>125.6628952809879</v>
       </c>
       <c r="O20" t="n">
-        <v>11.23889510065444</v>
+        <v>11.20994626574935</v>
       </c>
       <c r="P20" t="n">
-        <v>324.1298936163304</v>
+        <v>324.0784214898417</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30650,28 +30816,28 @@
         <v>0.0692</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9161712310111219</v>
+        <v>0.9199541882444445</v>
       </c>
       <c r="J21" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K21" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2900290291541602</v>
+        <v>0.2942219722934245</v>
       </c>
       <c r="M21" t="n">
-        <v>8.161306096682944</v>
+        <v>8.134505682719585</v>
       </c>
       <c r="N21" t="n">
-        <v>106.9637163269726</v>
+        <v>106.4288401839406</v>
       </c>
       <c r="O21" t="n">
-        <v>10.34232644654831</v>
+        <v>10.31643543981838</v>
       </c>
       <c r="P21" t="n">
-        <v>333.4407781686677</v>
+        <v>333.4012755804034</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30728,28 +30894,28 @@
         <v>0.0692</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8505545830816758</v>
+        <v>0.8574404066446644</v>
       </c>
       <c r="J22" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K22" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2298651626789047</v>
+        <v>0.2347748815799846</v>
       </c>
       <c r="M22" t="n">
-        <v>9.071482033203935</v>
+        <v>9.044025761482546</v>
       </c>
       <c r="N22" t="n">
-        <v>123.6145066478084</v>
+        <v>123.0632364601773</v>
       </c>
       <c r="O22" t="n">
-        <v>11.11820608946463</v>
+        <v>11.09338705987388</v>
       </c>
       <c r="P22" t="n">
-        <v>332.2550073114083</v>
+        <v>332.1819905672442</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30787,7 +30953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W360"/>
+  <dimension ref="A1:W362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68471,6 +68637,232 @@
         </is>
       </c>
     </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:16+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>-44.15763237188277,168.2447839624158</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>-44.157386244074175,168.2456148898349</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>-44.15703340624246,168.24636593664803</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>-44.15659185149756,168.2470011084431</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>-44.15614839091297,168.24762562724942</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>-44.1557428713769,168.24832291379116</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>-44.15534157464202,168.2490249099868</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>-44.15492926919833,168.24971464113904</t>
+        </is>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>-44.15447760827435,168.2503391735339</t>
+        </is>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>-44.15407177074079,168.25097683184768</t>
+        </is>
+      </c>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>-44.15355961058758,168.25148366707526</t>
+        </is>
+      </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>-44.153023756975614,168.2519851362456</t>
+        </is>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>-44.15253882424284,168.2525784157525</t>
+        </is>
+      </c>
+      <c r="P361" t="inlineStr">
+        <is>
+          <t>-44.15202780798037,168.25312467951736</t>
+        </is>
+      </c>
+      <c r="Q361" t="inlineStr">
+        <is>
+          <t>-44.1515273343913,168.2536659570052</t>
+        </is>
+      </c>
+      <c r="R361" t="inlineStr">
+        <is>
+          <t>-44.15097024076825,168.25407304570345</t>
+        </is>
+      </c>
+      <c r="S361" t="inlineStr">
+        <is>
+          <t>-44.15037715098691,168.25441771377388</t>
+        </is>
+      </c>
+      <c r="T361" t="inlineStr">
+        <is>
+          <t>-44.14977508520021,168.25474203359656</t>
+        </is>
+      </c>
+      <c r="U361" t="inlineStr">
+        <is>
+          <t>-44.149160656442,168.2549801447879</t>
+        </is>
+      </c>
+      <c r="V361" t="inlineStr">
+        <is>
+          <t>-44.14855610289472,168.25519468807326</t>
+        </is>
+      </c>
+      <c r="W361" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-28 22:26:16+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr"/>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>-44.15765156160287,168.24479677961244</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>-44.15736672419535,168.2456018519412</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>-44.156986599185274,168.24633106419563</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>-44.15661097529265,168.2470195413537</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>-44.15616099883771,168.24763967792902</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>-44.15575457796873,168.2483359600714</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>-44.15538854099138,168.24907725146102</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>-44.15495036891689,168.24973815575854</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>-44.15452394533121,168.25039566185137</t>
+        </is>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>-44.15409246471971,168.25100888784252</t>
+        </is>
+      </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>-44.15360738518764,168.2515697967239</t>
+        </is>
+      </c>
+      <c r="N362" t="inlineStr">
+        <is>
+          <t>-44.15307701132212,168.25208114500862</t>
+        </is>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>-44.15256182452124,168.25261988154531</t>
+        </is>
+      </c>
+      <c r="P362" t="inlineStr">
+        <is>
+          <t>-44.15206219349651,168.25318667119024</t>
+        </is>
+      </c>
+      <c r="Q362" t="inlineStr">
+        <is>
+          <t>-44.15149615687007,168.25359806744046</t>
+        </is>
+      </c>
+      <c r="R362" t="inlineStr">
+        <is>
+          <t>-44.150946606811296,168.25400619065056</t>
+        </is>
+      </c>
+      <c r="S362" t="inlineStr">
+        <is>
+          <t>-44.150387013925425,168.25444726036022</t>
+        </is>
+      </c>
+      <c r="T362" t="inlineStr">
+        <is>
+          <t>-44.14979323013467,168.25479639062533</t>
+        </is>
+      </c>
+      <c r="U362" t="inlineStr">
+        <is>
+          <t>-44.149185783397,168.25507475809576</t>
+        </is>
+      </c>
+      <c r="V362" t="inlineStr">
+        <is>
+          <t>-44.1485711389919,168.25526958258808</t>
+        </is>
+      </c>
+      <c r="W362" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0455/nzd0455.xlsx
+++ b/data/nzd0455/nzd0455.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W362"/>
+  <dimension ref="A1:W365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25402,6 +25402,195 @@
         </is>
       </c>
     </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-22 22:26:26+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>371.17</v>
+      </c>
+      <c r="C363" t="n">
+        <v>350.4069230769231</v>
+      </c>
+      <c r="D363" t="n">
+        <v>354.16</v>
+      </c>
+      <c r="E363" t="n">
+        <v>366.35</v>
+      </c>
+      <c r="F363" t="n">
+        <v>380.74</v>
+      </c>
+      <c r="G363" t="n">
+        <v>386.0357142857143</v>
+      </c>
+      <c r="H363" t="n">
+        <v>372.64</v>
+      </c>
+      <c r="I363" t="n">
+        <v>376.73</v>
+      </c>
+      <c r="J363" t="n">
+        <v>373.34</v>
+      </c>
+      <c r="K363" t="n">
+        <v>376.13</v>
+      </c>
+      <c r="L363" t="n">
+        <v>377.4645454545454</v>
+      </c>
+      <c r="M363" t="n">
+        <v>370.45</v>
+      </c>
+      <c r="N363" t="n">
+        <v>364.3845454545455</v>
+      </c>
+      <c r="O363" t="n">
+        <v>366.5466666666667</v>
+      </c>
+      <c r="P363" t="n">
+        <v>363.0045454545455</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>362.6745454545455</v>
+      </c>
+      <c r="R363" t="n">
+        <v>354.7866666666667</v>
+      </c>
+      <c r="S363" t="n">
+        <v>354.3145454545455</v>
+      </c>
+      <c r="T363" t="n">
+        <v>360.74</v>
+      </c>
+      <c r="U363" t="n">
+        <v>362.7145454545454</v>
+      </c>
+      <c r="V363" t="n">
+        <v>360.0745454545454</v>
+      </c>
+      <c r="W363" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:26:27+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>406.34</v>
+      </c>
+      <c r="C364" t="n">
+        <v>347.2792307692308</v>
+      </c>
+      <c r="D364" t="n">
+        <v>345.52</v>
+      </c>
+      <c r="E364" t="n">
+        <v>352.04</v>
+      </c>
+      <c r="F364" t="n">
+        <v>364.03</v>
+      </c>
+      <c r="G364" t="n">
+        <v>369.3671428571428</v>
+      </c>
+      <c r="H364" t="n">
+        <v>368.94</v>
+      </c>
+      <c r="I364" t="n">
+        <v>374.62</v>
+      </c>
+      <c r="J364" t="n">
+        <v>374.47</v>
+      </c>
+      <c r="K364" t="n">
+        <v>373.27</v>
+      </c>
+      <c r="L364" t="n">
+        <v>366.0709090909091</v>
+      </c>
+      <c r="M364" t="n">
+        <v>350.99</v>
+      </c>
+      <c r="N364" t="n">
+        <v>348.7509090909091</v>
+      </c>
+      <c r="O364" t="n">
+        <v>357.19</v>
+      </c>
+      <c r="P364" t="n">
+        <v>350.860909090909</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>346.740909090909</v>
+      </c>
+      <c r="R364" t="n">
+        <v>346.42</v>
+      </c>
+      <c r="S364" t="n">
+        <v>346.1009090909091</v>
+      </c>
+      <c r="T364" t="n">
+        <v>347.51</v>
+      </c>
+      <c r="U364" t="n">
+        <v>354.4009090909091</v>
+      </c>
+      <c r="V364" t="n">
+        <v>338.5009090909091</v>
+      </c>
+      <c r="W364" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:26:37+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr"/>
+      <c r="C365" t="inlineStr"/>
+      <c r="D365" t="inlineStr"/>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr"/>
+      <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="inlineStr"/>
+      <c r="M365" t="n">
+        <v>377.74</v>
+      </c>
+      <c r="N365" t="inlineStr"/>
+      <c r="O365" t="inlineStr"/>
+      <c r="P365" t="n">
+        <v>347.5190909090909</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>332.4990909090909</v>
+      </c>
+      <c r="R365" t="inlineStr"/>
+      <c r="S365" t="inlineStr"/>
+      <c r="T365" t="inlineStr"/>
+      <c r="U365" t="inlineStr"/>
+      <c r="V365" t="inlineStr"/>
+      <c r="W365" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25413,7 +25602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B374"/>
+  <dimension ref="A1:B377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29161,6 +29350,36 @@
       </c>
       <c r="B374" t="n">
         <v>-0.23</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-07-22 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -29334,28 +29553,28 @@
         <v>0.0575</v>
       </c>
       <c r="I2" t="n">
-        <v>0.351018100124382</v>
+        <v>0.3596496149020879</v>
       </c>
       <c r="J2" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K2" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0158246942896364</v>
+        <v>0.01672076979253201</v>
       </c>
       <c r="M2" t="n">
-        <v>15.50471470614487</v>
+        <v>15.52829363970667</v>
       </c>
       <c r="N2" t="n">
-        <v>404.9534756443359</v>
+        <v>404.5760463475105</v>
       </c>
       <c r="O2" t="n">
-        <v>20.1234558573903</v>
+        <v>20.11407582633392</v>
       </c>
       <c r="P2" t="n">
-        <v>373.1166959862501</v>
+        <v>373.0249446914244</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29412,28 +29631,28 @@
         <v>0.0725</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4668341029364833</v>
+        <v>0.4603291307036184</v>
       </c>
       <c r="J3" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K3" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1089310453935742</v>
+        <v>0.107312500613578</v>
       </c>
       <c r="M3" t="n">
-        <v>7.542582301904579</v>
+        <v>7.526805361028117</v>
       </c>
       <c r="N3" t="n">
-        <v>97.29697506545148</v>
+        <v>96.8472754495964</v>
       </c>
       <c r="O3" t="n">
-        <v>9.863922904476265</v>
+        <v>9.841101333163703</v>
       </c>
       <c r="P3" t="n">
-        <v>341.9186822678842</v>
+        <v>341.9854257322154</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29490,28 +29709,28 @@
         <v>0.0561</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7388175214262132</v>
+        <v>0.7327680647392123</v>
       </c>
       <c r="J4" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K4" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2057317810568443</v>
+        <v>0.2048014344375759</v>
       </c>
       <c r="M4" t="n">
-        <v>8.557748197928507</v>
+        <v>8.53250311452129</v>
       </c>
       <c r="N4" t="n">
-        <v>114.1245113357465</v>
+        <v>113.6657425179848</v>
       </c>
       <c r="O4" t="n">
-        <v>10.68290743832158</v>
+        <v>10.66141372042117</v>
       </c>
       <c r="P4" t="n">
-        <v>335.5612111563224</v>
+        <v>335.6233484795406</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29568,28 +29787,28 @@
         <v>0.055</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7504925948918292</v>
+        <v>0.7475210426507916</v>
       </c>
       <c r="J5" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K5" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2511058707663159</v>
+        <v>0.2512846302878079</v>
       </c>
       <c r="M5" t="n">
-        <v>7.528835497850961</v>
+        <v>7.525883813297153</v>
       </c>
       <c r="N5" t="n">
-        <v>90.16650486576744</v>
+        <v>89.95869116371595</v>
       </c>
       <c r="O5" t="n">
-        <v>9.495604502387799</v>
+        <v>9.484655563789122</v>
       </c>
       <c r="P5" t="n">
-        <v>342.1421214993286</v>
+        <v>342.1729027914523</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29646,28 +29865,28 @@
         <v>0.0432</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7711538922841</v>
+        <v>0.7768723227768536</v>
       </c>
       <c r="J6" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K6" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1920815475090124</v>
+        <v>0.1957190537965779</v>
       </c>
       <c r="M6" t="n">
-        <v>9.280506908998003</v>
+        <v>9.274116608991632</v>
       </c>
       <c r="N6" t="n">
-        <v>133.0126580371275</v>
+        <v>132.755957290421</v>
       </c>
       <c r="O6" t="n">
-        <v>11.53311137712315</v>
+        <v>11.52197714328669</v>
       </c>
       <c r="P6" t="n">
-        <v>347.6407169520051</v>
+        <v>347.5812687468132</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29724,28 +29943,28 @@
         <v>0.036</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6402720865362694</v>
+        <v>0.6448142054718127</v>
       </c>
       <c r="J7" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K7" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1763924093896698</v>
+        <v>0.1795706005829716</v>
       </c>
       <c r="M7" t="n">
-        <v>7.939489144437348</v>
+        <v>7.942401391653054</v>
       </c>
       <c r="N7" t="n">
-        <v>102.7674542117885</v>
+        <v>102.6454982641441</v>
       </c>
       <c r="O7" t="n">
-        <v>10.1374283825726</v>
+        <v>10.13141146455636</v>
       </c>
       <c r="P7" t="n">
-        <v>357.3178088236036</v>
+        <v>357.2707034401095</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29802,28 +30021,28 @@
         <v>0.0543</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6285225114653671</v>
+        <v>0.6266516467816549</v>
       </c>
       <c r="J8" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K8" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1735754192901391</v>
+        <v>0.1745884182198776</v>
       </c>
       <c r="M8" t="n">
-        <v>7.695190834731113</v>
+        <v>7.657574779518833</v>
       </c>
       <c r="N8" t="n">
-        <v>101.31116415479</v>
+        <v>100.6897555900061</v>
       </c>
       <c r="O8" t="n">
-        <v>10.06534471117557</v>
+        <v>10.03442851337365</v>
       </c>
       <c r="P8" t="n">
-        <v>355.9564687068939</v>
+        <v>355.9757543488298</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29880,28 +30099,28 @@
         <v>0.0562</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7512332821061692</v>
+        <v>0.7611139862415657</v>
       </c>
       <c r="J9" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K9" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2341977453204882</v>
+        <v>0.2407007603210952</v>
       </c>
       <c r="M9" t="n">
-        <v>7.61588931119667</v>
+        <v>7.614614314147773</v>
       </c>
       <c r="N9" t="n">
-        <v>99.77343583967985</v>
+        <v>99.50477981946672</v>
       </c>
       <c r="O9" t="n">
-        <v>9.988665368290192</v>
+        <v>9.975208259453369</v>
       </c>
       <c r="P9" t="n">
-        <v>348.4698673716487</v>
+        <v>348.3685727922496</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29958,28 +30177,28 @@
         <v>0.0581</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6108306447062271</v>
+        <v>0.6220988098537444</v>
       </c>
       <c r="J10" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K10" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1612436854383189</v>
+        <v>0.1674726306901074</v>
       </c>
       <c r="M10" t="n">
-        <v>7.966164131653186</v>
+        <v>7.970096651939972</v>
       </c>
       <c r="N10" t="n">
-        <v>105.441371842503</v>
+        <v>105.2510154331127</v>
       </c>
       <c r="O10" t="n">
-        <v>10.2684649214234</v>
+        <v>10.259191753404</v>
       </c>
       <c r="P10" t="n">
-        <v>349.2153225470055</v>
+        <v>349.1000006442335</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30036,28 +30255,28 @@
         <v>0.057</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4945640959612055</v>
+        <v>0.5056593517494608</v>
       </c>
       <c r="J11" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K11" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1132043837730363</v>
+        <v>0.1185800999609997</v>
       </c>
       <c r="M11" t="n">
-        <v>8.078806488448452</v>
+        <v>8.081031297517248</v>
       </c>
       <c r="N11" t="n">
-        <v>102.9406141929931</v>
+        <v>102.8037140422263</v>
       </c>
       <c r="O11" t="n">
-        <v>10.1459654145376</v>
+        <v>10.1392166384897</v>
       </c>
       <c r="P11" t="n">
-        <v>352.8648886459822</v>
+        <v>352.7505268620279</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30114,28 +30333,28 @@
         <v>0.0612</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7739504095343807</v>
+        <v>0.7798302466884006</v>
       </c>
       <c r="J12" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K12" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L12" t="n">
-        <v>0.206386101655203</v>
+        <v>0.2105374738693599</v>
       </c>
       <c r="M12" t="n">
-        <v>8.614188300993119</v>
+        <v>8.59493131661058</v>
       </c>
       <c r="N12" t="n">
-        <v>120.7410210808829</v>
+        <v>120.3361006526175</v>
       </c>
       <c r="O12" t="n">
-        <v>10.98822192535639</v>
+        <v>10.96978124907774</v>
       </c>
       <c r="P12" t="n">
-        <v>346.851285553267</v>
+        <v>346.7896603625333</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30192,28 +30411,28 @@
         <v>0.058</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8239077834297284</v>
+        <v>0.8327006535264948</v>
       </c>
       <c r="J13" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K13" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2392441193133843</v>
+        <v>0.2443547323457469</v>
       </c>
       <c r="M13" t="n">
-        <v>8.372276191339745</v>
+        <v>8.403950404417253</v>
       </c>
       <c r="N13" t="n">
-        <v>112.8816016580131</v>
+        <v>113.2262827245296</v>
       </c>
       <c r="O13" t="n">
-        <v>10.62457536365633</v>
+        <v>10.64078393373955</v>
       </c>
       <c r="P13" t="n">
-        <v>340.3505888951866</v>
+        <v>340.2568401695797</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30270,28 +30489,28 @@
         <v>0.064</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8923573949181522</v>
+        <v>0.889582078004322</v>
       </c>
       <c r="J14" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K14" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2677405505661912</v>
+        <v>0.2683814662414814</v>
       </c>
       <c r="M14" t="n">
-        <v>8.387636477567767</v>
+        <v>8.384037033222809</v>
       </c>
       <c r="N14" t="n">
-        <v>113.7874369601101</v>
+        <v>113.4808865510771</v>
       </c>
       <c r="O14" t="n">
-        <v>10.66711943122932</v>
+        <v>10.6527407999574</v>
       </c>
       <c r="P14" t="n">
-        <v>335.5887892927248</v>
+        <v>335.6180730382772</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30348,28 +30567,28 @@
         <v>0.0679</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7592168545423332</v>
+        <v>0.7691792628614446</v>
       </c>
       <c r="J15" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K15" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2115313794669295</v>
+        <v>0.2173753315268949</v>
       </c>
       <c r="M15" t="n">
-        <v>8.432373628861644</v>
+        <v>8.426296212501738</v>
       </c>
       <c r="N15" t="n">
-        <v>112.0982116498793</v>
+        <v>111.900790510403</v>
       </c>
       <c r="O15" t="n">
-        <v>10.58764429180917</v>
+        <v>10.57831699801074</v>
       </c>
       <c r="P15" t="n">
-        <v>334.3489572418346</v>
+        <v>334.2438934048629</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30426,28 +30645,28 @@
         <v>0.0604</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6793456447070195</v>
+        <v>0.6821277472012655</v>
       </c>
       <c r="J16" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K16" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1848352344626105</v>
+        <v>0.1885161556682772</v>
       </c>
       <c r="M16" t="n">
-        <v>8.088800223960346</v>
+        <v>8.066027238159421</v>
       </c>
       <c r="N16" t="n">
-        <v>103.6985615773124</v>
+        <v>103.1496835572517</v>
       </c>
       <c r="O16" t="n">
-        <v>10.18324906782272</v>
+        <v>10.15626326742527</v>
       </c>
       <c r="P16" t="n">
-        <v>334.6790348722464</v>
+        <v>334.6495619752825</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30504,28 +30723,28 @@
         <v>0.0626</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8512018550890419</v>
+        <v>0.8362859311590483</v>
       </c>
       <c r="J17" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K17" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2542408888865348</v>
+        <v>0.2479622189559166</v>
       </c>
       <c r="M17" t="n">
-        <v>8.254386441620975</v>
+        <v>8.304891924658151</v>
       </c>
       <c r="N17" t="n">
-        <v>109.6325673365372</v>
+        <v>110.6024538997196</v>
       </c>
       <c r="O17" t="n">
-        <v>10.47055716457043</v>
+        <v>10.51677012678891</v>
       </c>
       <c r="P17" t="n">
-        <v>332.8809316874843</v>
+        <v>333.038998443843</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30582,28 +30801,28 @@
         <v>0.0673</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8829323600690512</v>
+        <v>0.8851732155545164</v>
       </c>
       <c r="J18" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K18" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L18" t="n">
-        <v>0.26866981909398</v>
+        <v>0.2721785793225709</v>
       </c>
       <c r="M18" t="n">
-        <v>8.27563632084739</v>
+        <v>8.249446458988926</v>
       </c>
       <c r="N18" t="n">
-        <v>108.1992283008179</v>
+        <v>107.6234597228456</v>
       </c>
       <c r="O18" t="n">
-        <v>10.40188580502679</v>
+        <v>10.37417272474512</v>
       </c>
       <c r="P18" t="n">
-        <v>325.9827844394767</v>
+        <v>325.9589841383032</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30660,28 +30879,28 @@
         <v>0.0609</v>
       </c>
       <c r="I19" t="n">
-        <v>1.027984626593495</v>
+        <v>1.032333223805598</v>
       </c>
       <c r="J19" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K19" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3463781116497421</v>
+        <v>0.3510372685903778</v>
       </c>
       <c r="M19" t="n">
-        <v>8.066502931103843</v>
+        <v>8.041155320144766</v>
       </c>
       <c r="N19" t="n">
-        <v>103.8556003635624</v>
+        <v>103.3552602363067</v>
       </c>
       <c r="O19" t="n">
-        <v>10.19095679333214</v>
+        <v>10.16637891465328</v>
       </c>
       <c r="P19" t="n">
-        <v>320.1883029949184</v>
+        <v>320.1426580213971</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30738,28 +30957,28 @@
         <v>0.0594</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9658591229491462</v>
+        <v>0.9718196715573633</v>
       </c>
       <c r="J20" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K20" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2794060747689916</v>
+        <v>0.2837333463278113</v>
       </c>
       <c r="M20" t="n">
-        <v>8.925999600995777</v>
+        <v>8.910091911890024</v>
       </c>
       <c r="N20" t="n">
-        <v>125.6628952809879</v>
+        <v>125.3076767649122</v>
       </c>
       <c r="O20" t="n">
-        <v>11.20994626574935</v>
+        <v>11.19409115403802</v>
       </c>
       <c r="P20" t="n">
-        <v>324.0784214898417</v>
+        <v>324.0152994963667</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30816,28 +31035,28 @@
         <v>0.0692</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9199541882444445</v>
+        <v>0.9215662979835624</v>
       </c>
       <c r="J21" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K21" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2942219722934245</v>
+        <v>0.2975073765142136</v>
       </c>
       <c r="M21" t="n">
-        <v>8.134505682719585</v>
+        <v>8.108828064728312</v>
       </c>
       <c r="N21" t="n">
-        <v>106.4288401839406</v>
+        <v>105.8625826913045</v>
       </c>
       <c r="O21" t="n">
-        <v>10.31643543981838</v>
+        <v>10.28895440223663</v>
       </c>
       <c r="P21" t="n">
-        <v>333.4012755804034</v>
+        <v>333.3843898746975</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30894,28 +31113,28 @@
         <v>0.0692</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8574404066446644</v>
+        <v>0.8508648364830833</v>
       </c>
       <c r="J22" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K22" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2347748815799846</v>
+        <v>0.2330616756939148</v>
       </c>
       <c r="M22" t="n">
-        <v>9.044025761482546</v>
+        <v>9.058580439593879</v>
       </c>
       <c r="N22" t="n">
-        <v>123.0632364601773</v>
+        <v>123.1883721404076</v>
       </c>
       <c r="O22" t="n">
-        <v>11.09338705987388</v>
+        <v>11.09902572933352</v>
       </c>
       <c r="P22" t="n">
-        <v>332.1819905672442</v>
+        <v>332.2520893235833</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30953,7 +31172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W362"/>
+  <dimension ref="A1:W365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68863,6 +69082,285 @@
         </is>
       </c>
     </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-22 22:26:26+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>-44.1578253770567,168.2439175558974</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>-44.157692015772106,168.24482379978704</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>-44.15736008257656,168.24559741581325</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>-44.156963393652944,168.24631377550372</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>-44.15651963884335,168.24693150473928</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>-44.15607332415945,168.24754197058553</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>-44.155744834158845,168.24832510119106</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>-44.15529376708311,168.24897163113775</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>-44.15489513110662,168.24967659592605</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>-44.154461059319544,168.25031899915615</t>
+        </is>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>-44.15401580859594,168.25089014389906</t>
+        </is>
+      </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>-44.15354578830416,168.2514587478463</t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>-44.15305372003414,168.25203915463752</t>
+        </is>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>-44.152516518713284,168.25253820253488</t>
+        </is>
+      </c>
+      <c r="P363" t="inlineStr">
+        <is>
+          <t>-44.15201060025186,168.2530936567399</t>
+        </is>
+      </c>
+      <c r="Q363" t="inlineStr">
+        <is>
+          <t>-44.1514988326199,168.25360389392358</t>
+        </is>
+      </c>
+      <c r="R363" t="inlineStr">
+        <is>
+          <t>-44.15096518389677,168.25405874095836</t>
+        </is>
+      </c>
+      <c r="S363" t="inlineStr">
+        <is>
+          <t>-44.15037406151446,168.25440845859097</t>
+        </is>
+      </c>
+      <c r="T363" t="inlineStr">
+        <is>
+          <t>-44.14975497453589,168.25468178793068</t>
+        </is>
+      </c>
+      <c r="U363" t="inlineStr">
+        <is>
+          <t>-44.149165050201,168.2549966890689</t>
+        </is>
+      </c>
+      <c r="V363" t="inlineStr">
+        <is>
+          <t>-44.148562530327375,168.25522670295925</t>
+        </is>
+      </c>
+      <c r="W363" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:26:27+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>-44.1575405146489,168.24372729471236</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>-44.157717348689985,168.24484072018538</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>-44.15743006255315,168.2456441575017</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>-44.1570767285027,168.2463982128907</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>-44.156643020565326,168.24705042895977</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>-44.15619017030523,168.2476721875861</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>-44.15577077091699,168.24835400613213</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>-44.155308557987055,168.24898811476083</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>-44.15488720994621,168.2496677681929</t>
+        </is>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>-44.15448037769097,168.25034254965536</t>
+        </is>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>-44.15408416858416,168.2509960367148</t>
+        </is>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>-44.15365252691946,168.25165117997798</t>
+        </is>
+      </c>
+      <c r="N364" t="inlineStr">
+        <is>
+          <t>-44.15313947039909,168.25219374876906</t>
+        </is>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>-44.15256783969513,168.25263072594328</t>
+        </is>
+      </c>
+      <c r="P364" t="inlineStr">
+        <is>
+          <t>-44.1520772072324,168.2532137386331</t>
+        </is>
+      </c>
+      <c r="Q364" t="inlineStr">
+        <is>
+          <t>-44.15157584049419,168.25377158015007</t>
+        </is>
+      </c>
+      <c r="R364" t="inlineStr">
+        <is>
+          <t>-44.15099832419866,168.2541524875068</t>
+        </is>
+      </c>
+      <c r="S364" t="inlineStr">
+        <is>
+          <t>-44.15040511085228,168.2545014737404</t>
+        </is>
+      </c>
+      <c r="T364" t="inlineStr">
+        <is>
+          <t>-44.14980498652703,168.25483160946905</t>
+        </is>
+      </c>
+      <c r="U364" t="inlineStr">
+        <is>
+          <t>-44.149190906606236,168.25509404912847</t>
+        </is>
+      </c>
+      <c r="V364" t="inlineStr">
+        <is>
+          <t>-44.14861460559696,168.25548609049372</t>
+        </is>
+      </c>
+      <c r="W364" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:26:37+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr"/>
+      <c r="C365" t="inlineStr"/>
+      <c r="D365" t="inlineStr"/>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr"/>
+      <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="inlineStr"/>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>-44.153505802384934,168.25138666014354</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr"/>
+      <c r="O365" t="inlineStr"/>
+      <c r="P365" t="inlineStr">
+        <is>
+          <t>-44.15209553684689,168.25324678412528</t>
+        </is>
+      </c>
+      <c r="Q365" t="inlineStr">
+        <is>
+          <t>-44.151644671553115,168.25392146199525</t>
+        </is>
+      </c>
+      <c r="R365" t="inlineStr"/>
+      <c r="S365" t="inlineStr"/>
+      <c r="T365" t="inlineStr"/>
+      <c r="U365" t="inlineStr"/>
+      <c r="V365" t="inlineStr"/>
+      <c r="W365" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0455/nzd0455.xlsx
+++ b/data/nzd0455/nzd0455.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W365"/>
+  <dimension ref="A1:W367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25591,6 +25591,156 @@
         </is>
       </c>
     </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-24 22:26:48+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>386.98</v>
+      </c>
+      <c r="C366" t="n">
+        <v>336.7323076923077</v>
+      </c>
+      <c r="D366" t="n">
+        <v>332.37</v>
+      </c>
+      <c r="E366" t="n">
+        <v>354.61</v>
+      </c>
+      <c r="F366" t="n">
+        <v>364.42</v>
+      </c>
+      <c r="G366" t="n">
+        <v>368.3771428571428</v>
+      </c>
+      <c r="H366" t="n">
+        <v>363.57</v>
+      </c>
+      <c r="I366" t="n">
+        <v>360.76</v>
+      </c>
+      <c r="J366" t="n">
+        <v>361.51</v>
+      </c>
+      <c r="K366" t="n">
+        <v>362.7</v>
+      </c>
+      <c r="L366" t="n">
+        <v>361.8836363636364</v>
+      </c>
+      <c r="M366" t="n">
+        <v>352.32</v>
+      </c>
+      <c r="N366" t="n">
+        <v>340.3836363636364</v>
+      </c>
+      <c r="O366" t="n">
+        <v>354.41</v>
+      </c>
+      <c r="P366" t="n">
+        <v>354.6736363636364</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>348.4036363636364</v>
+      </c>
+      <c r="R366" t="n">
+        <v>344.49</v>
+      </c>
+      <c r="S366" t="n">
+        <v>336.9936363636364</v>
+      </c>
+      <c r="T366" t="n">
+        <v>332.28</v>
+      </c>
+      <c r="U366" t="n">
+        <v>348.6636363636364</v>
+      </c>
+      <c r="V366" t="n">
+        <v>338.3136363636364</v>
+      </c>
+      <c r="W366" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:26:49+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>376.67</v>
+      </c>
+      <c r="C367" t="n">
+        <v>351.9561538461539</v>
+      </c>
+      <c r="D367" t="n">
+        <v>353.97</v>
+      </c>
+      <c r="E367" t="n">
+        <v>366.5</v>
+      </c>
+      <c r="F367" t="n">
+        <v>380.35</v>
+      </c>
+      <c r="G367" t="n">
+        <v>379.3285714285714</v>
+      </c>
+      <c r="H367" t="n">
+        <v>381</v>
+      </c>
+      <c r="I367" t="n">
+        <v>374.17</v>
+      </c>
+      <c r="J367" t="n">
+        <v>373.47</v>
+      </c>
+      <c r="K367" t="n">
+        <v>371.47</v>
+      </c>
+      <c r="L367" t="n">
+        <v>365.2518181818182</v>
+      </c>
+      <c r="M367" t="n">
+        <v>356.36</v>
+      </c>
+      <c r="N367" t="n">
+        <v>352.3518181818182</v>
+      </c>
+      <c r="O367" t="n">
+        <v>353.26</v>
+      </c>
+      <c r="P367" t="n">
+        <v>352.9118181818182</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>348.6118181818182</v>
+      </c>
+      <c r="R367" t="n">
+        <v>353.91</v>
+      </c>
+      <c r="S367" t="n">
+        <v>349.1618181818182</v>
+      </c>
+      <c r="T367" t="n">
+        <v>356.31</v>
+      </c>
+      <c r="U367" t="n">
+        <v>364.4918181818182</v>
+      </c>
+      <c r="V367" t="n">
+        <v>369.2518181818182</v>
+      </c>
+      <c r="W367" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25602,7 +25752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B377"/>
+  <dimension ref="A1:B379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29380,6 +29530,26 @@
       </c>
       <c r="B377" t="n">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-09-24 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -31172,7 +31342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W365"/>
+  <dimension ref="A1:W367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69361,6 +69531,240 @@
         </is>
       </c>
     </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-24 22:26:48+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>-44.15769732264682,168.24383202740896</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>-44.15780277406589,168.2448977777348</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>-44.157536571401046,168.24571529812104</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>-44.15705637416927,168.2463830483615</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>-44.15664014092129,168.24704765334405</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>-44.156197110169146,168.24767992160804</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>-44.155808414254764,168.24839595740198</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>-44.155405715248314,168.24909639127435</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>-44.154978057910014,168.2497690138392</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>-44.154551774572305,168.25042958782194</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>-44.15410929152582,168.2510349534217</t>
+        </is>
+      </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>-44.15364523184366,168.25163802811912</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>-44.15318536474168,168.25227648922447</t>
+        </is>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>-44.15258308788245,168.25265821600777</t>
+        </is>
+      </c>
+      <c r="P366" t="inlineStr">
+        <is>
+          <t>-44.15205629470728,168.25317603659263</t>
+        </is>
+      </c>
+      <c r="Q366" t="inlineStr">
+        <is>
+          <t>-44.151567804480315,168.2537540815207</t>
+        </is>
+      </c>
+      <c r="R366" t="inlineStr">
+        <is>
+          <t>-44.1510059689034,168.25417411272227</t>
+        </is>
+      </c>
+      <c r="S366" t="inlineStr">
+        <is>
+          <t>-44.150439538246644,168.25460460897608</t>
+        </is>
+      </c>
+      <c r="T366" t="inlineStr">
+        <is>
+          <t>-44.14986255867922,168.25500408009674</t>
+        </is>
+      </c>
+      <c r="U366" t="inlineStr">
+        <is>
+          <t>-44.14920875016546,168.25516123773687</t>
+        </is>
+      </c>
+      <c r="V366" t="inlineStr">
+        <is>
+          <t>-44.148615057640534,168.2554883421428</t>
+        </is>
+      </c>
+      <c r="W366" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:26:49+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>-44.15778082935491,168.24388780211376</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>-44.15767946769057,168.24481541866027</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>-44.15736162148825,168.24559844369648</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>-44.15696220565636,168.24631289041744</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>-44.15652251848975,168.2469342803439</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>-44.15612034102899,168.24759436757765</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>-44.155686231082136,168.24825979174088</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>-44.15531171244498,168.24899163022653</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>-44.15489421982271,168.249675580346</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>-44.15449253610435,168.25035737165572</t>
+        </is>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>-44.15408908299466,168.2510036493811</t>
+        </is>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>-44.15362307235682,168.25159807813202</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>-44.15311971945971,168.2521581409275</t>
+        </is>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>-44.152589395584094,168.25266958780128</t>
+        </is>
+      </c>
+      <c r="P367" t="inlineStr">
+        <is>
+          <t>-44.1520659581502,168.25319345827606</t>
+        </is>
+      </c>
+      <c r="Q367" t="inlineStr">
+        <is>
+          <t>-44.15156679833079,168.2537518906046</t>
+        </is>
+      </c>
+      <c r="R367" t="inlineStr">
+        <is>
+          <t>-44.15096865637006,168.2540685637987</t>
+        </is>
+      </c>
+      <c r="S367" t="inlineStr">
+        <is>
+          <t>-44.15039353995636,168.25446681052878</t>
+        </is>
+      </c>
+      <c r="T367" t="inlineStr">
+        <is>
+          <t>-44.14977172082427,168.2547319549013</t>
+        </is>
+      </c>
+      <c r="U367" t="inlineStr">
+        <is>
+          <t>-44.14915952265954,168.25497587563987</t>
+        </is>
+      </c>
+      <c r="V367" t="inlineStr">
+        <is>
+          <t>-44.14854037770187,168.25511636148462</t>
+        </is>
+      </c>
+      <c r="W367" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0455/nzd0455.xlsx
+++ b/data/nzd0455/nzd0455.xlsx
@@ -29723,28 +29723,28 @@
         <v>0.0575</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3596496149020879</v>
+        <v>0.3588513292619968</v>
       </c>
       <c r="J2" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K2" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01672076979253201</v>
+        <v>0.01686363579899242</v>
       </c>
       <c r="M2" t="n">
-        <v>15.52829363970667</v>
+        <v>15.4556852051364</v>
       </c>
       <c r="N2" t="n">
-        <v>404.5760463475105</v>
+        <v>401.9628492796578</v>
       </c>
       <c r="O2" t="n">
-        <v>20.11407582633392</v>
+        <v>20.04901117959831</v>
       </c>
       <c r="P2" t="n">
-        <v>373.0249446914244</v>
+        <v>373.0335285470043</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29801,28 +29801,28 @@
         <v>0.0725</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4603291307036184</v>
+        <v>0.448273442282767</v>
       </c>
       <c r="J3" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K3" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.107312500613578</v>
+        <v>0.1026295875209203</v>
       </c>
       <c r="M3" t="n">
-        <v>7.526805361028117</v>
+        <v>7.539035128434928</v>
       </c>
       <c r="N3" t="n">
-        <v>96.8472754495964</v>
+        <v>97.19220738782558</v>
       </c>
       <c r="O3" t="n">
-        <v>9.841101333163703</v>
+        <v>9.858610824443044</v>
       </c>
       <c r="P3" t="n">
-        <v>341.9854257322154</v>
+        <v>342.1100954703465</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29879,28 +29879,28 @@
         <v>0.0561</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7327680647392123</v>
+        <v>0.7185218415382907</v>
       </c>
       <c r="J4" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K4" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2048014344375759</v>
+        <v>0.1983752416443076</v>
       </c>
       <c r="M4" t="n">
-        <v>8.53250311452129</v>
+        <v>8.546176101631797</v>
       </c>
       <c r="N4" t="n">
-        <v>113.6657425179848</v>
+        <v>114.5225750238211</v>
       </c>
       <c r="O4" t="n">
-        <v>10.66141372042117</v>
+        <v>10.70152208911522</v>
       </c>
       <c r="P4" t="n">
-        <v>335.6233484795406</v>
+        <v>335.7707520018304</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29957,28 +29957,28 @@
         <v>0.055</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7475210426507916</v>
+        <v>0.7461219309254865</v>
       </c>
       <c r="J5" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K5" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2512846302878079</v>
+        <v>0.2525447911356926</v>
       </c>
       <c r="M5" t="n">
-        <v>7.525883813297153</v>
+        <v>7.515649615577614</v>
       </c>
       <c r="N5" t="n">
-        <v>89.95869116371595</v>
+        <v>89.62496970988306</v>
       </c>
       <c r="O5" t="n">
-        <v>9.484655563789122</v>
+        <v>9.46704651461495</v>
       </c>
       <c r="P5" t="n">
-        <v>342.1729027914523</v>
+        <v>342.1874542094228</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30035,28 +30035,28 @@
         <v>0.0432</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7768723227768536</v>
+        <v>0.7823247455536686</v>
       </c>
       <c r="J6" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K6" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1957190537965779</v>
+        <v>0.1993667773648456</v>
       </c>
       <c r="M6" t="n">
-        <v>9.274116608991632</v>
+        <v>9.26526920219413</v>
       </c>
       <c r="N6" t="n">
-        <v>132.755957290421</v>
+        <v>132.4486853172105</v>
       </c>
       <c r="O6" t="n">
-        <v>11.52197714328669</v>
+        <v>11.50863524998558</v>
       </c>
       <c r="P6" t="n">
-        <v>347.5812687468132</v>
+        <v>347.5240198910579</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30113,28 +30113,28 @@
         <v>0.036</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6448142054718127</v>
+        <v>0.6444900668283146</v>
       </c>
       <c r="J7" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K7" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1795706005829716</v>
+        <v>0.1810462374247912</v>
       </c>
       <c r="M7" t="n">
-        <v>7.942401391653054</v>
+        <v>7.926865138312825</v>
       </c>
       <c r="N7" t="n">
-        <v>102.6454982641441</v>
+        <v>102.1899140737901</v>
       </c>
       <c r="O7" t="n">
-        <v>10.13141146455636</v>
+        <v>10.10890271363762</v>
       </c>
       <c r="P7" t="n">
-        <v>357.2707034401095</v>
+        <v>357.274061203899</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30191,28 +30191,28 @@
         <v>0.0543</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6266516467816549</v>
+        <v>0.6265726526715586</v>
       </c>
       <c r="J8" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K8" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1745884182198776</v>
+        <v>0.1757919213190015</v>
       </c>
       <c r="M8" t="n">
-        <v>7.657574779518833</v>
+        <v>7.664367504858161</v>
       </c>
       <c r="N8" t="n">
-        <v>100.6897555900061</v>
+        <v>100.5294136863636</v>
       </c>
       <c r="O8" t="n">
-        <v>10.03442851337365</v>
+        <v>10.0264357418957</v>
       </c>
       <c r="P8" t="n">
-        <v>355.9757543488298</v>
+        <v>355.9765168001841</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30269,28 +30269,28 @@
         <v>0.0562</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7611139862415657</v>
+        <v>0.7601001396201064</v>
       </c>
       <c r="J9" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K9" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2407007603210952</v>
+        <v>0.2421888269968672</v>
       </c>
       <c r="M9" t="n">
-        <v>7.614614314147773</v>
+        <v>7.608701364614188</v>
       </c>
       <c r="N9" t="n">
-        <v>99.50477981946672</v>
+        <v>99.14930301404648</v>
       </c>
       <c r="O9" t="n">
-        <v>9.975208259453369</v>
+        <v>9.957374303200943</v>
       </c>
       <c r="P9" t="n">
-        <v>348.3685727922496</v>
+        <v>348.3790074100121</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30347,28 +30347,28 @@
         <v>0.0581</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6220988098537444</v>
+        <v>0.6248115840131906</v>
       </c>
       <c r="J10" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K10" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1674726306901074</v>
+        <v>0.1702656806913826</v>
       </c>
       <c r="M10" t="n">
-        <v>7.970096651939972</v>
+        <v>7.956698017711823</v>
       </c>
       <c r="N10" t="n">
-        <v>105.2510154331127</v>
+        <v>104.8224871580387</v>
       </c>
       <c r="O10" t="n">
-        <v>10.259191753404</v>
+        <v>10.23828536220976</v>
       </c>
       <c r="P10" t="n">
-        <v>349.1000006442335</v>
+        <v>349.0719676261248</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30425,28 +30425,28 @@
         <v>0.057</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5056593517494608</v>
+        <v>0.5070378326564623</v>
       </c>
       <c r="J11" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K11" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1185800999609997</v>
+        <v>0.1204129700526971</v>
       </c>
       <c r="M11" t="n">
-        <v>8.081031297517248</v>
+        <v>8.057426315477681</v>
       </c>
       <c r="N11" t="n">
-        <v>102.8037140422263</v>
+        <v>102.2838228254432</v>
       </c>
       <c r="O11" t="n">
-        <v>10.1392166384897</v>
+        <v>10.11354650087907</v>
       </c>
       <c r="P11" t="n">
-        <v>352.7505268620279</v>
+        <v>352.7361725228869</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30503,28 +30503,28 @@
         <v>0.0612</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7798302466884006</v>
+        <v>0.7754372035152185</v>
       </c>
       <c r="J12" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K12" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2105374738693599</v>
+        <v>0.2106836911874458</v>
       </c>
       <c r="M12" t="n">
-        <v>8.59493131661058</v>
+        <v>8.564654411791649</v>
       </c>
       <c r="N12" t="n">
-        <v>120.3361006526175</v>
+        <v>119.6914147298544</v>
       </c>
       <c r="O12" t="n">
-        <v>10.96978124907774</v>
+        <v>10.94035715732601</v>
       </c>
       <c r="P12" t="n">
-        <v>346.7896603625333</v>
+        <v>346.836088561214</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30581,28 +30581,28 @@
         <v>0.058</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8327006535264948</v>
+        <v>0.8230629975563567</v>
       </c>
       <c r="J13" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K13" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2443547323457469</v>
+        <v>0.2418052781724438</v>
       </c>
       <c r="M13" t="n">
-        <v>8.403950404417253</v>
+        <v>8.400545643066874</v>
       </c>
       <c r="N13" t="n">
-        <v>113.2262827245296</v>
+        <v>112.8922497338233</v>
       </c>
       <c r="O13" t="n">
-        <v>10.64078393373955</v>
+        <v>10.62507645778718</v>
       </c>
       <c r="P13" t="n">
-        <v>340.2568401695797</v>
+        <v>340.3600789494458</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30659,28 +30659,28 @@
         <v>0.064</v>
       </c>
       <c r="I14" t="n">
-        <v>0.889582078004322</v>
+        <v>0.8738617919894771</v>
       </c>
       <c r="J14" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K14" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2683814662414814</v>
+        <v>0.2619611013224827</v>
       </c>
       <c r="M14" t="n">
-        <v>8.384037033222809</v>
+        <v>8.410513085279099</v>
       </c>
       <c r="N14" t="n">
-        <v>113.4808865510771</v>
+        <v>113.9619918938069</v>
       </c>
       <c r="O14" t="n">
-        <v>10.6527407999574</v>
+        <v>10.67529821100127</v>
       </c>
       <c r="P14" t="n">
-        <v>335.6180730382772</v>
+        <v>335.7849347793991</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30737,28 +30737,28 @@
         <v>0.0679</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7691792628614446</v>
+        <v>0.7685215401323505</v>
       </c>
       <c r="J15" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K15" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2173753315268949</v>
+        <v>0.2193760301583887</v>
       </c>
       <c r="M15" t="n">
-        <v>8.426296212501738</v>
+        <v>8.375814791128711</v>
       </c>
       <c r="N15" t="n">
-        <v>111.900790510403</v>
+        <v>111.1827298120384</v>
       </c>
       <c r="O15" t="n">
-        <v>10.57831699801074</v>
+        <v>10.54432215991329</v>
       </c>
       <c r="P15" t="n">
-        <v>334.2438934048629</v>
+        <v>334.2508916149576</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30815,28 +30815,28 @@
         <v>0.0604</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6821277472012655</v>
+        <v>0.6838078884260403</v>
       </c>
       <c r="J16" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K16" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1885161556682772</v>
+        <v>0.1913353866075753</v>
       </c>
       <c r="M16" t="n">
-        <v>8.066027238159421</v>
+        <v>8.023181495815031</v>
       </c>
       <c r="N16" t="n">
-        <v>103.1496835572517</v>
+        <v>102.5084482120339</v>
       </c>
       <c r="O16" t="n">
-        <v>10.15626326742527</v>
+        <v>10.12464558451474</v>
       </c>
       <c r="P16" t="n">
-        <v>334.6495619752825</v>
+        <v>334.6315345788357</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30893,28 +30893,28 @@
         <v>0.0626</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8362859311590483</v>
+        <v>0.8281221176207924</v>
       </c>
       <c r="J17" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K17" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2479622189559166</v>
+        <v>0.2464059003418176</v>
       </c>
       <c r="M17" t="n">
-        <v>8.304891924658151</v>
+        <v>8.295718845671265</v>
       </c>
       <c r="N17" t="n">
-        <v>110.6024538997196</v>
+        <v>110.1517398278536</v>
       </c>
       <c r="O17" t="n">
-        <v>10.51677012678891</v>
+        <v>10.49531990116802</v>
       </c>
       <c r="P17" t="n">
-        <v>333.038998443843</v>
+        <v>333.1258684425808</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30971,28 +30971,28 @@
         <v>0.0673</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8851732155545164</v>
+        <v>0.8853140220211521</v>
       </c>
       <c r="J18" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K18" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2721785793225709</v>
+        <v>0.2747653518858414</v>
       </c>
       <c r="M18" t="n">
-        <v>8.249446458988926</v>
+        <v>8.22636293936646</v>
       </c>
       <c r="N18" t="n">
-        <v>107.6234597228456</v>
+        <v>107.0663231529179</v>
       </c>
       <c r="O18" t="n">
-        <v>10.37417272474512</v>
+        <v>10.34728578676157</v>
       </c>
       <c r="P18" t="n">
-        <v>325.9589841383032</v>
+        <v>325.9574432860232</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -31049,28 +31049,28 @@
         <v>0.0609</v>
       </c>
       <c r="I19" t="n">
-        <v>1.032333223805598</v>
+        <v>1.027059765695691</v>
       </c>
       <c r="J19" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K19" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3510372685903778</v>
+        <v>0.351110795231182</v>
       </c>
       <c r="M19" t="n">
-        <v>8.041155320144766</v>
+        <v>8.027582371453065</v>
       </c>
       <c r="N19" t="n">
-        <v>103.3552602363067</v>
+        <v>103.0258692267738</v>
       </c>
       <c r="O19" t="n">
-        <v>10.16637891465328</v>
+        <v>10.1501659704053</v>
       </c>
       <c r="P19" t="n">
-        <v>320.1426580213971</v>
+        <v>320.1984417681427</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -31127,28 +31127,28 @@
         <v>0.0594</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9718196715573633</v>
+        <v>0.9656874558489718</v>
       </c>
       <c r="J20" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K20" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2837333463278113</v>
+        <v>0.282022990619977</v>
       </c>
       <c r="M20" t="n">
-        <v>8.910091911890024</v>
+        <v>8.930816306181857</v>
       </c>
       <c r="N20" t="n">
-        <v>125.3076767649122</v>
+        <v>125.5811336757113</v>
       </c>
       <c r="O20" t="n">
-        <v>11.19409115403802</v>
+        <v>11.20629883930066</v>
       </c>
       <c r="P20" t="n">
-        <v>324.0152994963667</v>
+        <v>324.0807368759714</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -31205,28 +31205,28 @@
         <v>0.0692</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9215662979835624</v>
+        <v>0.9204367041471876</v>
       </c>
       <c r="J21" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K21" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2975073765142136</v>
+        <v>0.2990161317835223</v>
       </c>
       <c r="M21" t="n">
-        <v>8.108828064728312</v>
+        <v>8.107504244258012</v>
       </c>
       <c r="N21" t="n">
-        <v>105.8625826913045</v>
+        <v>105.5886282051556</v>
       </c>
       <c r="O21" t="n">
-        <v>10.28895440223663</v>
+        <v>10.27563273989274</v>
       </c>
       <c r="P21" t="n">
-        <v>333.3843898746975</v>
+        <v>333.3962835518198</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -31283,28 +31283,28 @@
         <v>0.0692</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8508648364830833</v>
+        <v>0.8499826938549448</v>
       </c>
       <c r="J22" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K22" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2330616756939148</v>
+        <v>0.2328730038741212</v>
       </c>
       <c r="M22" t="n">
-        <v>9.058580439593879</v>
+        <v>9.09968561518364</v>
       </c>
       <c r="N22" t="n">
-        <v>123.1883721404076</v>
+        <v>123.9268692113472</v>
       </c>
       <c r="O22" t="n">
-        <v>11.09902572933352</v>
+        <v>11.13224457202352</v>
       </c>
       <c r="P22" t="n">
-        <v>332.2520893235833</v>
+        <v>332.2614543782738</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">

--- a/data/nzd0455/nzd0455.xlsx
+++ b/data/nzd0455/nzd0455.xlsx
@@ -29714,13 +29714,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0469</v>
+        <v>0.0269</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0575</v>
+        <v>0.0327</v>
       </c>
       <c r="I2" t="n">
         <v>0.3588513292619965</v>
@@ -29792,13 +29792,13 @@
         <v>0.949936790337011</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0554</v>
+        <v>0.0698</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0725</v>
+        <v>0.0872</v>
       </c>
       <c r="I3" t="n">
         <v>0.4482651142566578</v>
@@ -29870,13 +29870,13 @@
         <v>0.8998735806723738</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0476</v>
+        <v>0.0597</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0561</v>
+        <v>0.0718</v>
       </c>
       <c r="I4" t="n">
         <v>0.7185218415382909</v>
@@ -29948,13 +29948,13 @@
         <v>0.8498103710093847</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.045</v>
+        <v>0.0541</v>
       </c>
       <c r="H5" t="n">
-        <v>0.055</v>
+        <v>0.0653</v>
       </c>
       <c r="I5" t="n">
         <v>0.7461219309254868</v>
@@ -30026,13 +30026,13 @@
         <v>0.8000554203374641</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0374</v>
+        <v>0.0581</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0432</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>0.7823247455536686</v>
@@ -30104,13 +30104,13 @@
         <v>0.7499922106732894</v>
       </c>
       <c r="F7" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0318</v>
+        <v>0.0383</v>
       </c>
       <c r="H7" t="n">
-        <v>0.036</v>
+        <v>0.0478</v>
       </c>
       <c r="I7" t="n">
         <v>0.6445342568051879</v>
@@ -30182,13 +30182,13 @@
         <v>0.6999290010094201</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0449</v>
+        <v>0.0587</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0543</v>
+        <v>0.0723</v>
       </c>
       <c r="I8" t="n">
         <v>0.6265726526715585</v>
@@ -30260,13 +30260,13 @@
         <v>0.6498657913455509</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0475</v>
+        <v>0.0591</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0562</v>
+        <v>0.0709</v>
       </c>
       <c r="I9" t="n">
         <v>0.7601001396201066</v>
@@ -30338,13 +30338,13 @@
         <v>0.5998025816816815</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0472</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0581</v>
+        <v>0.0808</v>
       </c>
       <c r="I10" t="n">
         <v>0.6248115840131907</v>
@@ -30416,13 +30416,13 @@
         <v>0.5497393720175068</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0467</v>
+        <v>0.06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.057</v>
+        <v>0.0704</v>
       </c>
       <c r="I11" t="n">
         <v>0.5070378326564626</v>
@@ -30497,10 +30497,10 @@
         <v>0.055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0472</v>
+        <v>0.0496</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0612</v>
+        <v>0.0683</v>
       </c>
       <c r="I12" t="n">
         <v>0.7754048227339612</v>
@@ -30572,13 +30572,13 @@
         <v>0.449944445401391</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0473</v>
+        <v>0.0567</v>
       </c>
       <c r="H13" t="n">
-        <v>0.058</v>
+        <v>0.0824</v>
       </c>
       <c r="I13" t="n">
         <v>0.8230629975563569</v>
@@ -30650,13 +30650,13 @@
         <v>0.3998812357362106</v>
       </c>
       <c r="F14" t="n">
-        <v>0.055</v>
+        <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0519</v>
+        <v>0.0728</v>
       </c>
       <c r="H14" t="n">
-        <v>0.064</v>
+        <v>0.1593</v>
       </c>
       <c r="I14" t="n">
         <v>0.8738337472233467</v>
@@ -30728,13 +30728,13 @@
         <v>0.3498180260728707</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06</v>
+        <v>0.105</v>
       </c>
       <c r="G15" t="n">
-        <v>0.055</v>
+        <v>0.0818</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0679</v>
+        <v>0.1425</v>
       </c>
       <c r="I15" t="n">
         <v>0.7685161248803039</v>
@@ -30806,13 +30806,13 @@
         <v>0.2997548164091508</v>
       </c>
       <c r="F16" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0484</v>
+        <v>0.0575</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0604</v>
+        <v>0.0772</v>
       </c>
       <c r="I16" t="n">
         <v>0.6837695780037893</v>
@@ -30884,13 +30884,13 @@
         <v>0.2496916067454308</v>
       </c>
       <c r="F17" t="n">
-        <v>0.055</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0498</v>
+        <v>0.0678</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0626</v>
+        <v>0.119</v>
       </c>
       <c r="I17" t="n">
         <v>0.8280848009864932</v>
@@ -30962,13 +30962,13 @@
         <v>0.1998273827203228</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0534</v>
+        <v>0.0789</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0673</v>
+        <v>0.1044</v>
       </c>
       <c r="I18" t="n">
         <v>0.8853079855353928</v>
@@ -31040,13 +31040,13 @@
         <v>0.1497641730564407</v>
       </c>
       <c r="F19" t="n">
-        <v>0.055</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0475</v>
+        <v>0.0731</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0609</v>
+        <v>0.102</v>
       </c>
       <c r="I19" t="n">
         <v>1.027036451368132</v>
@@ -31118,13 +31118,13 @@
         <v>0.0997009633928468</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0466</v>
+        <v>0.0617</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0594</v>
+        <v>0.1384</v>
       </c>
       <c r="I20" t="n">
         <v>0.965687455848972</v>
@@ -31196,13 +31196,13 @@
         <v>0.04963775372925293</v>
       </c>
       <c r="F21" t="n">
-        <v>0.055</v>
+        <v>0.09</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0484</v>
+        <v>0.0767</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0692</v>
+        <v>0.1085</v>
       </c>
       <c r="I21" t="n">
         <v>0.9204080186597323</v>
@@ -31274,13 +31274,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.055</v>
+        <v>0.095</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0477</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0692</v>
+        <v>0.1103</v>
       </c>
       <c r="I22" t="n">
         <v>0.8499561636424586</v>

--- a/data/nzd0455/nzd0455.xlsx
+++ b/data/nzd0455/nzd0455.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W367"/>
+  <dimension ref="A1:W368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
         <v>359.67</v>
       </c>
       <c r="L2" t="n">
-        <v>357.66</v>
+        <v>356.47</v>
       </c>
       <c r="M2" t="n">
         <v>344.64</v>
@@ -649,7 +649,7 @@
         <v>358.46</v>
       </c>
       <c r="L3" t="n">
-        <v>352.34</v>
+        <v>350.85</v>
       </c>
       <c r="M3" t="n">
         <v>344.77</v>
@@ -724,7 +724,7 @@
         <v>345.21</v>
       </c>
       <c r="L4" t="n">
-        <v>342.7</v>
+        <v>343.11</v>
       </c>
       <c r="M4" t="n">
         <v>336.49</v>
@@ -799,7 +799,7 @@
         <v>361.34</v>
       </c>
       <c r="L5" t="n">
-        <v>365.52</v>
+        <v>366.44</v>
       </c>
       <c r="M5" t="n">
         <v>345.67</v>
@@ -864,7 +864,7 @@
         <v>346.63</v>
       </c>
       <c r="L6" t="n">
-        <v>346.01</v>
+        <v>345.54</v>
       </c>
       <c r="M6" t="n">
         <v>334.43</v>
@@ -939,7 +939,7 @@
         <v>346.66</v>
       </c>
       <c r="L7" t="n">
-        <v>343.69</v>
+        <v>344.22</v>
       </c>
       <c r="M7" t="n">
         <v>342.21</v>
@@ -1012,7 +1012,7 @@
         <v>371.22</v>
       </c>
       <c r="L8" t="n">
-        <v>356.6</v>
+        <v>357.95</v>
       </c>
       <c r="M8" t="n">
         <v>343.66</v>
@@ -1160,7 +1160,7 @@
         <v>351.31</v>
       </c>
       <c r="L10" t="n">
-        <v>352.19</v>
+        <v>353.47</v>
       </c>
       <c r="M10" t="n">
         <v>346.74</v>
@@ -1235,7 +1235,7 @@
         <v>353.21</v>
       </c>
       <c r="L11" t="n">
-        <v>345.48</v>
+        <v>346.38</v>
       </c>
       <c r="M11" t="n">
         <v>337.3</v>
@@ -1310,7 +1310,7 @@
         <v>351.96</v>
       </c>
       <c r="L12" t="n">
-        <v>341.83</v>
+        <v>342.33</v>
       </c>
       <c r="M12" t="n">
         <v>333.87</v>
@@ -1385,7 +1385,7 @@
         <v>352.1</v>
       </c>
       <c r="L13" t="n">
-        <v>353.97</v>
+        <v>352.32</v>
       </c>
       <c r="M13" t="n">
         <v>345.29</v>
@@ -1460,7 +1460,7 @@
         <v>346.48</v>
       </c>
       <c r="L14" t="n">
-        <v>342.71</v>
+        <v>343.18</v>
       </c>
       <c r="M14" t="n">
         <v>341.13</v>
@@ -1535,7 +1535,7 @@
         <v>348.09</v>
       </c>
       <c r="L15" t="n">
-        <v>353.64</v>
+        <v>352.91</v>
       </c>
       <c r="M15" t="n">
         <v>347.92</v>
@@ -1610,7 +1610,7 @@
         <v>359.22</v>
       </c>
       <c r="L16" t="n">
-        <v>355.91</v>
+        <v>356.77</v>
       </c>
       <c r="M16" t="n">
         <v>348.74</v>
@@ -1685,7 +1685,7 @@
         <v>352.23</v>
       </c>
       <c r="L17" t="n">
-        <v>347.71</v>
+        <v>348.24</v>
       </c>
       <c r="M17" t="n">
         <v>341.19</v>
@@ -1760,7 +1760,7 @@
         <v>349.55</v>
       </c>
       <c r="L18" t="n">
-        <v>349.45</v>
+        <v>348.71</v>
       </c>
       <c r="M18" t="n">
         <v>349.99</v>
@@ -1831,7 +1831,7 @@
         <v>369.42</v>
       </c>
       <c r="L19" t="n">
-        <v>362.77</v>
+        <v>363.62</v>
       </c>
       <c r="M19" t="n">
         <v>339.54</v>
@@ -1906,7 +1906,7 @@
         <v>363.01</v>
       </c>
       <c r="L20" t="n">
-        <v>356</v>
+        <v>354.74</v>
       </c>
       <c r="M20" t="n">
         <v>350.4</v>
@@ -1981,7 +1981,7 @@
         <v>341.14</v>
       </c>
       <c r="L21" t="n">
-        <v>334.84</v>
+        <v>334.78</v>
       </c>
       <c r="M21" t="n">
         <v>322.24</v>
@@ -2056,7 +2056,7 @@
         <v>362</v>
       </c>
       <c r="L22" t="n">
-        <v>351.12</v>
+        <v>352.06</v>
       </c>
       <c r="M22" t="n">
         <v>345.06</v>
@@ -2131,7 +2131,7 @@
         <v>358.57</v>
       </c>
       <c r="L23" t="n">
-        <v>356.37</v>
+        <v>356.93</v>
       </c>
       <c r="M23" t="n">
         <v>348.13</v>
@@ -2206,7 +2206,7 @@
         <v>357.48</v>
       </c>
       <c r="L24" t="n">
-        <v>355.52</v>
+        <v>355.78</v>
       </c>
       <c r="M24" t="n">
         <v>349.57</v>
@@ -2326,7 +2326,7 @@
         <v>371.06</v>
       </c>
       <c r="L26" t="n">
-        <v>363.74</v>
+        <v>365.01</v>
       </c>
       <c r="M26" t="n">
         <v>355.74</v>
@@ -2401,7 +2401,7 @@
         <v>372.76</v>
       </c>
       <c r="L27" t="n">
-        <v>373.82</v>
+        <v>372.55</v>
       </c>
       <c r="M27" t="n">
         <v>362.06</v>
@@ -2476,7 +2476,7 @@
         <v>347.2</v>
       </c>
       <c r="L28" t="n">
-        <v>341.52</v>
+        <v>340.3</v>
       </c>
       <c r="M28" t="n">
         <v>335.66</v>
@@ -2622,7 +2622,7 @@
         <v>341.48</v>
       </c>
       <c r="L30" t="n">
-        <v>333.21</v>
+        <v>333.63</v>
       </c>
       <c r="M30" t="n">
         <v>329.87</v>
@@ -2697,7 +2697,7 @@
         <v>346.98</v>
       </c>
       <c r="L31" t="n">
-        <v>345.89</v>
+        <v>346.48</v>
       </c>
       <c r="M31" t="n">
         <v>342.26</v>
@@ -2770,7 +2770,7 @@
         <v>327.51</v>
       </c>
       <c r="L32" t="n">
-        <v>326.52</v>
+        <v>325.58</v>
       </c>
       <c r="M32" t="n">
         <v>332.55</v>
@@ -2945,7 +2945,7 @@
         <v>360.62</v>
       </c>
       <c r="L35" t="n">
-        <v>359.73</v>
+        <v>360.2</v>
       </c>
       <c r="M35" t="n">
         <v>358.13</v>
@@ -3045,7 +3045,7 @@
         <v>350.89</v>
       </c>
       <c r="L37" t="n">
-        <v>352.46</v>
+        <v>353.11</v>
       </c>
       <c r="M37" t="n">
         <v>355.61</v>
@@ -3118,7 +3118,7 @@
         <v>347.53</v>
       </c>
       <c r="L38" t="n">
-        <v>349.25</v>
+        <v>348.84</v>
       </c>
       <c r="M38" t="n">
         <v>331.88</v>
@@ -3191,7 +3191,7 @@
         <v>349.74</v>
       </c>
       <c r="L39" t="n">
-        <v>349.43</v>
+        <v>348.4</v>
       </c>
       <c r="M39" t="n">
         <v>344.05</v>
@@ -3266,7 +3266,7 @@
         <v>359.02</v>
       </c>
       <c r="L40" t="n">
-        <v>352.61</v>
+        <v>353.26</v>
       </c>
       <c r="M40" t="n">
         <v>348.1</v>
@@ -3339,7 +3339,7 @@
         <v>349.8</v>
       </c>
       <c r="L41" t="n">
-        <v>349.32</v>
+        <v>349.94</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
@@ -3408,7 +3408,7 @@
         <v>346.19</v>
       </c>
       <c r="L42" t="n">
-        <v>344.6</v>
+        <v>344.45</v>
       </c>
       <c r="M42" t="n">
         <v>348.26</v>
@@ -3483,7 +3483,7 @@
         <v>347.49</v>
       </c>
       <c r="L43" t="n">
-        <v>351.81</v>
+        <v>350.82</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -3550,7 +3550,7 @@
         <v>364.52</v>
       </c>
       <c r="L44" t="n">
-        <v>361.6</v>
+        <v>360.63</v>
       </c>
       <c r="M44" t="n">
         <v>357.56</v>
@@ -3625,7 +3625,7 @@
         <v>364.18</v>
       </c>
       <c r="L45" t="n">
-        <v>363.59</v>
+        <v>362.27</v>
       </c>
       <c r="M45" t="n">
         <v>355.94</v>
@@ -3696,7 +3696,7 @@
         <v>350.65</v>
       </c>
       <c r="L46" t="n">
-        <v>346.34</v>
+        <v>344.79</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -3761,7 +3761,7 @@
         <v>355</v>
       </c>
       <c r="L47" t="n">
-        <v>361.47</v>
+        <v>362.05</v>
       </c>
       <c r="M47" t="n">
         <v>347.16</v>
@@ -3836,7 +3836,7 @@
         <v>348.07</v>
       </c>
       <c r="L48" t="n">
-        <v>337.93</v>
+        <v>336.96</v>
       </c>
       <c r="M48" t="n">
         <v>348.14</v>
@@ -3907,7 +3907,7 @@
         <v>352.33</v>
       </c>
       <c r="L49" t="n">
-        <v>342.15</v>
+        <v>343.21</v>
       </c>
       <c r="M49" t="n">
         <v>347.06</v>
@@ -3980,7 +3980,7 @@
         <v>323.13</v>
       </c>
       <c r="L50" t="n">
-        <v>324.65</v>
+        <v>323.46</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
@@ -4035,7 +4035,7 @@
         <v>354.68</v>
       </c>
       <c r="L51" t="n">
-        <v>347.39</v>
+        <v>345.71</v>
       </c>
       <c r="M51" t="n">
         <v>346.52</v>
@@ -4110,7 +4110,7 @@
         <v>358.02</v>
       </c>
       <c r="L52" t="n">
-        <v>356.63</v>
+        <v>357.18</v>
       </c>
       <c r="M52" t="n">
         <v>347.99</v>
@@ -4181,7 +4181,7 @@
         <v>360.05</v>
       </c>
       <c r="L53" t="n">
-        <v>343.76</v>
+        <v>342.82</v>
       </c>
       <c r="M53" t="n">
         <v>343.78</v>
@@ -4250,7 +4250,7 @@
         <v>349.75</v>
       </c>
       <c r="L54" t="n">
-        <v>335.23</v>
+        <v>333.79</v>
       </c>
       <c r="M54" t="n">
         <v>330.06</v>
@@ -4325,7 +4325,7 @@
         <v>335.97</v>
       </c>
       <c r="L55" t="n">
-        <v>330.35</v>
+        <v>329.76</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
@@ -4396,7 +4396,7 @@
         <v>351.11</v>
       </c>
       <c r="L56" t="n">
-        <v>355.44</v>
+        <v>355.25</v>
       </c>
       <c r="M56" t="n">
         <v>337.91</v>
@@ -4467,7 +4467,7 @@
         <v>344.76</v>
       </c>
       <c r="L57" t="n">
-        <v>340.56</v>
+        <v>340</v>
       </c>
       <c r="M57" t="n">
         <v>327.56</v>
@@ -4538,7 +4538,7 @@
         <v>362.03</v>
       </c>
       <c r="L58" t="n">
-        <v>364.55</v>
+        <v>364.72</v>
       </c>
       <c r="M58" t="n">
         <v>343.01</v>
@@ -4607,7 +4607,7 @@
         <v>370.74</v>
       </c>
       <c r="L59" t="n">
-        <v>369.88</v>
+        <v>370.97</v>
       </c>
       <c r="M59" t="n">
         <v>352.5</v>
@@ -4753,7 +4753,7 @@
         <v>337.62</v>
       </c>
       <c r="L61" t="n">
-        <v>334.29</v>
+        <v>333.14</v>
       </c>
       <c r="M61" t="n">
         <v>330.23</v>
@@ -4828,7 +4828,7 @@
         <v>362.81</v>
       </c>
       <c r="L62" t="n">
-        <v>352.84</v>
+        <v>351.94</v>
       </c>
       <c r="M62" t="n">
         <v>349.13</v>
@@ -4895,7 +4895,7 @@
         <v>352.39</v>
       </c>
       <c r="L63" t="n">
-        <v>344.95</v>
+        <v>345.68</v>
       </c>
       <c r="M63" t="n">
         <v>341.21</v>
@@ -5005,7 +5005,7 @@
         <v>368.84</v>
       </c>
       <c r="L65" t="n">
-        <v>377.09</v>
+        <v>375.76</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -5056,7 +5056,7 @@
         <v>333.47</v>
       </c>
       <c r="L66" t="n">
-        <v>335.66</v>
+        <v>336.1</v>
       </c>
       <c r="M66" t="n">
         <v>333.75</v>
@@ -5190,7 +5190,7 @@
         <v>359.97</v>
       </c>
       <c r="L68" t="n">
-        <v>344.27</v>
+        <v>344.89</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
@@ -5263,7 +5263,7 @@
         <v>354.3</v>
       </c>
       <c r="L69" t="n">
-        <v>344.39</v>
+        <v>343.61</v>
       </c>
       <c r="M69" t="n">
         <v>345.65</v>
@@ -5338,7 +5338,7 @@
         <v>346</v>
       </c>
       <c r="L70" t="n">
-        <v>326.51</v>
+        <v>327.28</v>
       </c>
       <c r="M70" t="n">
         <v>321.74</v>
@@ -5409,7 +5409,7 @@
         <v>347.7</v>
       </c>
       <c r="L71" t="n">
-        <v>335.29</v>
+        <v>334.39</v>
       </c>
       <c r="M71" t="n">
         <v>335.22</v>
@@ -5482,7 +5482,7 @@
         <v>358.39</v>
       </c>
       <c r="L72" t="n">
-        <v>345.37</v>
+        <v>344.01</v>
       </c>
       <c r="M72" t="n">
         <v>351.57</v>
@@ -5553,7 +5553,7 @@
         <v>358.82</v>
       </c>
       <c r="L73" t="n">
-        <v>345.47</v>
+        <v>346.29</v>
       </c>
       <c r="M73" t="n">
         <v>341.58</v>
@@ -5628,7 +5628,7 @@
         <v>360.34</v>
       </c>
       <c r="L74" t="n">
-        <v>361.73</v>
+        <v>361.14</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
@@ -5699,7 +5699,7 @@
         <v>348.59</v>
       </c>
       <c r="L75" t="n">
-        <v>343.93</v>
+        <v>344.31</v>
       </c>
       <c r="M75" t="n">
         <v>345.77</v>
@@ -5774,7 +5774,7 @@
         <v>358.32</v>
       </c>
       <c r="L76" t="n">
-        <v>358.57</v>
+        <v>357.89</v>
       </c>
       <c r="M76" t="n">
         <v>348.82</v>
@@ -5847,7 +5847,7 @@
         <v>353.36</v>
       </c>
       <c r="L77" t="n">
-        <v>354.64</v>
+        <v>355.36</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
@@ -5916,7 +5916,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>345.21</v>
+        <v>344.93</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="n">
@@ -5985,7 +5985,7 @@
         <v>346.52</v>
       </c>
       <c r="L79" t="n">
-        <v>348.58</v>
+        <v>347.82</v>
       </c>
       <c r="M79" t="n">
         <v>348.32</v>
@@ -6052,7 +6052,7 @@
         <v>363.09</v>
       </c>
       <c r="L80" t="n">
-        <v>364.1</v>
+        <v>363.51</v>
       </c>
       <c r="M80" t="n">
         <v>364.63</v>
@@ -6123,7 +6123,7 @@
         <v>346.25</v>
       </c>
       <c r="L81" t="n">
-        <v>346.36</v>
+        <v>345.44</v>
       </c>
       <c r="M81" t="n">
         <v>347.41</v>
@@ -6198,7 +6198,7 @@
         <v>352.11</v>
       </c>
       <c r="L82" t="n">
-        <v>330.25</v>
+        <v>330.89</v>
       </c>
       <c r="M82" t="n">
         <v>320.8</v>
@@ -6271,7 +6271,7 @@
         <v>352.22</v>
       </c>
       <c r="L83" t="n">
-        <v>344.86</v>
+        <v>345.55</v>
       </c>
       <c r="M83" t="n">
         <v>326.83</v>
@@ -6346,7 +6346,7 @@
         <v>350.27</v>
       </c>
       <c r="L84" t="n">
-        <v>339.44</v>
+        <v>340.29</v>
       </c>
       <c r="M84" t="n">
         <v>335.79</v>
@@ -6397,7 +6397,7 @@
         <v>360.06</v>
       </c>
       <c r="L85" t="n">
-        <v>356.39</v>
+        <v>355.9</v>
       </c>
       <c r="M85" t="n">
         <v>351.86</v>
@@ -6468,7 +6468,7 @@
         <v>356.08</v>
       </c>
       <c r="L86" t="n">
-        <v>343.46</v>
+        <v>343.77</v>
       </c>
       <c r="M86" t="n">
         <v>344.39</v>
@@ -6529,7 +6529,7 @@
         <v>366.94</v>
       </c>
       <c r="L87" t="n">
-        <v>368.81</v>
+        <v>369.87</v>
       </c>
       <c r="M87" t="n">
         <v>364.54</v>
@@ -6600,7 +6600,7 @@
         <v>367.7</v>
       </c>
       <c r="L88" t="n">
-        <v>366.58</v>
+        <v>367.35</v>
       </c>
       <c r="M88" t="n">
         <v>359.41</v>
@@ -6671,7 +6671,7 @@
         <v>358.18</v>
       </c>
       <c r="L89" t="n">
-        <v>350.9</v>
+        <v>350.26</v>
       </c>
       <c r="M89" t="n">
         <v>341.64</v>
@@ -6811,7 +6811,7 @@
         <v>352.84</v>
       </c>
       <c r="L91" t="n">
-        <v>346.85</v>
+        <v>346.36</v>
       </c>
       <c r="M91" t="n">
         <v>340.93</v>
@@ -6884,7 +6884,7 @@
         <v>356.39</v>
       </c>
       <c r="L92" t="n">
-        <v>353.34</v>
+        <v>352.99</v>
       </c>
       <c r="M92" t="n">
         <v>347.89</v>
@@ -6955,7 +6955,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>341.65</v>
+        <v>340.64</v>
       </c>
       <c r="M93" t="n">
         <v>346.79</v>
@@ -7024,7 +7024,7 @@
         <v>368.6</v>
       </c>
       <c r="L94" t="n">
-        <v>373.94</v>
+        <v>372.71</v>
       </c>
       <c r="M94" t="n">
         <v>372.72</v>
@@ -7099,7 +7099,7 @@
         <v>366.84</v>
       </c>
       <c r="L95" t="n">
-        <v>360.71</v>
+        <v>360.03</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
@@ -7170,7 +7170,7 @@
         <v>374.31</v>
       </c>
       <c r="L96" t="n">
-        <v>362.28</v>
+        <v>362.72</v>
       </c>
       <c r="M96" t="n">
         <v>359.71</v>
@@ -7245,7 +7245,7 @@
         <v>388.45</v>
       </c>
       <c r="L97" t="n">
-        <v>376.05</v>
+        <v>376.87</v>
       </c>
       <c r="M97" t="n">
         <v>355.43</v>
@@ -7320,7 +7320,7 @@
         <v>384.77</v>
       </c>
       <c r="L98" t="n">
-        <v>374.91</v>
+        <v>375.63</v>
       </c>
       <c r="M98" t="n">
         <v>362.2</v>
@@ -7389,7 +7389,7 @@
         <v>354.36</v>
       </c>
       <c r="L99" t="n">
-        <v>353.18</v>
+        <v>351.42</v>
       </c>
       <c r="M99" t="n">
         <v>350.56</v>
@@ -7531,7 +7531,7 @@
         <v>354.21</v>
       </c>
       <c r="L101" t="n">
-        <v>343.66</v>
+        <v>344.15</v>
       </c>
       <c r="M101" t="n">
         <v>334.28</v>
@@ -7606,7 +7606,7 @@
         <v>366.77</v>
       </c>
       <c r="L102" t="n">
-        <v>355.29</v>
+        <v>356.15</v>
       </c>
       <c r="M102" t="n">
         <v>358.96</v>
@@ -7679,7 +7679,7 @@
         <v>345.33</v>
       </c>
       <c r="L103" t="n">
-        <v>345.8</v>
+        <v>345.39</v>
       </c>
       <c r="M103" t="n">
         <v>338.58</v>
@@ -7754,7 +7754,7 @@
         <v>371.73</v>
       </c>
       <c r="L104" t="n">
-        <v>363.73</v>
+        <v>364.49</v>
       </c>
       <c r="M104" t="n">
         <v>366.82</v>
@@ -7819,7 +7819,7 @@
         <v>369.26</v>
       </c>
       <c r="L105" t="n">
-        <v>376.37</v>
+        <v>377.28</v>
       </c>
       <c r="M105" t="n">
         <v>371.15</v>
@@ -7890,7 +7890,7 @@
         <v>376.95</v>
       </c>
       <c r="L106" t="n">
-        <v>362.12</v>
+        <v>362.68</v>
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
@@ -7955,7 +7955,7 @@
         <v>357.98</v>
       </c>
       <c r="L107" t="n">
-        <v>356.27</v>
+        <v>355.03</v>
       </c>
       <c r="M107" t="n">
         <v>343.4</v>
@@ -8022,7 +8022,7 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>357.74</v>
+        <v>358.74</v>
       </c>
       <c r="M108" t="n">
         <v>344.42</v>
@@ -8097,7 +8097,7 @@
         <v>372.01</v>
       </c>
       <c r="L109" t="n">
-        <v>370.12</v>
+        <v>370.61</v>
       </c>
       <c r="M109" t="n">
         <v>360.67</v>
@@ -8170,7 +8170,7 @@
         <v>383.65</v>
       </c>
       <c r="L110" t="n">
-        <v>373.29</v>
+        <v>372.74</v>
       </c>
       <c r="M110" t="n">
         <v>358.94</v>
@@ -8241,7 +8241,7 @@
         <v>376.6</v>
       </c>
       <c r="L111" t="n">
-        <v>373.07</v>
+        <v>372.48</v>
       </c>
       <c r="M111" t="n">
         <v>363.23</v>
@@ -8310,7 +8310,7 @@
         <v>368.87</v>
       </c>
       <c r="L112" t="n">
-        <v>366.39</v>
+        <v>365.67</v>
       </c>
       <c r="M112" t="n">
         <v>352.74</v>
@@ -8381,7 +8381,7 @@
         <v>364.26</v>
       </c>
       <c r="L113" t="n">
-        <v>362.69</v>
+        <v>363.69</v>
       </c>
       <c r="M113" t="n">
         <v>346.54</v>
@@ -8448,7 +8448,7 @@
         <v>360.09</v>
       </c>
       <c r="L114" t="n">
-        <v>355.66</v>
+        <v>356.02</v>
       </c>
       <c r="M114" t="n">
         <v>358.07</v>
@@ -8515,7 +8515,7 @@
         <v>359.57</v>
       </c>
       <c r="L115" t="n">
-        <v>354.08</v>
+        <v>353.49</v>
       </c>
       <c r="M115" t="n">
         <v>347.96</v>
@@ -8586,7 +8586,7 @@
         <v>345.61</v>
       </c>
       <c r="L116" t="n">
-        <v>353.24</v>
+        <v>354.12</v>
       </c>
       <c r="M116" t="n">
         <v>349.66</v>
@@ -8653,7 +8653,7 @@
         <v>368.96</v>
       </c>
       <c r="L117" t="n">
-        <v>371.43</v>
+        <v>372.51</v>
       </c>
       <c r="M117" t="n">
         <v>365.13</v>
@@ -8726,7 +8726,7 @@
         <v>369.05</v>
       </c>
       <c r="L118" t="n">
-        <v>371.95</v>
+        <v>370.53</v>
       </c>
       <c r="M118" t="n">
         <v>351.87</v>
@@ -8795,7 +8795,7 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>358.39</v>
+        <v>356.54</v>
       </c>
       <c r="M119" t="n">
         <v>341.03</v>
@@ -8905,7 +8905,7 @@
         <v>360.77</v>
       </c>
       <c r="L121" t="n">
-        <v>349.59</v>
+        <v>350.6</v>
       </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="n">
@@ -8972,7 +8972,7 @@
         <v>354.28</v>
       </c>
       <c r="L122" t="n">
-        <v>347.56</v>
+        <v>346.94</v>
       </c>
       <c r="M122" t="n">
         <v>336.22</v>
@@ -9039,7 +9039,7 @@
         <v>355.05</v>
       </c>
       <c r="L123" t="n">
-        <v>357.33</v>
+        <v>355.56</v>
       </c>
       <c r="M123" t="n">
         <v>355.42</v>
@@ -9104,7 +9104,7 @@
         <v>349.93</v>
       </c>
       <c r="L124" t="n">
-        <v>350.11</v>
+        <v>351.14</v>
       </c>
       <c r="M124" t="n">
         <v>350.2</v>
@@ -9173,7 +9173,7 @@
         <v>365.91</v>
       </c>
       <c r="L125" t="n">
-        <v>376.4</v>
+        <v>374.85</v>
       </c>
       <c r="M125" t="n">
         <v>361.28</v>
@@ -9246,7 +9246,7 @@
         <v>363.29</v>
       </c>
       <c r="L126" t="n">
-        <v>363.35</v>
+        <v>364.35</v>
       </c>
       <c r="M126" t="n">
         <v>357</v>
@@ -9321,7 +9321,7 @@
         <v>371.62</v>
       </c>
       <c r="L127" t="n">
-        <v>375.41</v>
+        <v>374.44</v>
       </c>
       <c r="M127" t="n">
         <v>375.37</v>
@@ -9386,7 +9386,7 @@
         <v>382.96</v>
       </c>
       <c r="L128" t="n">
-        <v>360.03</v>
+        <v>361.17</v>
       </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="n">
@@ -9443,7 +9443,7 @@
         <v>355.23</v>
       </c>
       <c r="L129" t="n">
-        <v>355.47</v>
+        <v>354.55</v>
       </c>
       <c r="M129" t="n">
         <v>347.44</v>
@@ -9514,7 +9514,7 @@
         <v>366.08</v>
       </c>
       <c r="L130" t="n">
-        <v>367.83</v>
+        <v>367.82</v>
       </c>
       <c r="M130" t="n">
         <v>357.51</v>
@@ -9589,7 +9589,7 @@
         <v>353.45</v>
       </c>
       <c r="L131" t="n">
-        <v>347.47</v>
+        <v>348.46</v>
       </c>
       <c r="M131" t="n">
         <v>341.59</v>
@@ -9664,7 +9664,7 @@
         <v>353.29</v>
       </c>
       <c r="L132" t="n">
-        <v>358.9</v>
+        <v>357.95</v>
       </c>
       <c r="M132" t="n">
         <v>356.85</v>
@@ -9792,7 +9792,7 @@
         <v>353.33</v>
       </c>
       <c r="L134" t="n">
-        <v>353.45</v>
+        <v>354.42</v>
       </c>
       <c r="M134" t="n">
         <v>346.49</v>
@@ -9867,7 +9867,7 @@
         <v>352.76</v>
       </c>
       <c r="L135" t="n">
-        <v>354.13</v>
+        <v>353.14</v>
       </c>
       <c r="M135" t="n">
         <v>340.49</v>
@@ -9938,7 +9938,7 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
-        <v>358.4</v>
+        <v>357.87</v>
       </c>
       <c r="M136" t="n">
         <v>347.53</v>
@@ -10009,7 +10009,7 @@
         <v>366.43</v>
       </c>
       <c r="L137" t="n">
-        <v>368.27</v>
+        <v>367.35</v>
       </c>
       <c r="M137" t="n">
         <v>358.66</v>
@@ -10084,7 +10084,7 @@
         <v>341.32</v>
       </c>
       <c r="L138" t="n">
-        <v>342.45</v>
+        <v>340.8</v>
       </c>
       <c r="M138" t="n">
         <v>337.28</v>
@@ -10151,7 +10151,7 @@
         <v>368.02</v>
       </c>
       <c r="L139" t="n">
-        <v>375.37</v>
+        <v>374.47</v>
       </c>
       <c r="M139" t="n">
         <v>358.93</v>
@@ -10226,7 +10226,7 @@
         <v>364.64</v>
       </c>
       <c r="L140" t="n">
-        <v>362.06</v>
+        <v>361.73</v>
       </c>
       <c r="M140" t="n">
         <v>353.42</v>
@@ -10299,7 +10299,7 @@
         <v>382.05</v>
       </c>
       <c r="L141" t="n">
-        <v>370.77</v>
+        <v>371.94</v>
       </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
@@ -10368,7 +10368,7 @@
         <v>355.51</v>
       </c>
       <c r="L142" t="n">
-        <v>356.75</v>
+        <v>356.19</v>
       </c>
       <c r="M142" t="n">
         <v>349.11</v>
@@ -10439,7 +10439,7 @@
         <v>355.23</v>
       </c>
       <c r="L143" t="n">
-        <v>359.34</v>
+        <v>358.33</v>
       </c>
       <c r="M143" t="n">
         <v>349.12</v>
@@ -10512,7 +10512,7 @@
         <v>346.72</v>
       </c>
       <c r="L144" t="n">
-        <v>345.61</v>
+        <v>346.49</v>
       </c>
       <c r="M144" t="n">
         <v>342.74</v>
@@ -10587,7 +10587,7 @@
         <v>356.45</v>
       </c>
       <c r="L145" t="n">
-        <v>359.25</v>
+        <v>359.76</v>
       </c>
       <c r="M145" t="n">
         <v>354.64</v>
@@ -10658,7 +10658,7 @@
         <v>359.97</v>
       </c>
       <c r="L146" t="n">
-        <v>362.75</v>
+        <v>361.9</v>
       </c>
       <c r="M146" t="n">
         <v>355.86</v>
@@ -10727,7 +10727,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>357.19</v>
+        <v>358.19</v>
       </c>
       <c r="M147" t="n">
         <v>357.24</v>
@@ -10798,7 +10798,7 @@
         <v>358.58</v>
       </c>
       <c r="L148" t="n">
-        <v>356.93</v>
+        <v>357.66</v>
       </c>
       <c r="M148" t="n">
         <v>356.67</v>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
-        <v>361.3</v>
+        <v>362.24</v>
       </c>
       <c r="M149" t="n">
         <v>356.85</v>
@@ -10942,7 +10942,7 @@
         <v>354.65</v>
       </c>
       <c r="L150" t="n">
-        <v>354.39</v>
+        <v>354.25</v>
       </c>
       <c r="M150" t="n">
         <v>346.2</v>
@@ -11013,7 +11013,7 @@
         <v>344.83</v>
       </c>
       <c r="L151" t="n">
-        <v>349.46</v>
+        <v>348.96</v>
       </c>
       <c r="M151" t="n">
         <v>335.69</v>
@@ -11082,7 +11082,7 @@
         <v>364.68</v>
       </c>
       <c r="L152" t="n">
-        <v>365.01</v>
+        <v>364.66</v>
       </c>
       <c r="M152" t="n">
         <v>356.6</v>
@@ -11151,7 +11151,7 @@
         <v>373.69</v>
       </c>
       <c r="L153" t="n">
-        <v>375.7</v>
+        <v>374.73</v>
       </c>
       <c r="M153" t="n">
         <v>366.78</v>
@@ -11224,7 +11224,7 @@
         <v>360.53</v>
       </c>
       <c r="L154" t="n">
-        <v>365.94</v>
+        <v>366.89</v>
       </c>
       <c r="M154" t="n">
         <v>347.35</v>
@@ -11299,7 +11299,7 @@
         <v>360.07</v>
       </c>
       <c r="L155" t="n">
-        <v>359.17</v>
+        <v>358.84</v>
       </c>
       <c r="M155" t="n">
         <v>349.8</v>
@@ -11366,7 +11366,7 @@
         <v>369.2</v>
       </c>
       <c r="L156" t="n">
-        <v>361.1</v>
+        <v>361.33</v>
       </c>
       <c r="M156" t="n">
         <v>352.67</v>
@@ -11435,7 +11435,7 @@
         <v>346.42</v>
       </c>
       <c r="L157" t="n">
-        <v>354.62</v>
+        <v>355.62</v>
       </c>
       <c r="M157" t="n">
         <v>350.38</v>
@@ -11575,7 +11575,7 @@
         <v>357.49</v>
       </c>
       <c r="L159" t="n">
-        <v>361.42</v>
+        <v>362.37</v>
       </c>
       <c r="M159" t="n">
         <v>352.71</v>
@@ -11648,7 +11648,7 @@
         <v>361.34</v>
       </c>
       <c r="L160" t="n">
-        <v>361.79</v>
+        <v>360.61</v>
       </c>
       <c r="M160" t="n">
         <v>352.6</v>
@@ -11719,7 +11719,7 @@
         <v>360.5</v>
       </c>
       <c r="L161" t="n">
-        <v>360.61</v>
+        <v>361.42</v>
       </c>
       <c r="M161" t="n">
         <v>354.27</v>
@@ -11863,7 +11863,7 @@
         <v>360.82</v>
       </c>
       <c r="L163" t="n">
-        <v>358.34</v>
+        <v>357.98</v>
       </c>
       <c r="M163" t="n">
         <v>340.77</v>
@@ -11938,7 +11938,7 @@
         <v>352.93</v>
       </c>
       <c r="L164" t="n">
-        <v>352.5</v>
+        <v>353.65</v>
       </c>
       <c r="M164" t="n">
         <v>352.31</v>
@@ -12011,7 +12011,7 @@
       </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
-        <v>376.61</v>
+        <v>375.64</v>
       </c>
       <c r="M165" t="n">
         <v>364.19</v>
@@ -12086,7 +12086,7 @@
         <v>358.9</v>
       </c>
       <c r="L166" t="n">
-        <v>360.17</v>
+        <v>360.55</v>
       </c>
       <c r="M166" t="n">
         <v>365.63</v>
@@ -12161,7 +12161,7 @@
         <v>356.71</v>
       </c>
       <c r="L167" t="n">
-        <v>354.73</v>
+        <v>354.24</v>
       </c>
       <c r="M167" t="n">
         <v>346.5</v>
@@ -12234,7 +12234,7 @@
         <v>367.77</v>
       </c>
       <c r="L168" t="n">
-        <v>368.38</v>
+        <v>369.3</v>
       </c>
       <c r="M168" t="n">
         <v>367.24</v>
@@ -12287,7 +12287,7 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>341.56</v>
+        <v>340.18</v>
       </c>
       <c r="M169" t="n">
         <v>318.72</v>
@@ -12360,7 +12360,7 @@
         <v>355.09</v>
       </c>
       <c r="L170" t="n">
-        <v>354.68</v>
+        <v>355.45</v>
       </c>
       <c r="M170" t="n">
         <v>341.48</v>
@@ -12435,7 +12435,7 @@
         <v>351.94</v>
       </c>
       <c r="L171" t="n">
-        <v>342.05</v>
+        <v>340.29</v>
       </c>
       <c r="M171" t="n">
         <v>337.76</v>
@@ -12508,7 +12508,7 @@
         <v>372.59</v>
       </c>
       <c r="L172" t="n">
-        <v>374.63</v>
+        <v>375.66</v>
       </c>
       <c r="M172" t="n">
         <v>356.48</v>
@@ -12583,7 +12583,7 @@
         <v>362</v>
       </c>
       <c r="L173" t="n">
-        <v>359.75</v>
+        <v>359.42</v>
       </c>
       <c r="M173" t="n">
         <v>358.27</v>
@@ -12648,7 +12648,7 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
-        <v>319.09</v>
+        <v>318.81</v>
       </c>
       <c r="M174" t="n">
         <v>317.88</v>
@@ -12719,7 +12719,7 @@
         <v>362.92</v>
       </c>
       <c r="L175" t="n">
-        <v>353.41</v>
+        <v>354.1</v>
       </c>
       <c r="M175" t="n">
         <v>349.23</v>
@@ -12790,7 +12790,7 @@
         <v>367.89</v>
       </c>
       <c r="L176" t="n">
-        <v>375.49</v>
+        <v>373.72</v>
       </c>
       <c r="M176" t="n">
         <v>346.94</v>
@@ -12861,7 +12861,7 @@
         <v>349.51</v>
       </c>
       <c r="L177" t="n">
-        <v>351.03</v>
+        <v>352.06</v>
       </c>
       <c r="M177" t="n">
         <v>349.37</v>
@@ -12936,7 +12936,7 @@
         <v>357.8</v>
       </c>
       <c r="L178" t="n">
-        <v>358.98</v>
+        <v>360.17</v>
       </c>
       <c r="M178" t="n">
         <v>353.43</v>
@@ -13062,7 +13062,7 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>365.59</v>
+        <v>365.95</v>
       </c>
       <c r="M180" t="n">
         <v>356.92</v>
@@ -13137,7 +13137,7 @@
         <v>358.17</v>
       </c>
       <c r="L181" t="n">
-        <v>351.04</v>
+        <v>350.44</v>
       </c>
       <c r="M181" t="n">
         <v>344.48</v>
@@ -13212,7 +13212,7 @@
         <v>352.81</v>
       </c>
       <c r="L182" t="n">
-        <v>355.24</v>
+        <v>356.01</v>
       </c>
       <c r="M182" t="n">
         <v>361.22</v>
@@ -13279,7 +13279,7 @@
         <v>363.15</v>
       </c>
       <c r="L183" t="n">
-        <v>360.38</v>
+        <v>361.35</v>
       </c>
       <c r="M183" t="n">
         <v>368.71</v>
@@ -13354,7 +13354,7 @@
         <v>357.28</v>
       </c>
       <c r="L184" t="n">
-        <v>357.66</v>
+        <v>357.34</v>
       </c>
       <c r="M184" t="n">
         <v>351.25</v>
@@ -13427,7 +13427,7 @@
         <v>351.1</v>
       </c>
       <c r="L185" t="n">
-        <v>354.6</v>
+        <v>354.33</v>
       </c>
       <c r="M185" t="n">
         <v>335.26</v>
@@ -13502,7 +13502,7 @@
         <v>355.78</v>
       </c>
       <c r="L186" t="n">
-        <v>351.67</v>
+        <v>352.48</v>
       </c>
       <c r="M186" t="n">
         <v>353.23</v>
@@ -13577,7 +13577,7 @@
         <v>361.35</v>
       </c>
       <c r="L187" t="n">
-        <v>355.77</v>
+        <v>356.39</v>
       </c>
       <c r="M187" t="n">
         <v>344.83</v>
@@ -13652,7 +13652,7 @@
         <v>366.41</v>
       </c>
       <c r="L188" t="n">
-        <v>369.87</v>
+        <v>368.65</v>
       </c>
       <c r="M188" t="n">
         <v>359.21</v>
@@ -13717,7 +13717,7 @@
         <v>359.9</v>
       </c>
       <c r="L189" t="n">
-        <v>361.45</v>
+        <v>360.76</v>
       </c>
       <c r="M189" t="n">
         <v>352.67</v>
@@ -13859,7 +13859,7 @@
         <v>362.95</v>
       </c>
       <c r="L191" t="n">
-        <v>362.5</v>
+        <v>361.85</v>
       </c>
       <c r="M191" t="n">
         <v>353.29</v>
@@ -13934,7 +13934,7 @@
         <v>361.26</v>
       </c>
       <c r="L192" t="n">
-        <v>361.99</v>
+        <v>360.34</v>
       </c>
       <c r="M192" t="n">
         <v>358.27</v>
@@ -14005,7 +14005,7 @@
         <v>370.78</v>
       </c>
       <c r="L193" t="n">
-        <v>369.91</v>
+        <v>370.58</v>
       </c>
       <c r="M193" t="n">
         <v>367.64</v>
@@ -14078,7 +14078,7 @@
         <v>373.7</v>
       </c>
       <c r="L194" t="n">
-        <v>373.49</v>
+        <v>372.31</v>
       </c>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="n">
@@ -14133,7 +14133,7 @@
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
-        <v>346.15</v>
+        <v>345.18</v>
       </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
@@ -14188,7 +14188,7 @@
         <v>358.5</v>
       </c>
       <c r="L196" t="n">
-        <v>353.77</v>
+        <v>353.17</v>
       </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr"/>
@@ -14259,7 +14259,7 @@
         <v>368.89</v>
       </c>
       <c r="L197" t="n">
-        <v>375.2</v>
+        <v>374.42</v>
       </c>
       <c r="M197" t="n">
         <v>364.31</v>
@@ -14330,7 +14330,7 @@
         <v>376.02</v>
       </c>
       <c r="L198" t="n">
-        <v>369</v>
+        <v>369.72</v>
       </c>
       <c r="M198" t="n">
         <v>348.13</v>
@@ -14401,7 +14401,7 @@
         <v>366.23</v>
       </c>
       <c r="L199" t="n">
-        <v>368.92</v>
+        <v>367.32</v>
       </c>
       <c r="M199" t="n">
         <v>355.4</v>
@@ -14476,7 +14476,7 @@
         <v>368.5</v>
       </c>
       <c r="L200" t="n">
-        <v>363.71</v>
+        <v>362.11</v>
       </c>
       <c r="M200" t="n">
         <v>347.18</v>
@@ -14551,7 +14551,7 @@
         <v>366.15</v>
       </c>
       <c r="L201" t="n">
-        <v>368.73</v>
+        <v>368.38</v>
       </c>
       <c r="M201" t="n">
         <v>361.68</v>
@@ -14626,7 +14626,7 @@
         <v>366.83</v>
       </c>
       <c r="L202" t="n">
-        <v>368.98</v>
+        <v>368.7</v>
       </c>
       <c r="M202" t="n">
         <v>366.29</v>
@@ -14701,7 +14701,7 @@
         <v>355.3</v>
       </c>
       <c r="L203" t="n">
-        <v>366.29</v>
+        <v>366.96</v>
       </c>
       <c r="M203" t="n">
         <v>361.64</v>
@@ -14772,7 +14772,7 @@
         <v>335.55</v>
       </c>
       <c r="L204" t="n">
-        <v>331.6</v>
+        <v>329.91</v>
       </c>
       <c r="M204" t="n">
         <v>344.96</v>
@@ -14845,7 +14845,7 @@
         <v>355.57</v>
       </c>
       <c r="L205" t="n">
-        <v>361.61</v>
+        <v>361.43</v>
       </c>
       <c r="M205" t="n">
         <v>353.1</v>
@@ -14914,7 +14914,7 @@
         <v>364.91</v>
       </c>
       <c r="L206" t="n">
-        <v>356.61</v>
+        <v>357.47</v>
       </c>
       <c r="M206" t="n">
         <v>363.27</v>
@@ -15034,7 +15034,7 @@
         <v>334.18</v>
       </c>
       <c r="L208" t="n">
-        <v>321.64</v>
+        <v>321.33</v>
       </c>
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr"/>
@@ -15099,7 +15099,7 @@
         <v>369.08</v>
       </c>
       <c r="L209" t="n">
-        <v>378.3</v>
+        <v>378.31</v>
       </c>
       <c r="M209" t="n">
         <v>370.05</v>
@@ -15174,7 +15174,7 @@
         <v>370.62</v>
       </c>
       <c r="L210" t="n">
-        <v>368.89</v>
+        <v>369.84</v>
       </c>
       <c r="M210" t="n">
         <v>363.3</v>
@@ -15245,7 +15245,7 @@
         <v>354.07</v>
       </c>
       <c r="L211" t="n">
-        <v>358.87</v>
+        <v>357.7</v>
       </c>
       <c r="M211" t="n">
         <v>361.86</v>
@@ -15312,7 +15312,7 @@
         <v>365.77</v>
       </c>
       <c r="L212" t="n">
-        <v>367.45</v>
+        <v>365.76</v>
       </c>
       <c r="M212" t="n">
         <v>360.63</v>
@@ -15383,7 +15383,7 @@
         <v>355.28</v>
       </c>
       <c r="L213" t="n">
-        <v>358.79</v>
+        <v>358.55</v>
       </c>
       <c r="M213" t="n">
         <v>361.72</v>
@@ -15452,7 +15452,7 @@
         <v>354.22</v>
       </c>
       <c r="L214" t="n">
-        <v>352.53</v>
+        <v>353.2</v>
       </c>
       <c r="M214" t="n">
         <v>361.18</v>
@@ -15523,7 +15523,7 @@
         <v>346.55</v>
       </c>
       <c r="L215" t="n">
-        <v>349.16</v>
+        <v>348.22</v>
       </c>
       <c r="M215" t="n">
         <v>354.18</v>
@@ -15598,7 +15598,7 @@
         <v>342.7</v>
       </c>
       <c r="L216" t="n">
-        <v>359.93</v>
+        <v>358.21</v>
       </c>
       <c r="M216" t="n">
         <v>353.93</v>
@@ -15669,7 +15669,7 @@
         <v>363.44</v>
       </c>
       <c r="L217" t="n">
-        <v>353.17</v>
+        <v>354</v>
       </c>
       <c r="M217" t="n">
         <v>360.57</v>
@@ -15734,7 +15734,7 @@
         <v>360.86</v>
       </c>
       <c r="L218" t="n">
-        <v>358.77</v>
+        <v>359.76</v>
       </c>
       <c r="M218" t="n">
         <v>352.77</v>
@@ -15854,7 +15854,7 @@
         <v>355.5</v>
       </c>
       <c r="L220" t="n">
-        <v>354.22</v>
+        <v>355.08</v>
       </c>
       <c r="M220" t="n">
         <v>352.62</v>
@@ -15929,7 +15929,7 @@
         <v>365.39</v>
       </c>
       <c r="L221" t="n">
-        <v>356.18</v>
+        <v>356.92</v>
       </c>
       <c r="M221" t="n">
         <v>368.95</v>
@@ -16004,7 +16004,7 @@
         <v>363.56</v>
       </c>
       <c r="L222" t="n">
-        <v>361.23</v>
+        <v>361.2</v>
       </c>
       <c r="M222" t="n">
         <v>357.68</v>
@@ -16138,7 +16138,7 @@
         <v>365.25</v>
       </c>
       <c r="L224" t="n">
-        <v>358.16</v>
+        <v>358.65</v>
       </c>
       <c r="M224" t="n">
         <v>355.08</v>
@@ -16201,7 +16201,7 @@
         <v>350.71</v>
       </c>
       <c r="L225" t="n">
-        <v>347.46</v>
+        <v>346.51</v>
       </c>
       <c r="M225" t="n">
         <v>342.67</v>
@@ -16276,7 +16276,7 @@
         <v>381.78</v>
       </c>
       <c r="L226" t="n">
-        <v>381.24</v>
+        <v>379.48</v>
       </c>
       <c r="M226" t="n">
         <v>376.92</v>
@@ -16345,7 +16345,7 @@
         <v>339.21</v>
       </c>
       <c r="L227" t="n">
-        <v>344.13</v>
+        <v>342.68</v>
       </c>
       <c r="M227" t="n">
         <v>336.36</v>
@@ -16406,7 +16406,7 @@
         <v>369.15</v>
       </c>
       <c r="L228" t="n">
-        <v>369.84</v>
+        <v>368.93</v>
       </c>
       <c r="M228" t="n">
         <v>359.79</v>
@@ -16475,7 +16475,7 @@
         <v>371.77</v>
       </c>
       <c r="L229" t="n">
-        <v>368.41</v>
+        <v>368.08</v>
       </c>
       <c r="M229" t="n">
         <v>366.34</v>
@@ -16546,7 +16546,7 @@
         <v>363.1</v>
       </c>
       <c r="L230" t="n">
-        <v>366.24</v>
+        <v>367.06</v>
       </c>
       <c r="M230" t="n">
         <v>360.64</v>
@@ -16690,7 +16690,7 @@
         <v>364.42</v>
       </c>
       <c r="L232" t="n">
-        <v>371.12</v>
+        <v>370.3</v>
       </c>
       <c r="M232" t="n">
         <v>365.76</v>
@@ -16747,7 +16747,7 @@
         <v>354.46</v>
       </c>
       <c r="L233" t="n">
-        <v>359.11</v>
+        <v>359.37</v>
       </c>
       <c r="M233" t="n">
         <v>353.47</v>
@@ -16816,7 +16816,7 @@
         <v>357.03</v>
       </c>
       <c r="L234" t="n">
-        <v>370.23</v>
+        <v>370.08</v>
       </c>
       <c r="M234" t="n">
         <v>359.51</v>
@@ -16891,7 +16891,7 @@
         <v>356.62</v>
       </c>
       <c r="L235" t="n">
-        <v>364.01</v>
+        <v>363.77</v>
       </c>
       <c r="M235" t="n">
         <v>350.3</v>
@@ -16966,7 +16966,7 @@
         <v>357.68</v>
       </c>
       <c r="L236" t="n">
-        <v>365.1</v>
+        <v>363.75</v>
       </c>
       <c r="M236" t="n">
         <v>346.45</v>
@@ -17110,7 +17110,7 @@
         <v>347.44</v>
       </c>
       <c r="L238" t="n">
-        <v>340.99</v>
+        <v>340.44</v>
       </c>
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr"/>
@@ -17175,7 +17175,7 @@
         <v>349.07</v>
       </c>
       <c r="L239" t="n">
-        <v>329.39</v>
+        <v>329.81</v>
       </c>
       <c r="M239" t="n">
         <v>324.49</v>
@@ -17234,7 +17234,7 @@
         <v>366.26</v>
       </c>
       <c r="L240" t="n">
-        <v>355.91</v>
+        <v>354.4</v>
       </c>
       <c r="M240" t="n">
         <v>360.24</v>
@@ -17303,7 +17303,7 @@
         <v>379.62</v>
       </c>
       <c r="L241" t="n">
-        <v>378.54</v>
+        <v>377.69</v>
       </c>
       <c r="M241" t="n">
         <v>367.36</v>
@@ -17431,7 +17431,7 @@
         <v>375.32</v>
       </c>
       <c r="L243" t="n">
-        <v>382.02</v>
+        <v>381.28</v>
       </c>
       <c r="M243" t="n">
         <v>373.73</v>
@@ -17506,7 +17506,7 @@
         <v>371.43</v>
       </c>
       <c r="L244" t="n">
-        <v>375.83</v>
+        <v>375.78</v>
       </c>
       <c r="M244" t="n">
         <v>357.56</v>
@@ -17618,7 +17618,7 @@
         <v>386.92</v>
       </c>
       <c r="L246" t="n">
-        <v>389.66</v>
+        <v>390.71</v>
       </c>
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr"/>
@@ -17683,7 +17683,7 @@
         <v>378.15</v>
       </c>
       <c r="L247" t="n">
-        <v>380.2</v>
+        <v>379.44</v>
       </c>
       <c r="M247" t="n">
         <v>366.94</v>
@@ -17752,7 +17752,7 @@
         <v>358.74</v>
       </c>
       <c r="L248" t="n">
-        <v>369.39</v>
+        <v>368.97</v>
       </c>
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
         <v>348.76</v>
       </c>
       <c r="L249" t="n">
-        <v>355.33</v>
+        <v>355.55</v>
       </c>
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="inlineStr"/>
@@ -17856,7 +17856,7 @@
         <v>368.63</v>
       </c>
       <c r="L250" t="n">
-        <v>372.35</v>
+        <v>372.7</v>
       </c>
       <c r="M250" t="n">
         <v>360.43</v>
@@ -17917,7 +17917,7 @@
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
-        <v>380.27</v>
+        <v>379.6</v>
       </c>
       <c r="M251" t="inlineStr"/>
       <c r="N251" t="inlineStr"/>
@@ -17976,7 +17976,7 @@
         <v>352.52</v>
       </c>
       <c r="L252" t="n">
-        <v>349.36</v>
+        <v>350.21</v>
       </c>
       <c r="M252" t="n">
         <v>351.8</v>
@@ -18045,7 +18045,7 @@
         <v>345.51</v>
       </c>
       <c r="L253" t="n">
-        <v>346.88</v>
+        <v>348.2</v>
       </c>
       <c r="M253" t="n">
         <v>348.32</v>
@@ -18108,7 +18108,7 @@
         <v>355.85</v>
       </c>
       <c r="L254" t="n">
-        <v>355.51</v>
+        <v>356.61</v>
       </c>
       <c r="M254" t="n">
         <v>353.51</v>
@@ -18177,7 +18177,7 @@
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
-        <v>379.59</v>
+        <v>378.82</v>
       </c>
       <c r="M255" t="n">
         <v>371.95</v>
@@ -18250,7 +18250,7 @@
         <v>338.16</v>
       </c>
       <c r="L256" t="n">
-        <v>344.94</v>
+        <v>345.68</v>
       </c>
       <c r="M256" t="n">
         <v>343.34</v>
@@ -18313,7 +18313,7 @@
         <v>348.9</v>
       </c>
       <c r="L257" t="n">
-        <v>351.09</v>
+        <v>351.73</v>
       </c>
       <c r="M257" t="n">
         <v>344.16</v>
@@ -18380,7 +18380,7 @@
         <v>358.17</v>
       </c>
       <c r="L258" t="n">
-        <v>363.96</v>
+        <v>363.36</v>
       </c>
       <c r="M258" t="n">
         <v>347.57</v>
@@ -18447,7 +18447,7 @@
         <v>356.86</v>
       </c>
       <c r="L259" t="n">
-        <v>357.14</v>
+        <v>358.15</v>
       </c>
       <c r="M259" t="n">
         <v>343.88</v>
@@ -18577,7 +18577,7 @@
         <v>358.4</v>
       </c>
       <c r="L261" t="n">
-        <v>358.43</v>
+        <v>359.25</v>
       </c>
       <c r="M261" t="n">
         <v>348.12</v>
@@ -18646,7 +18646,7 @@
         <v>363.29</v>
       </c>
       <c r="L262" t="n">
-        <v>358.03</v>
+        <v>357.52</v>
       </c>
       <c r="M262" t="n">
         <v>347.65</v>
@@ -18711,7 +18711,7 @@
         <v>361.23</v>
       </c>
       <c r="L263" t="n">
-        <v>360.11</v>
+        <v>360.78</v>
       </c>
       <c r="M263" t="n">
         <v>357.23</v>
@@ -18847,7 +18847,7 @@
         <v>366.21</v>
       </c>
       <c r="L265" t="n">
-        <v>360.56</v>
+        <v>361.41</v>
       </c>
       <c r="M265" t="n">
         <v>357.44</v>
@@ -18922,7 +18922,7 @@
         <v>355.5</v>
       </c>
       <c r="L266" t="n">
-        <v>357.18</v>
+        <v>356.96</v>
       </c>
       <c r="M266" t="n">
         <v>348.23</v>
@@ -19148,7 +19148,7 @@
         <v>358.91</v>
       </c>
       <c r="L270" t="n">
-        <v>370.32</v>
+        <v>368.63</v>
       </c>
       <c r="M270" t="n">
         <v>363.28</v>
@@ -19244,7 +19244,7 @@
         <v>361.47</v>
       </c>
       <c r="L272" t="n">
-        <v>361.69</v>
+        <v>362.41</v>
       </c>
       <c r="M272" t="inlineStr"/>
       <c r="N272" t="inlineStr"/>
@@ -19299,7 +19299,7 @@
         <v>365.77</v>
       </c>
       <c r="L273" t="n">
-        <v>353.82</v>
+        <v>354.44</v>
       </c>
       <c r="M273" t="n">
         <v>344.36</v>
@@ -19362,7 +19362,7 @@
         <v>375.66</v>
       </c>
       <c r="L274" t="n">
-        <v>375.16</v>
+        <v>376.01</v>
       </c>
       <c r="M274" t="n">
         <v>346.48</v>
@@ -19437,7 +19437,7 @@
         <v>366.64</v>
       </c>
       <c r="L275" t="n">
-        <v>354.13</v>
+        <v>355.18</v>
       </c>
       <c r="M275" t="n">
         <v>340.05</v>
@@ -19579,7 +19579,7 @@
         <v>373.99</v>
       </c>
       <c r="L277" t="n">
-        <v>364.11</v>
+        <v>364.58</v>
       </c>
       <c r="M277" t="n">
         <v>343.13</v>
@@ -19654,7 +19654,7 @@
         <v>366.23</v>
       </c>
       <c r="L278" t="n">
-        <v>359.53</v>
+        <v>359.26</v>
       </c>
       <c r="M278" t="n">
         <v>347.03</v>
@@ -19715,7 +19715,7 @@
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
-        <v>352.44</v>
+        <v>352.09</v>
       </c>
       <c r="M279" t="n">
         <v>350.56</v>
@@ -19784,7 +19784,7 @@
         <v>353.21</v>
       </c>
       <c r="L280" t="n">
-        <v>354.68</v>
+        <v>354.13</v>
       </c>
       <c r="M280" t="n">
         <v>348.09</v>
@@ -19859,7 +19859,7 @@
         <v>365.57</v>
       </c>
       <c r="L281" t="n">
-        <v>368.72</v>
+        <v>368.1</v>
       </c>
       <c r="M281" t="inlineStr"/>
       <c r="N281" t="inlineStr"/>
@@ -19928,7 +19928,7 @@
         <v>361.18</v>
       </c>
       <c r="L282" t="n">
-        <v>363.45</v>
+        <v>363.55</v>
       </c>
       <c r="M282" t="n">
         <v>362.89</v>
@@ -20003,7 +20003,7 @@
         <v>345.56</v>
       </c>
       <c r="L283" t="n">
-        <v>350.9</v>
+        <v>350.25</v>
       </c>
       <c r="M283" t="n">
         <v>350.62</v>
@@ -20064,7 +20064,7 @@
         <v>355.42</v>
       </c>
       <c r="L284" t="n">
-        <v>351.96</v>
+        <v>352.79</v>
       </c>
       <c r="M284" t="n">
         <v>352.33</v>
@@ -20129,7 +20129,7 @@
         <v>355.98</v>
       </c>
       <c r="L285" t="n">
-        <v>356.18</v>
+        <v>356.68</v>
       </c>
       <c r="M285" t="n">
         <v>354.09</v>
@@ -20204,7 +20204,7 @@
         <v>360.94</v>
       </c>
       <c r="L286" t="n">
-        <v>364.91</v>
+        <v>363.42</v>
       </c>
       <c r="M286" t="n">
         <v>363.37</v>
@@ -20273,7 +20273,7 @@
         <v>369.77</v>
       </c>
       <c r="L287" t="n">
-        <v>368.88</v>
+        <v>367.87</v>
       </c>
       <c r="M287" t="n">
         <v>359.07</v>
@@ -20346,7 +20346,7 @@
         <v>376.43</v>
       </c>
       <c r="L288" t="n">
-        <v>379.31</v>
+        <v>377.91</v>
       </c>
       <c r="M288" t="n">
         <v>368.55</v>
@@ -20421,7 +20421,7 @@
         <v>346.27</v>
       </c>
       <c r="L289" t="n">
-        <v>346.91</v>
+        <v>348.01</v>
       </c>
       <c r="M289" t="n">
         <v>345.54</v>
@@ -20490,7 +20490,7 @@
         <v>360.29</v>
       </c>
       <c r="L290" t="n">
-        <v>368.55</v>
+        <v>368.27</v>
       </c>
       <c r="M290" t="n">
         <v>371.31</v>
@@ -20551,7 +20551,7 @@
         <v>360.52</v>
       </c>
       <c r="L291" t="n">
-        <v>367.56</v>
+        <v>366.32</v>
       </c>
       <c r="M291" t="n">
         <v>365.59</v>
@@ -20626,7 +20626,7 @@
         <v>361.38</v>
       </c>
       <c r="L292" t="n">
-        <v>367.4</v>
+        <v>367.18</v>
       </c>
       <c r="M292" t="n">
         <v>355.96</v>
@@ -20764,7 +20764,7 @@
         <v>371.89</v>
       </c>
       <c r="L294" t="n">
-        <v>372.19</v>
+        <v>371.96</v>
       </c>
       <c r="M294" t="n">
         <v>364.99</v>
@@ -20917,7 +20917,7 @@
         <v>377.54</v>
       </c>
       <c r="L297" t="n">
-        <v>374.95</v>
+        <v>375</v>
       </c>
       <c r="M297" t="n">
         <v>368.53</v>
@@ -21062,7 +21062,7 @@
         <v>377.51</v>
       </c>
       <c r="L300" t="n">
-        <v>379.1</v>
+        <v>377.52</v>
       </c>
       <c r="M300" t="n">
         <v>371.44</v>
@@ -21133,7 +21133,7 @@
         <v>372.58</v>
       </c>
       <c r="L301" t="n">
-        <v>368.28</v>
+        <v>369.46</v>
       </c>
       <c r="M301" t="n">
         <v>363.44</v>
@@ -21202,7 +21202,7 @@
         <v>357.29</v>
       </c>
       <c r="L302" t="n">
-        <v>352.3</v>
+        <v>353.27</v>
       </c>
       <c r="M302" t="n">
         <v>351.74</v>
@@ -21277,7 +21277,7 @@
         <v>360.89</v>
       </c>
       <c r="L303" t="n">
-        <v>354.85</v>
+        <v>353.58</v>
       </c>
       <c r="M303" t="n">
         <v>359.18</v>
@@ -21334,7 +21334,7 @@
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
-        <v>369.53</v>
+        <v>368.68</v>
       </c>
       <c r="M304" t="n">
         <v>386.76</v>
@@ -21399,7 +21399,7 @@
         <v>375.93</v>
       </c>
       <c r="L305" t="n">
-        <v>380.44</v>
+        <v>379.03</v>
       </c>
       <c r="M305" t="n">
         <v>382.17</v>
@@ -21474,7 +21474,7 @@
         <v>358.89</v>
       </c>
       <c r="L306" t="n">
-        <v>367.67</v>
+        <v>368.84</v>
       </c>
       <c r="M306" t="n">
         <v>372.79</v>
@@ -21606,7 +21606,7 @@
         <v>361.87</v>
       </c>
       <c r="L308" t="n">
-        <v>376.82</v>
+        <v>377.76</v>
       </c>
       <c r="M308" t="n">
         <v>372.79</v>
@@ -21681,7 +21681,7 @@
         <v>371.18</v>
       </c>
       <c r="L309" t="n">
-        <v>379.36</v>
+        <v>378.18</v>
       </c>
       <c r="M309" t="n">
         <v>372.49</v>
@@ -21748,7 +21748,7 @@
         <v>365.74</v>
       </c>
       <c r="L310" t="n">
-        <v>368.21</v>
+        <v>369.59</v>
       </c>
       <c r="M310" t="n">
         <v>361.6</v>
@@ -21813,7 +21813,7 @@
         <v>374.7</v>
       </c>
       <c r="L311" t="n">
-        <v>374.14</v>
+        <v>374.64</v>
       </c>
       <c r="M311" t="n">
         <v>369.88</v>
@@ -21888,7 +21888,7 @@
         <v>357.74</v>
       </c>
       <c r="L312" t="n">
-        <v>362.76</v>
+        <v>361.94</v>
       </c>
       <c r="M312" t="n">
         <v>352.87</v>
@@ -21963,7 +21963,7 @@
         <v>374.21</v>
       </c>
       <c r="L313" t="n">
-        <v>363.77</v>
+        <v>364.65</v>
       </c>
       <c r="M313" t="n">
         <v>358.82</v>
@@ -22075,7 +22075,7 @@
         <v>377.28</v>
       </c>
       <c r="L315" t="n">
-        <v>370.89</v>
+        <v>369.8</v>
       </c>
       <c r="M315" t="n">
         <v>363.77</v>
@@ -22150,7 +22150,7 @@
         <v>362.34</v>
       </c>
       <c r="L316" t="n">
-        <v>359.1</v>
+        <v>359.01</v>
       </c>
       <c r="M316" t="n">
         <v>359.06</v>
@@ -22225,7 +22225,7 @@
         <v>372.68</v>
       </c>
       <c r="L317" t="n">
-        <v>375.79</v>
+        <v>376.43</v>
       </c>
       <c r="M317" t="n">
         <v>376.02</v>
@@ -22300,7 +22300,7 @@
         <v>355.34</v>
       </c>
       <c r="L318" t="n">
-        <v>364.9</v>
+        <v>365.67</v>
       </c>
       <c r="M318" t="n">
         <v>364.49</v>
@@ -22363,7 +22363,7 @@
         <v>362.71</v>
       </c>
       <c r="L319" t="n">
-        <v>369.7</v>
+        <v>368.32</v>
       </c>
       <c r="M319" t="n">
         <v>356.16</v>
@@ -22438,7 +22438,7 @@
         <v>347.87</v>
       </c>
       <c r="L320" t="n">
-        <v>355.27</v>
+        <v>356.17</v>
       </c>
       <c r="M320" t="n">
         <v>339.74</v>
@@ -22513,7 +22513,7 @@
         <v>362.62</v>
       </c>
       <c r="L321" t="n">
-        <v>358.32</v>
+        <v>357.14</v>
       </c>
       <c r="M321" t="n">
         <v>353.38</v>
@@ -22588,7 +22588,7 @@
         <v>372.05</v>
       </c>
       <c r="L322" t="n">
-        <v>369.31</v>
+        <v>369.37</v>
       </c>
       <c r="M322" t="n">
         <v>362.57</v>
@@ -22663,7 +22663,7 @@
         <v>360.99</v>
       </c>
       <c r="L323" t="n">
-        <v>359.44</v>
+        <v>359.45</v>
       </c>
       <c r="M323" t="n">
         <v>353.47</v>
@@ -22738,7 +22738,7 @@
         <v>362.44</v>
       </c>
       <c r="L324" t="n">
-        <v>358.09</v>
+        <v>358.58</v>
       </c>
       <c r="M324" t="n">
         <v>351.56</v>
@@ -22850,7 +22850,7 @@
         <v>358.65</v>
       </c>
       <c r="L326" t="n">
-        <v>365.53</v>
+        <v>366.44</v>
       </c>
       <c r="M326" t="n">
         <v>362.79</v>
@@ -22925,7 +22925,7 @@
         <v>373.98</v>
       </c>
       <c r="L327" t="n">
-        <v>377.36</v>
+        <v>376.03</v>
       </c>
       <c r="M327" t="n">
         <v>372.71</v>
@@ -23000,7 +23000,7 @@
         <v>361.86</v>
       </c>
       <c r="L328" t="n">
-        <v>372.24</v>
+        <v>372.52</v>
       </c>
       <c r="M328" t="n">
         <v>369.29</v>
@@ -23055,7 +23055,7 @@
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
-        <v>386.44</v>
+        <v>387.2</v>
       </c>
       <c r="M329" t="n">
         <v>371.97</v>
@@ -23116,7 +23116,7 @@
         <v>375.59</v>
       </c>
       <c r="L330" t="n">
-        <v>376.04</v>
+        <v>376.1</v>
       </c>
       <c r="M330" t="n">
         <v>365.57</v>
@@ -23234,7 +23234,7 @@
         <v>351.2</v>
       </c>
       <c r="L332" t="n">
-        <v>349</v>
+        <v>349.82</v>
       </c>
       <c r="M332" t="n">
         <v>343.19</v>
@@ -23309,7 +23309,7 @@
         <v>352.74</v>
       </c>
       <c r="L333" t="n">
-        <v>348.82</v>
+        <v>347.55</v>
       </c>
       <c r="M333" t="n">
         <v>349.09</v>
@@ -23384,7 +23384,7 @@
         <v>362.84</v>
       </c>
       <c r="L334" t="n">
-        <v>357.21</v>
+        <v>356.79</v>
       </c>
       <c r="M334" t="n">
         <v>354.34</v>
@@ -23453,7 +23453,7 @@
         <v>358.67</v>
       </c>
       <c r="L335" t="n">
-        <v>365.2</v>
+        <v>364.23</v>
       </c>
       <c r="M335" t="n">
         <v>348.21</v>
@@ -23528,7 +23528,7 @@
         <v>366.25</v>
       </c>
       <c r="L336" t="n">
-        <v>365.95</v>
+        <v>366.26</v>
       </c>
       <c r="M336" t="n">
         <v>356.2</v>
@@ -23603,7 +23603,7 @@
         <v>368.47</v>
       </c>
       <c r="L337" t="n">
-        <v>372.24</v>
+        <v>370.59</v>
       </c>
       <c r="M337" t="n">
         <v>360.69</v>
@@ -23678,7 +23678,7 @@
         <v>365.95</v>
       </c>
       <c r="L338" t="n">
-        <v>369.69</v>
+        <v>368.38</v>
       </c>
       <c r="M338" t="n">
         <v>355.85</v>
@@ -23792,7 +23792,7 @@
         <v>372.61</v>
       </c>
       <c r="L340" t="n">
-        <v>376.81</v>
+        <v>375.46</v>
       </c>
       <c r="M340" t="n">
         <v>375.43</v>
@@ -23867,7 +23867,7 @@
         <v>357.8</v>
       </c>
       <c r="L341" t="n">
-        <v>350.01</v>
+        <v>350.11</v>
       </c>
       <c r="M341" t="n">
         <v>351.95</v>
@@ -23991,7 +23991,7 @@
         <v>381.81</v>
       </c>
       <c r="L343" t="n">
-        <v>378.1</v>
+        <v>378.68</v>
       </c>
       <c r="M343" t="n">
         <v>371.37</v>
@@ -24066,7 +24066,7 @@
         <v>378.93</v>
       </c>
       <c r="L344" t="n">
-        <v>383.77</v>
+        <v>382.55</v>
       </c>
       <c r="M344" t="n">
         <v>369.86</v>
@@ -24141,7 +24141,7 @@
         <v>379.74</v>
       </c>
       <c r="L345" t="n">
-        <v>383.12</v>
+        <v>383.98</v>
       </c>
       <c r="M345" t="n">
         <v>364.85</v>
@@ -24216,7 +24216,7 @@
         <v>368.33</v>
       </c>
       <c r="L346" t="n">
-        <v>371.95</v>
+        <v>372.67</v>
       </c>
       <c r="M346" t="n">
         <v>367.87</v>
@@ -24289,7 +24289,7 @@
         <v>375.05</v>
       </c>
       <c r="L347" t="n">
-        <v>370.28</v>
+        <v>369.01</v>
       </c>
       <c r="M347" t="n">
         <v>359.5</v>
@@ -24362,7 +24362,7 @@
         <v>359.76</v>
       </c>
       <c r="L348" t="n">
-        <v>369.12</v>
+        <v>369.04</v>
       </c>
       <c r="M348" t="n">
         <v>358.11</v>
@@ -24437,7 +24437,7 @@
         <v>366.27</v>
       </c>
       <c r="L349" t="n">
-        <v>356.01</v>
+        <v>354.39</v>
       </c>
       <c r="M349" t="n">
         <v>359.19</v>
@@ -24512,7 +24512,7 @@
         <v>352.6</v>
       </c>
       <c r="L350" t="n">
-        <v>356.36</v>
+        <v>356.58</v>
       </c>
       <c r="M350" t="n">
         <v>351.75</v>
@@ -24583,7 +24583,7 @@
         <v>369.43</v>
       </c>
       <c r="L351" t="n">
-        <v>366.03</v>
+        <v>366.26</v>
       </c>
       <c r="M351" t="n">
         <v>357.71</v>
@@ -24658,7 +24658,7 @@
         <v>371.4</v>
       </c>
       <c r="L352" t="n">
-        <v>373.35</v>
+        <v>372.94</v>
       </c>
       <c r="M352" t="n">
         <v>365.03</v>
@@ -24733,7 +24733,7 @@
         <v>364.31</v>
       </c>
       <c r="L353" t="n">
-        <v>361.75</v>
+        <v>362.2</v>
       </c>
       <c r="M353" t="n">
         <v>358.44</v>
@@ -24808,7 +24808,7 @@
         <v>372.39</v>
       </c>
       <c r="L354" t="n">
-        <v>378.13</v>
+        <v>376.94</v>
       </c>
       <c r="M354" t="n">
         <v>374.35</v>
@@ -24883,7 +24883,7 @@
         <v>370.99</v>
       </c>
       <c r="L355" t="n">
-        <v>369.01</v>
+        <v>369.89</v>
       </c>
       <c r="M355" t="n">
         <v>365.82</v>
@@ -24958,7 +24958,7 @@
         <v>370.69</v>
       </c>
       <c r="L356" t="n">
-        <v>364.54</v>
+        <v>364.55</v>
       </c>
       <c r="M356" t="n">
         <v>362.13</v>
@@ -25033,7 +25033,7 @@
         <v>360.12</v>
       </c>
       <c r="L357" t="n">
-        <v>357.49</v>
+        <v>358.52</v>
       </c>
       <c r="M357" t="n">
         <v>368.86</v>
@@ -25108,7 +25108,7 @@
         <v>364.59</v>
       </c>
       <c r="L358" t="n">
-        <v>357.23</v>
+        <v>358.24</v>
       </c>
       <c r="M358" t="n">
         <v>352.69</v>
@@ -25183,7 +25183,7 @@
         <v>343.58</v>
       </c>
       <c r="L359" t="n">
-        <v>340.45</v>
+        <v>340.77</v>
       </c>
       <c r="M359" t="inlineStr"/>
       <c r="N359" t="inlineStr"/>
@@ -25238,7 +25238,7 @@
         <v>373.12</v>
       </c>
       <c r="L360" t="n">
-        <v>371.42</v>
+        <v>370.73</v>
       </c>
       <c r="M360" t="n">
         <v>365.31</v>
@@ -25311,7 +25311,7 @@
         <v>374.51</v>
       </c>
       <c r="L361" t="n">
-        <v>368.14</v>
+        <v>368.41</v>
       </c>
       <c r="M361" t="n">
         <v>368.76</v>
@@ -25384,7 +25384,7 @@
         <v>367.88</v>
       </c>
       <c r="L362" t="n">
-        <v>364.69</v>
+        <v>365.04</v>
       </c>
       <c r="M362" t="n">
         <v>360.28</v>
@@ -25459,7 +25459,7 @@
         <v>372.21</v>
       </c>
       <c r="L363" t="n">
-        <v>377.46</v>
+        <v>376.18</v>
       </c>
       <c r="M363" t="n">
         <v>366.53</v>
@@ -25534,7 +25534,7 @@
         <v>376.04</v>
       </c>
       <c r="L364" t="n">
-        <v>366.07</v>
+        <v>366.98</v>
       </c>
       <c r="M364" t="n">
         <v>353.76</v>
@@ -25648,7 +25648,7 @@
         <v>361.59</v>
       </c>
       <c r="L366" t="n">
-        <v>361.88</v>
+        <v>361.52</v>
       </c>
       <c r="M366" t="n">
         <v>351.21</v>
@@ -25723,7 +25723,7 @@
         <v>370.92</v>
       </c>
       <c r="L367" t="n">
-        <v>365.25</v>
+        <v>365.07</v>
       </c>
       <c r="M367" t="n">
         <v>355.81</v>
@@ -25758,6 +25758,81 @@
       <c r="W367" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-11 22:26:49+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>393.38</v>
+      </c>
+      <c r="C368" t="n">
+        <v>342.54</v>
+      </c>
+      <c r="D368" t="n">
+        <v>339.08</v>
+      </c>
+      <c r="E368" t="n">
+        <v>350.39</v>
+      </c>
+      <c r="F368" t="n">
+        <v>362.23</v>
+      </c>
+      <c r="G368" t="n">
+        <v>363.29</v>
+      </c>
+      <c r="H368" t="n">
+        <v>362.33</v>
+      </c>
+      <c r="I368" t="n">
+        <v>359.37</v>
+      </c>
+      <c r="J368" t="n">
+        <v>367.16</v>
+      </c>
+      <c r="K368" t="n">
+        <v>368.57</v>
+      </c>
+      <c r="L368" t="n">
+        <v>356.5</v>
+      </c>
+      <c r="M368" t="n">
+        <v>346</v>
+      </c>
+      <c r="N368" t="n">
+        <v>350.57</v>
+      </c>
+      <c r="O368" t="n">
+        <v>356.39</v>
+      </c>
+      <c r="P368" t="n">
+        <v>345.23</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>356.26</v>
+      </c>
+      <c r="R368" t="n">
+        <v>345.38</v>
+      </c>
+      <c r="S368" t="n">
+        <v>335.45</v>
+      </c>
+      <c r="T368" t="n">
+        <v>338.7</v>
+      </c>
+      <c r="U368" t="n">
+        <v>352.81</v>
+      </c>
+      <c r="V368" t="n">
+        <v>350.37</v>
+      </c>
+      <c r="W368" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -25772,7 +25847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B379"/>
+  <dimension ref="A1:B380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29570,6 +29645,16 @@
       </c>
       <c r="B379" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2025-11-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>-0.67</v>
       </c>
     </row>
   </sheetData>
@@ -29737,34 +29822,34 @@
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0269</v>
+        <v>0.0267</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0327</v>
+        <v>0.0326</v>
       </c>
       <c r="I2" t="n">
-        <v>0.266827124373062</v>
+        <v>0.2724134525479118</v>
       </c>
       <c r="J2" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K2" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0089140716505971</v>
+        <v>0.009343667010073942</v>
       </c>
       <c r="M2" t="n">
-        <v>16.72411984783811</v>
+        <v>16.69913811089214</v>
       </c>
       <c r="N2" t="n">
-        <v>422.0527864278949</v>
+        <v>420.9098833810598</v>
       </c>
       <c r="O2" t="n">
-        <v>20.54392334555147</v>
+        <v>20.51608840352029</v>
       </c>
       <c r="P2" t="n">
-        <v>377.6256421258263</v>
+        <v>377.565635937287</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29815,34 +29900,34 @@
         <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0698</v>
+        <v>0.0699</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0872</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4447693769572415</v>
+        <v>0.4378688855018339</v>
       </c>
       <c r="J3" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K3" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1027622674281544</v>
+        <v>0.100145022534938</v>
       </c>
       <c r="M3" t="n">
-        <v>7.392977371739352</v>
+        <v>7.403052364134967</v>
       </c>
       <c r="N3" t="n">
-        <v>95.54101906372027</v>
+        <v>95.62365457594704</v>
       </c>
       <c r="O3" t="n">
-        <v>9.774508635410799</v>
+        <v>9.778734814685745</v>
       </c>
       <c r="P3" t="n">
-        <v>341.9104648058437</v>
+        <v>341.9822614789946</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29893,34 +29978,34 @@
         <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0597</v>
+        <v>0.0598</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0718</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7119178799305986</v>
+        <v>0.7026286966300527</v>
       </c>
       <c r="J4" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K4" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2111436356522088</v>
+        <v>0.2067613947209813</v>
       </c>
       <c r="M4" t="n">
-        <v>8.058167209538025</v>
+        <v>8.079682365557796</v>
       </c>
       <c r="N4" t="n">
-        <v>103.9458708150476</v>
+        <v>104.3316162916135</v>
       </c>
       <c r="O4" t="n">
-        <v>10.19538478013692</v>
+        <v>10.21428491337565</v>
       </c>
       <c r="P4" t="n">
-        <v>335.4858205192057</v>
+        <v>335.5825188647946</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29971,34 +30056,34 @@
         <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0541</v>
+        <v>0.0542</v>
       </c>
       <c r="H5" t="n">
         <v>0.0653</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7410034123023852</v>
+        <v>0.7342555684968133</v>
       </c>
       <c r="J5" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K5" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2596173282082622</v>
+        <v>0.2565066760707571</v>
       </c>
       <c r="M5" t="n">
-        <v>7.178093664130751</v>
+        <v>7.187945492322352</v>
       </c>
       <c r="N5" t="n">
-        <v>85.17764706260127</v>
+        <v>85.29243763794457</v>
       </c>
       <c r="O5" t="n">
-        <v>9.229173693381291</v>
+        <v>9.235390497317619</v>
       </c>
       <c r="P5" t="n">
-        <v>342.0300300979699</v>
+        <v>342.100788123497</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30049,34 +30134,34 @@
         <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0581</v>
+        <v>0.0583</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7744877336978704</v>
+        <v>0.7713648588441313</v>
       </c>
       <c r="J6" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K6" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2313729118549902</v>
+        <v>0.2309544309410233</v>
       </c>
       <c r="M6" t="n">
-        <v>7.981137580991451</v>
+        <v>7.974276354064699</v>
       </c>
       <c r="N6" t="n">
-        <v>107.3803856797615</v>
+        <v>107.130039032818</v>
       </c>
       <c r="O6" t="n">
-        <v>10.36245075644567</v>
+        <v>10.35036419807622</v>
       </c>
       <c r="P6" t="n">
-        <v>347.0406505222309</v>
+        <v>347.0735910300564</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30133,28 +30218,28 @@
         <v>0.0478</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6414358682058835</v>
+        <v>0.6350325060796099</v>
       </c>
       <c r="J7" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K7" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2058909097567914</v>
+        <v>0.2030212014451835</v>
       </c>
       <c r="M7" t="n">
-        <v>7.215203613419833</v>
+        <v>7.227768267002274</v>
       </c>
       <c r="N7" t="n">
-        <v>86.30881944938167</v>
+        <v>86.38542862631611</v>
       </c>
       <c r="O7" t="n">
-        <v>9.290254003491061</v>
+        <v>9.294376182741697</v>
       </c>
       <c r="P7" t="n">
-        <v>357.0227333572853</v>
+        <v>357.0901509769886</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30208,31 +30293,31 @@
         <v>0.0587</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0723</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6218493929111745</v>
+        <v>0.6157991075192067</v>
       </c>
       <c r="J8" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K8" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L8" t="n">
-        <v>0.175833182632012</v>
+        <v>0.1735546965684917</v>
       </c>
       <c r="M8" t="n">
-        <v>7.573085426304961</v>
+        <v>7.579352646458597</v>
       </c>
       <c r="N8" t="n">
-        <v>98.99130306585286</v>
+        <v>98.96928544591577</v>
       </c>
       <c r="O8" t="n">
-        <v>9.949437324082847</v>
+        <v>9.948330786916756</v>
       </c>
       <c r="P8" t="n">
-        <v>355.646449778897</v>
+        <v>355.7096411154056</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30283,34 +30368,34 @@
         <v>0.065</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0591</v>
+        <v>0.059</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0709</v>
+        <v>0.0708</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7505735784461648</v>
+        <v>0.7451321485360561</v>
       </c>
       <c r="J9" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K9" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2435342350882234</v>
+        <v>0.241681962414645</v>
       </c>
       <c r="M9" t="n">
-        <v>7.436398128062033</v>
+        <v>7.437673553239259</v>
       </c>
       <c r="N9" t="n">
-        <v>95.97473955724038</v>
+        <v>95.89472240879417</v>
       </c>
       <c r="O9" t="n">
-        <v>9.796669819752037</v>
+        <v>9.792585072839254</v>
       </c>
       <c r="P9" t="n">
-        <v>348.1619951392174</v>
+        <v>348.21855479591</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30361,34 +30446,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06320000000000001</v>
+        <v>0.063</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0808</v>
+        <v>0.0804</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6130515751243752</v>
+        <v>0.6144727417387408</v>
       </c>
       <c r="J10" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K10" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L10" t="n">
-        <v>0.173187932365374</v>
+        <v>0.1748181000806253</v>
       </c>
       <c r="M10" t="n">
-        <v>7.593122394346999</v>
+        <v>7.575044795200681</v>
       </c>
       <c r="N10" t="n">
-        <v>98.86158851716668</v>
+        <v>98.5536401967435</v>
       </c>
       <c r="O10" t="n">
-        <v>9.942916499557194</v>
+        <v>9.927418606906002</v>
       </c>
       <c r="P10" t="n">
-        <v>348.8270365269501</v>
+        <v>348.812289500357</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30439,34 +30524,34 @@
         <v>0.065</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06</v>
+        <v>0.0599</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0704</v>
+        <v>0.0702</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5043166481107754</v>
+        <v>0.5060773624647396</v>
       </c>
       <c r="J11" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K11" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1251112514115976</v>
+        <v>0.1265793129036163</v>
       </c>
       <c r="M11" t="n">
-        <v>7.767515115616005</v>
+        <v>7.751670087436124</v>
       </c>
       <c r="N11" t="n">
-        <v>96.86876112138442</v>
+        <v>96.58958278072016</v>
       </c>
       <c r="O11" t="n">
-        <v>9.842192902061228</v>
+        <v>9.827999937969077</v>
       </c>
       <c r="P11" t="n">
-        <v>352.4676512278667</v>
+        <v>352.4492517432606</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30514,37 +30599,37 @@
         <v>0.5000076550654313</v>
       </c>
       <c r="F12" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0496</v>
+        <v>0.0497</v>
       </c>
       <c r="H12" t="n">
         <v>0.0683</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7754048227339612</v>
+        <v>0.7679374701961585</v>
       </c>
       <c r="J12" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K12" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2106657420466862</v>
+        <v>0.208774164581203</v>
       </c>
       <c r="M12" t="n">
-        <v>8.564584393317507</v>
+        <v>8.494547089261818</v>
       </c>
       <c r="N12" t="n">
-        <v>119.6943376632659</v>
+        <v>119.1570720884301</v>
       </c>
       <c r="O12" t="n">
-        <v>10.94049074142773</v>
+        <v>10.91590912789357</v>
       </c>
       <c r="P12" t="n">
-        <v>346.8364237838524</v>
+        <v>346.8042435405821</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30595,34 +30680,34 @@
         <v>0.065</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0567</v>
+        <v>0.0569</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0824</v>
+        <v>0.0834</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8153319970406785</v>
+        <v>0.8055546617773003</v>
       </c>
       <c r="J13" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K13" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2557555880879739</v>
+        <v>0.2509951815708193</v>
       </c>
       <c r="M13" t="n">
-        <v>7.985430360225571</v>
+        <v>8.007998510506816</v>
       </c>
       <c r="N13" t="n">
-        <v>102.8116705185681</v>
+        <v>103.256038545688</v>
       </c>
       <c r="O13" t="n">
-        <v>10.13960899239059</v>
+        <v>10.16149784951451</v>
       </c>
       <c r="P13" t="n">
-        <v>340.145592089326</v>
+        <v>340.2509320046546</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30673,34 +30758,34 @@
         <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0728</v>
+        <v>0.0736</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1593</v>
+        <v>0.163</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8661014892177289</v>
+        <v>0.8613440772654718</v>
       </c>
       <c r="J14" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K14" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L14" t="n">
-        <v>0.258247785107224</v>
+        <v>0.257120729628989</v>
       </c>
       <c r="M14" t="n">
-        <v>8.258418595165725</v>
+        <v>8.255863309148719</v>
       </c>
       <c r="N14" t="n">
-        <v>113.148198774228</v>
+        <v>112.9642177242683</v>
       </c>
       <c r="O14" t="n">
-        <v>10.63711421270957</v>
+        <v>10.62846262280055</v>
       </c>
       <c r="P14" t="n">
-        <v>335.3158835046519</v>
+        <v>335.367050058851</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30751,34 +30836,34 @@
         <v>0.105</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0818</v>
+        <v>0.0824</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1425</v>
+        <v>0.1423</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7463234226437256</v>
+        <v>0.7480512085215397</v>
       </c>
       <c r="J15" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K15" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2111885221987673</v>
+        <v>0.2130547291084717</v>
       </c>
       <c r="M15" t="n">
-        <v>8.428612635377151</v>
+        <v>8.410475760674917</v>
       </c>
       <c r="N15" t="n">
-        <v>110.0600202020728</v>
+        <v>109.7295126018219</v>
       </c>
       <c r="O15" t="n">
-        <v>10.49094944235615</v>
+        <v>10.47518556407579</v>
       </c>
       <c r="P15" t="n">
-        <v>334.0802761070058</v>
+        <v>334.0618028495254</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30829,34 +30914,34 @@
         <v>0.065</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0575</v>
+        <v>0.0577</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0772</v>
+        <v>0.0774</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6706866091640583</v>
+        <v>0.666184999549932</v>
       </c>
       <c r="J16" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K16" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1940430476126804</v>
+        <v>0.1927533816817064</v>
       </c>
       <c r="M16" t="n">
-        <v>7.868894287870276</v>
+        <v>7.8674174854015</v>
       </c>
       <c r="N16" t="n">
-        <v>96.91061172933195</v>
+        <v>96.75755195208117</v>
       </c>
       <c r="O16" t="n">
-        <v>9.844318753947983</v>
+        <v>9.836541666260615</v>
       </c>
       <c r="P16" t="n">
-        <v>334.6300055391288</v>
+        <v>334.6785775166375</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30907,34 +30992,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0678</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0.119</v>
+        <v>0.1178</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8046212955198206</v>
+        <v>0.8060200300807228</v>
       </c>
       <c r="J17" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K17" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2514201776862952</v>
+        <v>0.2533327445238507</v>
       </c>
       <c r="M17" t="n">
-        <v>7.929636737752666</v>
+        <v>7.911592188819045</v>
       </c>
       <c r="N17" t="n">
-        <v>101.2365274294713</v>
+        <v>100.9292047094747</v>
       </c>
       <c r="O17" t="n">
-        <v>10.0616364190658</v>
+        <v>10.04635280634095</v>
       </c>
       <c r="P17" t="n">
-        <v>332.942044768921</v>
+        <v>332.9270815151629</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30985,34 +31070,34 @@
         <v>0.09</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0789</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1044</v>
+        <v>0.1043</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8725545947930782</v>
+        <v>0.8704383645796904</v>
       </c>
       <c r="J18" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K18" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2778956268858651</v>
+        <v>0.2782694484790692</v>
       </c>
       <c r="M18" t="n">
-        <v>7.970208358151064</v>
+        <v>7.954488424402805</v>
       </c>
       <c r="N18" t="n">
-        <v>102.3870682654343</v>
+        <v>102.0875684264744</v>
       </c>
       <c r="O18" t="n">
-        <v>10.11864952774995</v>
+        <v>10.10383929140178</v>
       </c>
       <c r="P18" t="n">
-        <v>325.6663822033079</v>
+        <v>325.6891783581402</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -31063,34 +31148,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0731</v>
+        <v>0.0735</v>
       </c>
       <c r="H19" t="n">
-        <v>0.102</v>
+        <v>0.1026</v>
       </c>
       <c r="I19" t="n">
-        <v>1.017270838980124</v>
+        <v>1.010023590810104</v>
       </c>
       <c r="J19" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K19" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3708263861566458</v>
+        <v>0.3681224511138219</v>
       </c>
       <c r="M19" t="n">
-        <v>7.553146498752601</v>
+        <v>7.56636868837452</v>
       </c>
       <c r="N19" t="n">
-        <v>92.7900802992411</v>
+        <v>92.88544533371</v>
       </c>
       <c r="O19" t="n">
-        <v>9.632760782830699</v>
+        <v>9.637709548108928</v>
       </c>
       <c r="P19" t="n">
-        <v>319.8401194731201</v>
+        <v>319.9172495419332</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -31141,34 +31226,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0617</v>
+        <v>0.0622</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1384</v>
+        <v>0.1406</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9540557111034274</v>
+        <v>0.9480313854845355</v>
       </c>
       <c r="J20" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K20" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3097091801518689</v>
+        <v>0.3077473479193148</v>
       </c>
       <c r="M20" t="n">
-        <v>8.252567833300768</v>
+        <v>8.258157559723593</v>
       </c>
       <c r="N20" t="n">
-        <v>107.6344354131038</v>
+        <v>107.6092332889928</v>
       </c>
       <c r="O20" t="n">
-        <v>10.37470170236734</v>
+        <v>10.37348703614136</v>
       </c>
       <c r="P20" t="n">
-        <v>323.6628904471395</v>
+        <v>323.727505467242</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -31219,34 +31304,34 @@
         <v>0.09</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0767</v>
+        <v>0.0775</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1085</v>
+        <v>0.1091</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9045341231698036</v>
+        <v>0.9019495819374108</v>
       </c>
       <c r="J21" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K21" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3097057470177002</v>
+        <v>0.3098162059011903</v>
       </c>
       <c r="M21" t="n">
-        <v>7.62813712009608</v>
+        <v>7.617603365449442</v>
       </c>
       <c r="N21" t="n">
-        <v>96.95066428505706</v>
+        <v>96.6923029224529</v>
       </c>
       <c r="O21" t="n">
-        <v>9.846352841791576</v>
+        <v>9.833224441781693</v>
       </c>
       <c r="P21" t="n">
-        <v>333.1183690108361</v>
+        <v>333.1458516670843</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -31297,34 +31382,34 @@
         <v>0.095</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08019999999999999</v>
+        <v>0.081</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1103</v>
+        <v>0.1106</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8420550009005157</v>
+        <v>0.8397282703734359</v>
       </c>
       <c r="J22" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K22" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2491964149779597</v>
+        <v>0.249344753472389</v>
       </c>
       <c r="M22" t="n">
-        <v>8.502505119859942</v>
+        <v>8.487018484089221</v>
       </c>
       <c r="N22" t="n">
-        <v>111.2404294640191</v>
+        <v>110.930448439035</v>
       </c>
       <c r="O22" t="n">
-        <v>10.54705785819055</v>
+        <v>10.53235246462228</v>
       </c>
       <c r="P22" t="n">
-        <v>331.919499773708</v>
+        <v>331.9446068933573</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -31362,7 +31447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W367"/>
+  <dimension ref="A1:W368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31545,7 +31630,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-44.15413463263119,168.2510742081277</t>
+          <t>-44.15414177242818,168.25108526805852</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -31630,7 +31715,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-44.15416655171611,168.25112365254526</t>
+          <t>-44.154175491456364,168.2511375007094</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -31747,7 +31832,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-44.15422439000891,168.25121324745407</t>
+          <t>-44.15422193008281,168.25120943687864</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -31864,7 +31949,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-44.15408747394799,168.25100115688755</t>
+          <t>-44.15408195409937,168.25099260636838</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -31961,7 +32046,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-44.15420453060222,168.25118248403703</t>
+          <t>-44.15420735051844,168.2511868522551</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -32078,7 +32163,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-44.154218450187145,168.25120404630903</t>
+          <t>-44.15421527028231,168.25119912044426</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -32191,7 +32276,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-44.15414099245041,168.25108405983065</t>
+          <t>-44.15413289268052,168.25107151285084</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -32421,7 +32506,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-44.15416745169003,168.25112504665555</t>
+          <t>-44.154159771912084,168.25111315024904</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -32538,7 +32623,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-44.15420771050772,168.25118740989998</t>
+          <t>-44.154202310668076,168.25117904522736</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -32655,7 +32740,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-44.15422960985175,168.25122133331035</t>
+          <t>-44.154226609942135,168.25121668626633</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -32772,7 +32857,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-44.15415677199852,168.25110850321607</t>
+          <t>-44.15416667171263,168.25112383842662</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -32889,7 +32974,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-44.15422433001071,168.2512131545132</t>
+          <t>-44.154221510095404,168.2512087862926</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -33006,7 +33091,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-44.154158751941495,168.2511115702578</t>
+          <t>-44.15416313181507,168.25111835492652</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -33123,7 +33208,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-44.15414513233231,168.25109047273278</t>
+          <t>-44.154139972479456,168.25108247984042</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -33240,7 +33325,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>-44.15419433090405,168.25116668410283</t>
+          <t>-44.15419115099775,168.25116175824212</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -33357,7 +33442,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-44.154183891210934,168.2511505124112</t>
+          <t>-44.154188331080675,168.25115739002646</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -33466,7 +33551,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-44.15410397349205,168.25102671551417</t>
+          <t>-44.15409887363353,168.2510188155735</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -33583,7 +33668,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-44.154144592347734,168.25108963626724</t>
+          <t>-44.1541521521313,168.2511013467863</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -33700,7 +33785,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>-44.15427154857021,168.2512862990355</t>
+          <t>-44.15427190855906,168.25128685668162</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -33817,7 +33902,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-44.15417387150354,168.25113499131024</t>
+          <t>-44.154168231667406,168.2511262548845</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -33934,7 +34019,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-44.15414237241106,168.2510861974646</t>
+          <t>-44.15413901250676,168.25108099279083</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -34051,7 +34136,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-44.154147472265414,168.251094097417</t>
+          <t>-44.15414591231001,168.25109168096083</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -34225,7 +34310,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-44.15409815365345,168.25101770028786</t>
+          <t>-44.154090533863815,168.25100589684996</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -34342,7 +34427,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>-44.15403767529291,168.25092401639262</t>
+          <t>-44.154045295090164,168.25093581980923</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -34459,7 +34544,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>-44.154231469795604,168.25122421447787</t>
+          <t>-44.15423878957407,168.251235553268</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -34685,7 +34770,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-44.15428132826659,168.251301448424</t>
+          <t>-44.154278808345,168.2512975449001</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -34802,7 +34887,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-44.15420525058084,168.25118359932668</t>
+          <t>-44.15420171068586,168.25117811581939</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -34915,7 +35000,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-44.15432146700156,168.2513636260284</t>
+          <t>-44.154327106821356,168.2513723624998</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -35166,7 +35251,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>-44.15412221298206,168.25105496943092</t>
+          <t>-44.15411939306132,168.25105060122553</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -35300,7 +35385,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>-44.15416583173696,168.25112253725703</t>
+          <t>-44.15416193184974,168.25111649611304</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -35413,7 +35498,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>-44.15418509117576,168.25115237122603</t>
+          <t>-44.154187551103576,168.25115618179666</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -35526,7 +35611,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>-44.15418401120742,168.25115069829266</t>
+          <t>-44.15419019102598,168.25116027118995</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -35643,7 +35728,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>-44.154164931763006,168.2511211431468</t>
+          <t>-44.154161031875724,168.251115102003</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -35756,7 +35841,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>-44.15418467118807,168.25115172064082</t>
+          <t>-44.15418095129697,168.25114595831513</t>
         </is>
       </c>
       <c r="M41" t="inlineStr"/>
@@ -35861,7 +35946,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>-44.154212990350395,168.2511955886925</t>
+          <t>-44.154213890323526,168.251196982805</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -35978,7 +36063,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>-44.15416973162389,168.25112857840182</t>
+          <t>-44.15417567145112,168.25113777953158</t>
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
@@ -36079,7 +36164,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>-44.15411099329651,168.25103758955242</t>
+          <t>-44.15411681313369,168.2510466047827</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -36196,7 +36281,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>-44.15409905362854,168.25101909439493</t>
+          <t>-44.1541069734086,168.25103136253875</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -36305,7 +36390,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>-44.15420255066096,168.25117941699054</t>
+          <t>-44.154211850384414,168.2511938228167</t>
         </is>
       </c>
       <c r="M46" t="inlineStr"/>
@@ -36402,7 +36487,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>-44.15411177327474,168.25103879777905</t>
+          <t>-44.15410829337184,168.2510334072297</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -36519,7 +36604,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>-44.15425300914081,168.25125758027</t>
+          <t>-44.15425882896239,168.25126659554394</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -36628,7 +36713,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>-44.15422768990961,168.2512183592021</t>
+          <t>-44.154221330100825,168.25120850747004</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -36741,7 +36826,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>-44.154332686642505,168.2513810060317</t>
+          <t>-44.15433982641277,168.25139206603728</t>
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
@@ -36818,7 +36903,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>-44.15419625084737,168.2511696582077</t>
+          <t>-44.15420633054875,168.25118527226127</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -36935,7 +37020,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>-44.15414081245553,168.25108378100884</t>
+          <t>-44.15413751254942,168.25107866927593</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -37044,7 +37129,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>-44.15421803019972,168.25120339572308</t>
+          <t>-44.154223670030554,168.2512121321637</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -37149,7 +37234,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>-44.15426920864258,168.25128267433593</t>
+          <t>-44.15427784837483,168.25129605784346</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -37266,7 +37351,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>-44.154298487729505,168.2513280295718</t>
+          <t>-44.15430202761801,168.25133351309722</t>
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
@@ -37375,7 +37460,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>-44.15414795225167,168.25109484094202</t>
+          <t>-44.154149092219036,168.25109660681395</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -37484,7 +37569,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>-44.154237229621366,168.2512331368043</t>
+          <t>-44.15424058951943,168.2512383414955</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -37593,7 +37678,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>-44.15409329378776,168.25101017211057</t>
+          <t>-44.154092273815884,168.2510085921229</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -37698,7 +37783,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>-44.154061314660304,168.25096063487626</t>
+          <t>-44.154054774836375,168.2509505043791</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -37924,7 +38009,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>-44.15427484846796,168.25129141079177</t>
+          <t>-44.15428174825351,168.25130209901133</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -38041,7 +38126,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>-44.15416355180292,168.25111900551124</t>
+          <t>-44.154168951646525,168.2511273701728</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -38142,7 +38227,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>-44.15421089041304,168.25119233576348</t>
+          <t>-44.154206510543396,168.25118555108372</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -38296,7 +38381,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>-44.15401805580992,168.2508936249324</t>
+          <t>-44.15402603560051,168.25090598598257</t>
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
@@ -38365,7 +38450,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>-44.15426662872227,168.25127867787268</t>
+          <t>-44.15426398880366,168.25127458846873</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -38567,7 +38652,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>-44.15421497029126,168.25119865574007</t>
+          <t>-44.1542112504023,168.25119289340844</t>
         </is>
       </c>
       <c r="M68" t="inlineStr"/>
@@ -38680,7 +38765,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>-44.154214250312776,168.25119754045002</t>
+          <t>-44.154218930172775,168.25120478983584</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -38797,7 +38882,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>-44.15432152699964,168.25136371896957</t>
+          <t>-44.1543169071468,168.25135656249952</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -38906,7 +38991,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>-44.15426884865371,168.25128211668988</t>
+          <t>-44.15427424848656,168.25129048138152</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -39019,7 +39104,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>-44.154208370488085,168.25118843224897</t>
+          <t>-44.15421653024462,168.25120107220192</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -39128,7 +39213,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>-44.154207770505934,168.2511875028408</t>
+          <t>-44.15420285065208,168.25117988169453</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -39245,7 +39330,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>-44.15411021331828,168.25103638132583</t>
+          <t>-44.15411375321938,168.25104186481605</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
@@ -39354,7 +39439,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>-44.154217010230255,168.2512018157287</t>
+          <t>-44.15421473029843,168.25119828397672</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -39471,7 +39556,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>-44.1541291727858,168.25106575053533</t>
+          <t>-44.15413325267033,168.2510720704943</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -39584,7 +39669,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>-44.154152752114086,168.2511022761927</t>
+          <t>-44.154148432237925,168.251095584467</t>
         </is>
       </c>
       <c r="M77" t="inlineStr"/>
@@ -39689,7 +39774,7 @@
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>-44.154209330459494,168.25118991930208</t>
+          <t>-44.154211010409455,168.25119252164515</t>
         </is>
       </c>
       <c r="M78" t="inlineStr"/>
@@ -39794,7 +39879,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>-44.154189111057754,168.25115859825627</t>
+          <t>-44.15419367092349,168.25116566175436</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -39895,7 +39980,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>-44.15409599371321,168.25101435443113</t>
+          <t>-44.15409953361525,168.25101983791868</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -40004,7 +40089,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>-44.15420243066451,168.25117923110895</t>
+          <t>-44.15420795050058,168.25118778166325</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -40121,7 +40206,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>-44.154299087710626,168.25132895898284</t>
+          <t>-44.154295247831335,168.25132301075246</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -40234,7 +40319,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>-44.154211430396934,168.2511931722309</t>
+          <t>-44.15420729052021,168.25118675931427</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -40351,7 +40436,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>-44.15424394941729,168.2512435461873</t>
+          <t>-44.15423884957226,168.2512356462089</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -40420,7 +40505,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>-44.15414225241448,168.2510860115834</t>
+          <t>-44.15414519233058,168.2510905656734</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -40529,7 +40614,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>-44.1542198301458,168.25120618394863</t>
+          <t>-44.15421797020152,168.25120330278224</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -40618,7 +40703,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>-44.154067734486695,168.25097057949498</t>
+          <t>-44.15406137465869,168.25096072781662</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -40727,7 +40812,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>-44.154081114122356,168.25099130520258</t>
+          <t>-44.15407649424854,168.25098414879125</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -40836,7 +40921,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>-44.1541751914651,168.25113703600587</t>
+          <t>-44.154179031353095,168.25114298421187</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -41050,7 +41135,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>-44.1541994907516,168.25117467701003</t>
+          <t>-44.15420243066451,168.25117923110895</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -41163,7 +41248,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>-44.15416055188958,168.25111435847768</t>
+          <t>-44.15416265182894,168.2511176114011</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -41272,7 +41357,7 @@
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>-44.15423068981916,168.25122300624633</t>
+          <t>-44.154236749635906,168.251232393277</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -41377,7 +41462,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>-44.15403695531202,168.2509229011093</t>
+          <t>-44.154044335115756,168.25093433276447</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -41494,7 +41579,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>-44.15411633314715,168.25104586125846</t>
+          <t>-44.15412041303266,168.25105218121465</t>
         </is>
       </c>
       <c r="M95" t="inlineStr"/>
@@ -41603,7 +41688,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>-44.154106913410274,168.25103126959823</t>
+          <t>-44.15410427348372,168.25102718021662</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -41720,7 +41805,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>-44.15402429564628,168.2509032907157</t>
+          <t>-44.15401937577536,168.25089566961717</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -41837,7 +41922,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>-44.154031135466056,168.2509138859036</t>
+          <t>-44.15402681557999,168.25090719420567</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -41942,7 +42027,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>-44.154161511861865,168.25111584552835</t>
+          <t>-44.1541720715559,168.25113220308907</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -42160,7 +42245,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>-44.15421863018175,168.25120432513157</t>
+          <t>-44.15421569026974,168.25119977103014</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -42277,7 +42362,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>-44.15414885222591,168.25109623505142</t>
+          <t>-44.15414369237341,168.25108824215803</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -42390,7 +42475,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>-44.15420579056479,168.25118443579396</t>
+          <t>-44.154208250491656,168.25118824636732</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -42507,7 +42592,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>-44.1540982136518,168.25101779322836</t>
+          <t>-44.15409365377782,168.2510107297533</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -42604,7 +42689,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>-44.15402237569671,168.2509003166283</t>
+          <t>-44.15401691583974,168.25089185906836</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -42713,7 +42798,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>-44.15410787338353,168.25103275664623</t>
+          <t>-44.154104513477044,168.25102755197855</t>
         </is>
       </c>
       <c r="M106" t="inlineStr"/>
@@ -42810,7 +42895,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>-44.154142972393956,168.2510871268707</t>
+          <t>-44.154150412181224,168.25109865150785</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -42911,7 +42996,7 @@
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>-44.154134152644815,168.25107346460302</t>
+          <t>-44.15412815281462,168.25106417054573</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -43028,7 +43113,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>-44.15405987469915,168.2509584043079</t>
+          <t>-44.15405693477832,168.25095385023113</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -43141,7 +43226,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>-44.154040855208436,168.25092894222752</t>
+          <t>-44.15404415512056,168.25093405394355</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -43250,7 +43335,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>-44.154042175173316,168.25093098691386</t>
+          <t>-44.15404571507896,168.25093647039134</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -43355,7 +43440,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>-44.15408225409116,168.2509930710705</t>
+          <t>-44.1540865739727,168.25099976278105</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -43464,7 +43549,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>-44.1541044534787,168.25102745903808</t>
+          <t>-44.154098453645155,168.2510181649902</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -43565,7 +43650,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>-44.154146632289425,168.25109279624826</t>
+          <t>-44.154144472351156,168.25108945038602</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -43666,7 +43751,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>-44.154156112017525,168.2511074808689</t>
+          <t>-44.15415965191554,168.2511129643677</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -43775,7 +43860,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>-44.15416115187226,168.25111528788435</t>
+          <t>-44.15415587202442,168.2511071091063</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -43876,7 +43961,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>-44.15405201491044,168.2509462291241</t>
+          <t>-44.15404553508375,168.25093619157045</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -43989,7 +44074,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>-44.15404889499399,168.25094139622763</t>
+          <t>-44.15405741476541,168.25095459375385</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -44094,7 +44179,7 @@
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
-          <t>-44.15413025275526,168.25106742346557</t>
+          <t>-44.15414135244014,168.25108461747428</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -44248,7 +44333,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>-44.15418305123554,168.25114921124086</t>
+          <t>-44.15417699141263,168.25113982422732</t>
         </is>
       </c>
       <c r="M121" t="inlineStr"/>
@@ -44349,7 +44434,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>-44.15419523087749,168.25116807821445</t>
+          <t>-44.154198950767565,168.25117384054292</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -44450,7 +44535,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>-44.154136612574995,168.25107727516706</t>
+          <t>-44.15414723227228,168.2510937256545</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -44547,7 +44632,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>-44.154179931326794,168.25114437832275</t>
+          <t>-44.154173751507045,168.25113480542882</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -44652,7 +44737,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>-44.15402219570144,168.2509000378076</t>
+          <t>-44.15403149545655,168.25091444354513</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -44765,7 +44850,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>-44.154100493588636,168.25102132496627</t>
+          <t>-44.15409449375465,168.25101203091967</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -44882,7 +44967,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>-44.15402813554521,168.25090923889104</t>
+          <t>-44.154033955391505,168.2509182540958</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -44979,7 +45064,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>-44.15412041303266,168.25105218121465</t>
+          <t>-44.15411357322441,168.2510415859945</t>
         </is>
       </c>
       <c r="M128" t="inlineStr"/>
@@ -45060,7 +45145,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>-44.15414777225682,168.25109456212013</t>
+          <t>-44.15415329209858,168.25110311265848</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -45169,7 +45254,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>-44.154073614327004,168.2509796876523</t>
+          <t>-44.15407367432537,168.2509797805927</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -45286,7 +45371,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>-44.15419577086156,168.25116891468144</t>
+          <t>-44.15418983103658,168.25115971354538</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -45403,7 +45488,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>-44.154127192841734,168.25106268349677</t>
+          <t>-44.15413289268052,168.25107151285084</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -45593,7 +45678,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>-44.15415989190861,168.25111333613037</t>
+          <t>-44.15415407207617,168.25110432088687</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -45710,7 +45795,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>-44.15415581202615,168.25110701616566</t>
+          <t>-44.154161751854936,168.25111621729104</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -45819,7 +45904,7 @@
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
-          <t>-44.154130192756966,168.25106733052502</t>
+          <t>-44.15413337266692,168.2510722563755</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -45928,7 +46013,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>-44.15407097439879,168.2509755982753</t>
+          <t>-44.15407649424854,168.25098414879125</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -46045,7 +46130,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>-44.154225889963804,168.25121557097583</t>
+          <t>-44.15423578966499,168.2512309062225</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -46146,7 +46231,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>-44.15402837553888,168.25090961065206</t>
+          <t>-44.154033775396265,168.25091797527503</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -46263,7 +46348,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>-44.15410823337351,168.2510333142892</t>
+          <t>-44.15411021331828,168.25103638132583</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -46376,7 +46461,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>-44.15405597480413,168.25095236318575</t>
+          <t>-44.15404895499238,168.25094148916793</t>
         </is>
       </c>
       <c r="M141" t="inlineStr"/>
@@ -46481,7 +46566,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>-44.15414009247603,168.2510826657216</t>
+          <t>-44.15414345238027,168.25108787039557</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -46590,7 +46675,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>-44.15412455291618,168.2510585941123</t>
+          <t>-44.15413061274507,168.251067981109</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -46703,7 +46788,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>-44.15420693053091,168.2511862016694</t>
+          <t>-44.15420165068764,168.25117802287858</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -46820,7 +46905,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>-44.154125092900955,168.25105943057727</t>
+          <t>-44.154122032987125,168.25105469060927</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -46929,7 +47014,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>-44.15410409348872,168.25102690139516</t>
+          <t>-44.154109193346734,168.25103480133723</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -47034,7 +47119,7 @@
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
-          <t>-44.154137452551126,168.25107857633535</t>
+          <t>-44.15413145272131,168.25106928227703</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -47143,7 +47228,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>-44.15413901250676,168.25108099279083</t>
+          <t>-44.15413463263119,168.2510742081277</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -47256,7 +47341,7 @@
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
-          <t>-44.15411279324623,168.25104037776777</t>
+          <t>-44.154107153403594,168.25103164136024</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -47365,7 +47450,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>-44.154154252071,168.25110459970878</t>
+          <t>-44.15415509204686,168.25110590087786</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -47474,7 +47559,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>-44.15418383121269,168.25115041947043</t>
+          <t>-44.15418683112471,168.25115506650766</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -47579,7 +47664,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>-44.154090533863815,168.25100589684996</t>
+          <t>-44.15409263380595,168.2510091497656</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -47684,7 +47769,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>-44.15402639559103,168.250906543624</t>
+          <t>-44.15403221543752,168.25091555882824</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -47797,7 +47882,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>-44.15408495401717,168.25099725338947</t>
+          <t>-44.15407925417322,168.25098842404984</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -47914,7 +47999,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>-44.15412557288742,168.2510601741017</t>
+          <t>-44.154127552831554,168.25106324114012</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -48015,7 +48100,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>-44.15411399321268,168.2510422365781</t>
+          <t>-44.154112613251264,168.25104009894622</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -48120,7 +48205,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>-44.154152872110636,168.251102462074</t>
+          <t>-44.154146872282574,168.25109316801075</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -48334,7 +48419,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>-44.15411207326635,168.2510392624816</t>
+          <t>-44.15410637342529,168.25103043313382</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -48447,7 +48532,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>-44.154109853328336,168.2510358236828</t>
+          <t>-44.154116933130325,168.25104679066374</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -48556,7 +48641,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>-44.154116933130325,168.25104679066374</t>
+          <t>-44.15411207326635,168.2510392624816</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -48778,7 +48863,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>-44.15413055274678,168.25106788816842</t>
+          <t>-44.15413271268562,168.2510712340291</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -48895,7 +48980,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>-44.15416559174391,168.2511221654943</t>
+          <t>-44.15415869194322,168.25111147731712</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -49008,7 +49093,7 @@
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
-          <t>-44.154020935734486,168.2508980860629</t>
+          <t>-44.154026755581555,168.25090710126545</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -49125,7 +49210,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>-44.154119573056256,168.25105088004713</t>
+          <t>-44.154117293120244,168.2510473483069</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -49242,7 +49327,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>-44.15415221212958,168.25110143972694</t>
+          <t>-44.154155152045135,168.2511059938185</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -49355,7 +49440,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>-44.15407031441671,168.2509745759311</t>
+          <t>-44.154064794566295,168.25096602541697</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -49428,7 +49513,7 @@
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
-          <t>-44.15423122980285,168.25122384271432</t>
+          <t>-44.15423950955223,168.251236668559</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -49541,7 +49626,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>-44.15415251212097,168.25110190443013</t>
+          <t>-44.1541478922534,168.25109474800138</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -49658,7 +49743,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>-44.154228289891535,168.25121928861094</t>
+          <t>-44.15423884957226,168.2512356462089</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -49771,7 +49856,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>-44.154032815421665,168.25091648823084</t>
+          <t>-44.15402663558472,168.25090691538497</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -49888,7 +49973,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>-44.15412209298543,168.25105478354982</t>
+          <t>-44.15412407292969,168.25105785058787</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -49985,7 +50070,7 @@
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
-          <t>-44.15436604556092,168.25143268137495</t>
+          <t>-44.15436772550591,168.2514352837319</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -50094,7 +50179,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>-44.1541601319017,168.251113707893</t>
+          <t>-44.154155992020975,168.2511072949876</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -50203,7 +50288,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>-44.154027655557854,168.2509084953691</t>
+          <t>-44.15403827527698,168.25092494579536</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -50312,7 +50397,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>-44.154174411487816,168.2511358277766</t>
+          <t>-44.154168231667406,168.2511262548845</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -50429,7 +50514,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>-44.15412671285527,168.2510619399723</t>
+          <t>-44.154119573056256,168.25105088004713</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -50615,7 +50700,7 @@
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
-          <t>-44.154087053959536,168.2510005063045</t>
+          <t>-44.15408489401882,168.25099716044906</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -50732,7 +50817,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>-44.15417435148957,168.2511357348359</t>
+          <t>-44.15417795138462,168.25114131127884</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -50849,7 +50934,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>-44.154149152217315,168.25109669975458</t>
+          <t>-44.15414453234945,168.25108954332663</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -50950,7 +51035,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>-44.15411831309162,168.25104892829592</t>
+          <t>-44.154112493254615,168.2510399130652</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -51067,7 +51152,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>-44.15413463263119,168.2510742081277</t>
+          <t>-44.154136552576695,168.25107718222648</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -51180,7 +51265,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>-44.1541529921072,168.25110264795526</t>
+          <t>-44.15415461206065,168.25110515735267</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -51297,7 +51382,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>-44.154170571599494,168.25112987957155</t>
+          <t>-44.154165711740426,168.25112235137567</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -51414,7 +51499,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>-44.15414597230829,168.25109177390146</t>
+          <t>-44.15414225241448,168.2510860115834</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -51531,7 +51616,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>-44.15406137465869,168.25096072781662</t>
+          <t>-44.154068694460676,168.25097206654092</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -51628,7 +51713,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>-44.154111893271384,168.25103898366007</t>
+          <t>-44.15411603315556,168.25104539655584</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -51846,7 +51931,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>-44.154105593447014,168.2510292249074</t>
+          <t>-44.15410949333837,168.25103526603974</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -51963,7 +52048,7 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>-44.154108653361796,168.2510339648727</t>
+          <t>-44.1541185530849,168.25104930005804</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -52072,7 +52157,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>-44.15406113466517,168.2509603560552</t>
+          <t>-44.15405711477349,168.25095412905216</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -52185,7 +52270,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>-44.15403965524035,168.25092708342183</t>
+          <t>-44.154046735051715,168.2509380503765</t>
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
@@ -52262,7 +52347,7 @@
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
-          <t>-44.15420369062715,168.25118118286576</t>
+          <t>-44.154209510454145,168.25119019812453</t>
         </is>
       </c>
       <c r="M195" t="inlineStr"/>
@@ -52339,7 +52424,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>-44.154157971963976,168.2511103620292</t>
+          <t>-44.154161571860136,168.25111593846904</t>
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
@@ -52448,7 +52533,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>-44.154029395511984,168.25091119063626</t>
+          <t>-44.154034075388324,168.25091843997637</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -52557,7 +52642,7 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>-44.1540665945176,168.25096881362794</t>
+          <t>-44.154062274634406,168.2509621219219</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -52666,7 +52751,7 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>-44.154067074504574,168.25096955715088</t>
+          <t>-44.15407667424363,168.25098442761245</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -52783,7 +52868,7 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>-44.15409833364849,168.25101797910926</t>
+          <t>-44.15410793338186,168.25103284958672</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -52900,7 +52985,7 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>-44.15406821447369,168.25097132301795</t>
+          <t>-44.15407031441671,168.2509745759311</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
@@ -53017,7 +53102,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>-44.154066714514336,168.25096899950864</t>
+          <t>-44.15406839446881,168.25097160183904</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
@@ -53134,7 +53219,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>-44.15408285407474,168.25099400047466</t>
+          <t>-44.15407883418467,168.250987773467</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
@@ -53243,7 +53328,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>-44.15429098796493,168.25131641193533</t>
+          <t>-44.154301127646384,168.2513321189805</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
@@ -53356,7 +53441,7 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>-44.154110933298206,168.2510374966119</t>
+          <t>-44.154112013268026,168.2510391695411</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
@@ -53461,7 +53546,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>-44.15414093245212,168.25108396689004</t>
+          <t>-44.15413577259885,168.25107597399884</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
@@ -53635,7 +53720,7 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>-44.154350746059585,168.25140898134512</t>
+          <t>-44.15435260599919,168.25141186252455</t>
         </is>
       </c>
       <c r="M208" t="inlineStr"/>
@@ -53732,7 +53817,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>-44.1540107959994,168.25088237916785</t>
+          <t>-44.15401073600095,168.25088228622766</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
@@ -53849,7 +53934,7 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>-44.1540672544997,168.250969835972</t>
+          <t>-44.15406155465384,168.25096100663765</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
@@ -53958,7 +54043,7 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>-44.15412737283665,168.25106296231843</t>
+          <t>-44.154134392638,168.25107383636535</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
@@ -54059,7 +54144,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>-44.1540758942649,168.25098321938728</t>
+          <t>-44.15408603398754,168.25099892631718</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
@@ -54168,7 +54253,7 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>-44.15412785282309,168.25106370584294</t>
+          <t>-44.154129292782414,168.25106593641647</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
@@ -54273,7 +54358,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>-44.15416541174912,168.25112188667225</t>
+          <t>-44.15416139186534,168.251115659647</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
@@ -54382,7 +54467,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>-44.154185631159926,168.2511532076927</t>
+          <t>-44.1541912709942,168.25116194412365</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
@@ -54499,7 +54584,7 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>-44.15412101301581,168.25105311062006</t>
+          <t>-44.1541313327247,168.25106909639587</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
@@ -54608,7 +54693,7 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>-44.154161571860136,168.25111593846904</t>
+          <t>-44.1541565920037,168.25110822439413</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
@@ -54705,7 +54790,7 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>-44.154127972819715,168.25106389172404</t>
+          <t>-44.154122032987125,168.25105469060927</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
@@ -54879,7 +54964,7 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>-44.154155272041685,168.2511061796998</t>
+          <t>-44.15415011218981,168.25109818680468</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
@@ -54996,7 +55081,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>-44.15414351237856,168.25108796333618</t>
+          <t>-44.15413907250506,168.2510810857314</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
@@ -55113,7 +55198,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>-44.154113213234496,168.25104102835138</t>
+          <t>-44.15411339322945,168.25104130717293</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
@@ -55315,7 +55400,7 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>-44.154131632716215,168.25106956109875</t>
+          <t>-44.15412869279936,168.25106500701082</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
@@ -55408,7 +55493,7 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>-44.154195830859784,168.25116900762222</t>
+          <t>-44.1542015306912,168.251177836997</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
@@ -55525,7 +55610,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>-44.153993156455606,168.2508550547599</t>
+          <t>-44.15400371618319,168.25087141222664</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
@@ -55630,7 +55715,7 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>-44.15421581026614,168.25119995691185</t>
+          <t>-44.1542245100053,168.25121343333583</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
@@ -55719,7 +55804,7 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>-44.15406155465384,168.25096100663765</t>
+          <t>-44.154067014506204,168.2509694642105</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
@@ -55824,7 +55909,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>-44.1540701344216,168.25097429710996</t>
+          <t>-44.1540721143678,168.25097736414259</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
@@ -55933,7 +56018,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>-44.15408315406651,168.25099446517677</t>
+          <t>-44.15407823420107,168.25098684406294</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
@@ -56155,7 +56240,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>-44.15405387486055,168.25094911027415</t>
+          <t>-44.15405879472824,168.25095673138168</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
@@ -56236,7 +56321,7 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>-44.15412593287728,168.25106073174504</t>
+          <t>-44.154124372921245,168.25105831529063</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
@@ -56341,7 +56426,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>-44.15405921471694,168.2509573819641</t>
+          <t>-44.15406011469268,168.25095877606927</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
@@ -56458,7 +56543,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>-44.15409653369827,168.2510151908953</t>
+          <t>-44.15409797365845,168.25101742146646</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
@@ -56575,7 +56660,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>-44.15408999387869,168.25100506038595</t>
+          <t>-44.15409809365512,168.2510176073474</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
@@ -56797,7 +56882,7 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>-44.15423464969948,168.25122914034537</t>
+          <t>-44.15423794959953,168.25123425209523</t>
         </is>
       </c>
       <c r="M238" t="inlineStr"/>
@@ -56894,7 +56979,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>-44.15430424754797,168.2513369519186</t>
+          <t>-44.154301727627484,168.25133304839164</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
@@ -56979,7 +57064,7 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>-44.15414513233231,168.25109047273278</t>
+          <t>-44.154154192072724,168.25110450676814</t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
@@ -57084,7 +57169,7 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>-44.15400935603685,168.25088014860333</t>
+          <t>-44.154014455904,168.2508880485199</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
@@ -57274,7 +57359,7 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>-44.15398847657564,168.25084780542994</t>
+          <t>-44.15399291646177,168.25085468299935</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
@@ -57391,7 +57476,7 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>-44.15402561561156,168.2509053354009</t>
+          <t>-44.154025915603675,168.25090580010206</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
@@ -57549,7 +57634,7 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>-44.153942637729656,168.25077679923348</t>
+          <t>-44.15393633788516,168.25076704053717</t>
         </is>
       </c>
       <c r="M246" t="inlineStr"/>
@@ -57646,7 +57731,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>-44.153999396294886,168.250864720535</t>
+          <t>-44.15400395617698,168.25087178398732</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
@@ -57751,7 +57836,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>-44.15406425458091,168.25096518895373</t>
+          <t>-44.15406677451271,168.25096909244903</t>
         </is>
       </c>
       <c r="M248" t="inlineStr"/>
@@ -57808,7 +57893,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>-44.15414861223278,168.2510958632889</t>
+          <t>-44.15414729227056,168.2510938185951</t>
         </is>
       </c>
       <c r="M249" t="inlineStr"/>
@@ -57893,7 +57978,7 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>-44.15404649505812,168.2509376786153</t>
+          <t>-44.15404439511417,168.25093442570474</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
@@ -57982,7 +58067,7 @@
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
-          <t>-44.15399897630573,168.2508640699539</t>
+          <t>-44.15400299620183,168.2508702969446</t>
         </is>
       </c>
       <c r="M251" t="inlineStr"/>
@@ -58067,7 +58152,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>-44.154184431195105,168.25115134887787</t>
+          <t>-44.15417933134433,168.25114344891549</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
@@ -58172,7 +58257,7 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>-44.15419931075693,168.25117439818766</t>
+          <t>-44.154191390990675,168.25116213000518</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
@@ -58265,7 +58350,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>-44.1541475322637,168.2510941903576</t>
+          <t>-44.15414093245212,168.25108396689004</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
@@ -58370,7 +58455,7 @@
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
-          <t>-44.15400305620028,168.2508703898848</t>
+          <t>-44.154007676080504,168.2508775462782</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
@@ -58483,7 +58568,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>-44.154210950411255,168.2511924287043</t>
+          <t>-44.154206510543396,168.25118555108372</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
@@ -58576,7 +58661,7 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>-44.1541740514983,168.25113527013238</t>
+          <t>-44.15417021160995,168.25112932192738</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
@@ -58677,7 +58762,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>-44.15409683368998,168.25101565559763</t>
+          <t>-44.15410043359031,168.2510212320258</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
@@ -58778,7 +58863,7 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>-44.154137752542596,168.2510790410383</t>
+          <t>-44.154131692714515,168.2510696540393</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
@@ -58972,7 +59057,7 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>-44.15413001276205,168.2510670517033</t>
+          <t>-44.154125092900955,168.25105943057727</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
@@ -59077,7 +59162,7 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>-44.154132412694125,168.25107076932622</t>
+          <t>-44.154135472607365,168.25107550929587</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
@@ -59174,7 +59259,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>-44.154119933046154,168.25105143769036</t>
+          <t>-44.154115913158925,168.2510452106748</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
@@ -59380,7 +59465,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>-44.154117233121916,168.25104725536636</t>
+          <t>-44.15411213326467,168.25103935542214</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
@@ -59497,7 +59582,7 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>-44.15413751254942,168.25107866927593</t>
+          <t>-44.1541388325119,168.25108071396903</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
@@ -59817,7 +59902,7 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>-44.15405867473148,168.250956545501</t>
+          <t>-44.154068814457425,168.25097225242166</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
@@ -59943,7 +60028,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>-44.154110453311596,168.25103675308785</t>
+          <t>-44.154106133431995,168.25103006137184</t>
         </is>
       </c>
       <c r="M272" t="inlineStr"/>
@@ -60020,7 +60105,7 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>-44.154157671972605,168.25110989732593</t>
+          <t>-44.154153952079625,168.25110413500556</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
@@ -60113,7 +60198,7 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>-44.154029635505665,168.25091156239725</t>
+          <t>-44.15402453563998,168.25090366247665</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
@@ -60230,7 +60315,7 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>-44.15415581202615,168.25110701616566</t>
+          <t>-44.154149512207006,168.25109725739836</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
@@ -60448,7 +60533,7 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>-44.154095933714856,168.2510142614907</t>
+          <t>-44.154093113792726,168.25100989328922</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
@@ -60565,7 +60650,7 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>-44.15412341294829,168.25105682824181</t>
+          <t>-44.15412503290265,168.2510593376367</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
@@ -60654,7 +60739,7 @@
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
-          <t>-44.154165951733475,168.2511227231384</t>
+          <t>-44.15416805167262,168.2511259760624</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
@@ -60759,7 +60844,7 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>-44.15415251212097,168.25110190443013</t>
+          <t>-44.15415581202615,168.25110701616566</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
@@ -60876,7 +60961,7 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>-44.15406827447206,168.2509714159583</t>
+          <t>-44.154071994371066,168.25097717826182</t>
         </is>
       </c>
       <c r="M281" t="inlineStr"/>
@@ -60981,7 +61066,7 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>-44.15409989360527,168.2510203955615</t>
+          <t>-44.154099293621904,168.2510194661568</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
@@ -61098,7 +61183,7 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>-44.1541751914651,168.25113703600587</t>
+          <t>-44.154179091351345,168.2511430771526</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
@@ -61187,7 +61272,7 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>-44.154168831650004,168.25112718429142</t>
+          <t>-44.15416385179425,168.2511194702146</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
@@ -61284,7 +61369,7 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>-44.15414351237856,168.25108796333618</t>
+          <t>-44.154140512464075,168.25108331630582</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
@@ -61401,7 +61486,7 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>-44.1540911338473,168.25100682625438</t>
+          <t>-44.15410007360028,168.25102067438294</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
@@ -61506,7 +61591,7 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>-44.154067314498086,168.25096992891235</t>
+          <t>-44.154073374333535,168.25097931589073</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
@@ -61619,7 +61704,7 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>-44.154004736156786,168.25087299220954</t>
+          <t>-44.15401313593844,168.2508860038355</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
@@ -61736,7 +61821,7 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>-44.15419913076226,168.25117411936532</t>
+          <t>-44.15419253095709,168.25116389587973</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
@@ -61841,7 +61926,7 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>-44.15406929444439,168.2509729959447</t>
+          <t>-44.15407097439879,168.2509755982753</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
@@ -61930,7 +62015,7 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>-44.15407523428289,168.2509821970429</t>
+          <t>-44.15408267407967,168.2509937216534</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
@@ -62047,7 +62132,7 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>-44.154076194256724,168.25098368408925</t>
+          <t>-44.15407751422072,168.25098572877806</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
@@ -62257,7 +62342,7 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>-44.15404745503248,168.25093916566018</t>
+          <t>-44.154048834995585,168.2509413032873</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
@@ -62464,7 +62549,7 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>-44.154030895472395,168.25091351414258</t>
+          <t>-44.154030595480315,168.2509130494413</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
@@ -62655,7 +62740,7 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>-44.15400599612411,168.25087494395316</t>
+          <t>-44.15401547587738,168.25088962850336</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
@@ -62764,7 +62849,7 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>-44.15407091440042,168.25097550533494</t>
+          <t>-44.154063834592264,168.2509645383712</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
@@ -62869,7 +62954,7 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>-44.154166791709144,168.25112402430798</t>
+          <t>-44.15416097187746,168.25111500906235</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
@@ -62986,7 +63071,7 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>-44.15415149215024,168.25110032443928</t>
+          <t>-44.15415911193112,168.25111212790173</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
@@ -63067,7 +63152,7 @@
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
-          <t>-44.154063414603606,168.25096388778866</t>
+          <t>-44.15406851446555,168.2509717877198</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
@@ -63164,7 +63249,7 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>-44.15399795633205,168.2508624899713</t>
+          <t>-44.154006416113205,168.25087559453442</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
@@ -63281,7 +63366,7 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>-44.15407457430087,168.25098117469855</t>
+          <t>-44.154067554491576,168.25097030067386</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
@@ -63479,7 +63564,7 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>-44.15401967576751,168.25089613431822</t>
+          <t>-44.15401403591497,168.25088739793847</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
@@ -63596,7 +63681,7 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>-44.15400443616454,168.25087252750868</t>
+          <t>-44.15401151598064,168.25088349445016</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
@@ -63697,7 +63782,7 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>-44.154071334388995,168.25097615591758</t>
+          <t>-44.15406305461333,168.25096333014653</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
@@ -63794,7 +63879,7 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>-44.15403575534382,168.25092104230387</t>
+          <t>-44.15403275542323,168.25091639529057</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
@@ -63911,7 +63996,7 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>-44.15410403349039,168.25102680845467</t>
+          <t>-44.154108953353436,168.2510344295752</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
@@ -64028,7 +64113,7 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>-44.15409797365845,168.25101742146646</t>
+          <t>-44.1540926938043,168.25100924270606</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
@@ -64186,7 +64271,7 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>-44.15405525482348,168.25095124790175</t>
+          <t>-44.154061794647376,168.2509613783991</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
@@ -64303,7 +64388,7 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>-44.154125992875585,168.2510608246856</t>
+          <t>-44.15412653286035,168.25106166115063</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
@@ -64420,7 +64505,7 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>-44.15402585560526,168.25090570716185</t>
+          <t>-44.154022015706154,168.25089975898695</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
@@ -64537,7 +64622,7 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>-44.154091193845645,168.25100691919482</t>
+          <t>-44.1540865739727,168.25099976278105</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
@@ -64630,7 +64715,7 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>-44.15406239463117,168.2509623078026</t>
+          <t>-44.154070674406924,168.2509751335734</t>
         </is>
       </c>
       <c r="M319" t="inlineStr">
@@ -64747,7 +64832,7 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>-44.154148972222465,168.25109642093267</t>
+          <t>-44.15414357237683,168.2510880562768</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
@@ -64864,7 +64949,7 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>-44.15413067274338,168.25106807404956</t>
+          <t>-44.154137752542596,168.2510790410383</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
@@ -64981,7 +65066,7 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>-44.154064734567925,168.25096593247662</t>
+          <t>-44.154064374577665,168.25096537483444</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
@@ -65098,7 +65183,7 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>-44.15412395293308,168.25105766470676</t>
+          <t>-44.15412389293477,168.25105757176624</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
@@ -65215,7 +65300,7 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>-44.15413205270432,168.25107021168276</t>
+          <t>-44.154129112787494,168.25106565759478</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
@@ -65373,7 +65458,7 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>-44.15408741394963,168.25100106394711</t>
+          <t>-44.15408195409937,168.25099260636838</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
@@ -65490,7 +65575,7 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>-44.15401643585229,168.2508911155467</t>
+          <t>-44.15402441564313,168.25090347659616</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
@@ -65607,7 +65692,7 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>-44.1540471550405,168.25093870095864</t>
+          <t>-44.15404547508536,168.25093609863015</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
@@ -65684,7 +65769,7 @@
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
-          <t>-44.153961957248114,168.25080672591528</t>
+          <t>-44.153957397362404,168.2507996624731</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
@@ -65773,7 +65858,7 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>-44.15402435564471,168.25090338365592</t>
+          <t>-44.15402399565416,168.25090282601454</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
@@ -65943,7 +66028,7 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>-44.154186591131754,168.25115469474466</t>
+          <t>-44.15418167127592,168.25114707360393</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
@@ -66060,7 +66145,7 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>-44.15418767110006,168.2511563676782</t>
+          <t>-44.15419529087572,168.25116817115523</t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
@@ -66177,7 +66262,7 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>-44.15413733255454,168.25107839045415</t>
+          <t>-44.15413985248287,168.2510822939592</t>
         </is>
       </c>
       <c r="M334" t="inlineStr">
@@ -66282,7 +66367,7 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>-44.1540893938952,168.25100413098156</t>
+          <t>-44.154095213734756,168.25101314620517</t>
         </is>
       </c>
       <c r="M335" t="inlineStr">
@@ -66399,7 +66484,7 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>-44.15408489401882,168.25099716044906</t>
+          <t>-44.154083034069785,168.25099427929592</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
@@ -66516,7 +66601,7 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>-44.1540471550405,168.25093870095864</t>
+          <t>-44.1540570547751,168.25095403611178</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
@@ -66633,7 +66718,7 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>-44.15406245462954,168.25096240074296</t>
+          <t>-44.15407031441671,168.2509745759311</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
@@ -66795,7 +66880,7 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>-44.154019735765935,168.25089622725847</t>
+          <t>-44.154027835553116,168.25090877418984</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
@@ -66912,7 +66997,7 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>-44.154180531309265,168.25114530773004</t>
+          <t>-44.154179931326794,168.25114437832275</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
@@ -67094,7 +67179,7 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>-44.15401199596814,168.25088423797172</t>
+          <t>-44.15400851605868,168.25087884744073</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
@@ -67211,7 +67296,7 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>-44.15397797684348,168.25083154091178</t>
+          <t>-44.15398529665698,168.25084287960382</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
@@ -67328,7 +67413,7 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>-44.15398187674425,168.25083758201785</t>
+          <t>-44.15397671687548,168.25082958917</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
@@ -67445,7 +67530,7 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>-44.15404889499399,168.25094139622763</t>
+          <t>-44.154044575109374,168.25093470452566</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
@@ -67558,7 +67643,7 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>-44.15405891472501,168.25095691726236</t>
+          <t>-44.15406653451921,168.25096872068755</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
@@ -67671,7 +67756,7 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>-44.15406587453708,168.25096769834352</t>
+          <t>-44.15406635452409,168.25096844186646</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
@@ -67788,7 +67873,7 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>-44.15414453234945,168.25108954332663</t>
+          <t>-44.154154252071,168.25110459970878</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
@@ -67905,7 +67990,7 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>-44.15414243240935,168.25108629040523</t>
+          <t>-44.154141112446986,168.25108424571187</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
@@ -68014,7 +68099,7 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>-44.15408441403198,168.25099641692563</t>
+          <t>-44.154083034069785,168.25099427929592</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
@@ -68131,7 +68216,7 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>-44.154040495218,168.2509283845858</t>
+          <t>-44.15404295515254,168.25093219513766</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
@@ -68248,7 +68333,7 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>-44.154110093321634,168.2510361954448</t>
+          <t>-44.15410739339692,168.25103201312223</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
@@ -68365,7 +68450,7 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>-44.15401181597284,168.25088395915114</t>
+          <t>-44.15401895578636,168.25089501903562</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
@@ -68482,7 +68567,7 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>-44.15406653451921,168.25096872068755</t>
+          <t>-44.15406125466193,168.2509605419359</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
@@ -68599,7 +68684,7 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>-44.1540933537861,168.25101026505104</t>
+          <t>-44.15409329378776,168.25101017211057</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
@@ -68716,7 +68801,7 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>-44.15413565260224,168.25107578811765</t>
+          <t>-44.15412947277732,168.25106621523818</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
@@ -68833,7 +68918,7 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>-44.15413721255795,168.251078204573</t>
+          <t>-44.154131152729796,168.25106881757415</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
@@ -68950,7 +69035,7 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>-44.15423788960136,168.2512341591543</t>
+          <t>-44.15423596965954,168.25123118504527</t>
         </is>
       </c>
       <c r="M359" t="inlineStr"/>
@@ -69027,7 +69112,7 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>-44.15405207490883,168.2509463220644</t>
+          <t>-44.15405621479768,168.2509527349471</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
@@ -69140,7 +69225,7 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>-44.1540717543776,168.2509768065003</t>
+          <t>-44.1540701344216,168.25097429710996</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
@@ -69253,7 +69338,7 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>-44.15409245381092,168.25100887094425</t>
+          <t>-44.154090353868774,168.2510056180286</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
@@ -69370,7 +69455,7 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>-44.15401583586796,168.2508901861446</t>
+          <t>-44.154023515666786,168.25090208249267</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
@@ -69487,7 +69572,7 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>-44.15408417403857,168.25099604516393</t>
+          <t>-44.15407871418795,168.25098758758617</t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
@@ -69649,7 +69734,7 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>-44.154109313343405,168.25103498721825</t>
+          <t>-44.15411147328311,168.25103833307648</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
@@ -69766,7 +69851,7 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>-44.15408909390345,168.25100366627936</t>
+          <t>-44.15409017387374,168.25100533920727</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
@@ -69822,6 +69907,123 @@
       <c r="W367" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-11 22:26:49+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>-44.157645485300385,168.24379740497133</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>-44.15775573434956,168.24486635881826</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>-44.15748222354456,168.24567899743988</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>-44.157089796459125,168.2464079488778</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>-44.156656311229334,168.24706323949724</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>-44.156232770848014,168.24771966312576</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>-44.15581710656924,168.2484056444811</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>-44.15541545900918,168.24910725019376</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>-44.15493845213283,168.2497248750744</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>-44.15451212465576,168.25038125155794</t>
+        </is>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>-44.154141592433305,168.25108498923672</t>
+        </is>
+      </c>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>-44.153679897153914,168.2517005241997</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>-44.153129492710455,168.25217576055826</t>
+        </is>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>-44.15257222766332,168.25263863675173</t>
+        </is>
+      </c>
+      <c r="P368" t="inlineStr">
+        <is>
+          <t>-44.15210809232861,168.2532694197601</t>
+        </is>
+      </c>
+      <c r="Q368" t="inlineStr">
+        <is>
+          <t>-44.15152983439102,168.2536714008024</t>
+        </is>
+      </c>
+      <c r="R368" t="inlineStr">
+        <is>
+          <t>-44.151002443625536,168.25416414047191</t>
+        </is>
+      </c>
+      <c r="S368" t="inlineStr">
+        <is>
+          <t>-44.150445373505974,168.25462208988603</t>
+        </is>
+      </c>
+      <c r="T368" t="inlineStr">
+        <is>
+          <t>-44.14983828994917,168.25493137739898</t>
+        </is>
+      </c>
+      <c r="U368" t="inlineStr">
+        <is>
+          <t>-44.14919585451505,168.25511268009618</t>
+        </is>
+      </c>
+      <c r="V368" t="inlineStr">
+        <is>
+          <t>-44.14858595560149,168.2553433841126</t>
+        </is>
+      </c>
+      <c r="W368" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
